--- a/Formula/Excel IP Formulas User Guide.xlsx
+++ b/Formula/Excel IP Formulas User Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngrisonw/Dropbox/Work/Networking/Excel IP Functions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngrisonw/Dropbox/Work/Networking/Excel IP Functions/Excel IP Formulas v1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A165E83-D2F6-794B-8950-E7642EE3F416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E198F8-B037-A54D-AA49-4C6BCF2CF1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="540" windowWidth="52160" windowHeight="32300" activeTab="4" xr2:uid="{A0150F5B-D3EF-2E46-9185-F1AC39351D67}"/>
+    <workbookView xWindow="40" yWindow="880" windowWidth="36000" windowHeight="21520" xr2:uid="{A0150F5B-D3EF-2E46-9185-F1AC39351D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="30" r:id="rId1"/>
@@ -45,6 +45,8 @@
     <definedName name="ip.BITNOT" comment="Perform a bitwise NOT on a decimal number._x000a_ipdec: a quad dotted decimal ip address (i.e. &quot;192.168.0.1&quot;)_x000a_bits: the number of bits to perform the BITWISE on_x000a_```_x000a__dot2dec(&quot;192.168.0.1&quot;) ==&gt; 3232235521_x000a_```">_xlfn.LAMBDA(_xlpm.ipdec,_xlpm.bits, _xlfn.BITXOR(_xlfn.BITLSHIFT(1, _xlpm.bits) - 1, _xlpm.ipdec))</definedName>
     <definedName name="ip.broadcast_address" comment="Returns the broadcast addres of a subnet._x000a__x000a_ip_interfaces: a Cell, String, Range or Array containing ip interfaces_x000a_in &quot;ip/prefix&quot; format._x000a_```_x000a_broadcast(&quot;192.168.0.1/24&quot;) ==&gt; &quot;192.168.0.255&quot;_x000a_```">_xlfn.LAMBDA(_xlpm.cells,_xlop.exclude_prefix_length, _xlfn.LET(_xlpm.ipdec, ip._dot2dec(ip.ip(_xlpm.cells)), _xlpm.pfx, ip.prefixlen(_xlpm.cells), _xlpm.pfxdec, ip._pfx2dec(_xlpm.pfx), ip._dec2dot(ip._last_address(_xlpm.ipdec, _xlpm.pfxdec)) &amp; IF(_xlpm.exclude_prefix_length, "", "/" &amp; _xlpm.pfx)))</definedName>
     <definedName name="ip.checked" comment="Returns the checked ip properly formatted or NA if the ip is invalid._x000a__x000a_ip_interfaces: a Cell, String, Range or Array containing ip interfaces_x000a_in &quot;ip&quot; or &quot;ip/prefix&quot; format._x000a_```_x000a_checked(&quot;10.00.0.00/8&quot;) ==&gt; &quot;10.0.0.0/8&quot;_x000a_```">_xlfn.LAMBDA(_xlpm.ip_interfaces, _xlfn.LET(_xlpm.is_net, ISNUMBER(SEARCH("/", _xlpm.ip_interfaces)), _xlpm.ipdec, IF(_xlpm.is_net, ip._dot2dec(_xlfn.TEXTBEFORE(_xlpm.ip_interfaces, "/")), ip._dot2dec(_xlpm.ip_interfaces)), _xlpm.pfxdec, ip._pfx2dec(VALUE(_xlfn.TEXTAFTER(_xlpm.ip_interfaces, "/"))), ip._dec2dot(_xlpm.ipdec) &amp; IF(_xlpm.is_net, "/" &amp; ip._dec2pfx(_xlpm.pfxdec), "")))</definedName>
+    <definedName name="ip.filter_exclude">_xlfn.LAMBDA(_xlpm.ip_interfaces,_xlpm.supernet, _xlfn._xlws.FILTER(_xlpm.ip_interfaces, ip.subnet_of(_xlpm.ip_interfaces, _xlpm.supernet) = FALSE))</definedName>
+    <definedName name="ip.filter_include" comment="Returns a filtered list of ip addresses/interfaces that are included in_x000a_or excluded of a supernet._x000a__x000a_ip_interfaces: a Range or Array containing ip interfaces_x000a_in &quot;ip&quot; or &quot;ip/prefix&quot; format._x000a_supernet: an ip network in &quot;ip&quot; or &quot;ip/prefix&quot; format._x000a_```_x000a_filter_i">_xlfn.LAMBDA(_xlpm.ip_interfaces,_xlpm.supernet, _xlfn._xlws.FILTER(_xlpm.ip_interfaces, ip.subnet_of(_xlpm.ip_interfaces, _xlpm.supernet) = TRUE))</definedName>
     <definedName name="ip.first_host_address" comment="Returns the first host addres of a subnet._x000a__x000a_ip_interfaces: a Cell, String, Range or Array containing ip interfaces_x000a_in &quot;ip/prefix&quot; format._x000a_[omit_prefixlen]: Optional, do not include the prefix length_x000a_in the response if the input is a network_x000a_```_x000a_firsthost(">_xlfn.LAMBDA(_xlpm.cells,_xlop.omit_prefixlen, _xlfn.LET(_xlpm.is_net, ISNUMBER(SEARCH("/", _xlpm.cells)), _xlpm.ipdec, IF(_xlpm.is_net, ip._dot2dec(_xlfn.TEXTBEFORE(_xlpm.cells, "/")), ip._dot2dec(_xlpm.cells)), _xlpm.pfx, ip.prefixlen(_xlpm.cells), _xlpm.pfxdec, ip._pfx2dec(_xlpm.pfx), ip._dec2dot(ip._firsthost(_xlpm.ipdec, _xlpm.pfxdec)) &amp; IF(_xlpm.omit_prefixlen + NOT(_xlpm.is_net), "", "/" &amp; ip._dec2pfx(_xlpm.pfxdec))))</definedName>
     <definedName name="ip.from_classful" comment="Returns ip addresses with no prefix length with the correct classful prefix length._x000a_If the address is followed by a prefix length, that interface is returned checked but_x000a_unchanged._x000a_If no prefix length is provided, the default subnet mask for the address c">_xlfn.LAMBDA(_xlpm.ip_interfaces, _xlfn.LET(_xlpm.is_net, ISNUMBER(SEARCH("/", _xlpm.ip_interfaces)), _xlpm.ipdec, IF(_xlpm.is_net, ip._dot2dec(_xlfn.TEXTBEFORE(_xlpm.ip_interfaces, "/")), ip._dot2dec(_xlpm.ip_interfaces)), _xlpm.pfxdec, ip._pfx2dec(VALUE(_xlfn.TEXTAFTER(_xlpm.ip_interfaces, "/"))), IF(_xlpm.is_net, ip._dec2dot(_xlpm.ipdec) &amp; "/" &amp; ip._dec2pfx(_xlpm.pfxdec), _xlfn.IFS(_xlpm.ipdec &lt; VALUE("2147483648"), ip._dec2dot(_xlpm.ipdec) &amp; "/8", _xlpm.ipdec &lt; VALUE("3221225472"), ip._dec2dot(_xlpm.ipdec) &amp; "/16", _xlpm.ipdec &lt; VALUE("3758096384"), ip._dec2dot(_xlpm.ipdec) &amp; "/24", _xlpm.ipdec &gt;= VALUE("3758096384"), NA()))))</definedName>
     <definedName name="ip.from_hostmask">_xlfn.LAMBDA(_xlpm.cells,_xlop.sep, _xlfn.LET(_xlpm.sep, IF(_xlfn.ISOMITTED(_xlpm.sep), "/", _xlpm.sep), _xlpm.ip_string, _xlfn.TEXTBEFORE(_xlpm.cells, _xlpm.sep), _xlpm.hostmask, _xlfn.TEXTAFTER(_xlpm.cells, _xlpm.sep), _xlpm.ip_string &amp; "/" &amp; ip._bin2pfx(ip._dec2bin(ip.BITNOT(ip._dot2dec(_xlpm.hostmask), 32)))))</definedName>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1400">
   <si>
     <t>_dot2dec</t>
   </si>
@@ -5199,6 +5201,98 @@
 /24 If the first octet &lt;= 223,
 NA() If the first octet &gt;= 224
 If a prefix len is provided, the ip interface is returned checked but unchanged.</t>
+  </si>
+  <si>
+    <t>ip.filter_include</t>
+  </si>
+  <si>
+    <t>ip.filter_exclude</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ip_interfaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in "ip" or "ip/prefixlen" format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Range or Array.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supernet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in "ip/prefixlen" format.</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns a filtered list of ip addresses/interfaces that do not belong to a supernet.</t>
+  </si>
+  <si>
+    <t>Returns a filtered list of ip addresses/interfaces that belong to a supernet.</t>
+  </si>
+  <si>
+    <t>Recently added</t>
+  </si>
+  <si>
+    <t>15/04/2025 ip.filter_include</t>
+  </si>
+  <si>
+    <t>15/04/2025 ip.filter_exclude</t>
   </si>
 </sst>
 </file>
@@ -5435,7 +5529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5501,23 +5595,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5555,6 +5649,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5563,9 +5660,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5578,6 +5672,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6306,9 +6406,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4236F7-9FA8-C242-B9D7-340006F123A0}">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6504,6 +6604,19 @@
       <c r="E32" t="str" cm="1">
         <f t="array" ref="E32">ip.octet_offset(D32,0,5,0,0)</f>
         <v>192.173.0.0/24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -16501,7 +16614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78DF09F-EE99-6947-B2C2-A39A9AA29B48}">
   <dimension ref="B2:H82"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16621,7 +16734,7 @@
       <c r="B20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>1309</v>
       </c>
       <c r="D20" s="18"/>
@@ -16673,121 +16786,121 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="26"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F24" s="2" t="str">
         <v>255.255.255.255</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="26"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F25" s="2" t="str">
         <v>10.0.0.4</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="26"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F26" s="2" t="str">
         <v>172.20.0.2</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="26"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F27" s="2" t="str">
         <v>127.0.0.1</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F28" s="2" t="str">
         <v>204.165.72.6</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F29" s="2" t="str">
         <v>192.168.7.12</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="26"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F30" s="2" t="str">
         <v>8.8.8.8</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F31" s="2" t="str">
         <v>10.0.0.0</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="26"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F32" s="2" t="str">
         <v>169.254.7.2</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>1308</v>
       </c>
       <c r="E33" s="7" t="str" cm="1">
@@ -16798,127 +16911,127 @@
         <f t="array" ref="F33:F42">ip.prefixlen(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0</v>
       </c>
-      <c r="G33" s="28" t="str" cm="1">
+      <c r="G33" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F33)),1)</f>
         <v>=ip.prefixlen($C$8#)</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="26"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F34" s="2">
         <v>32</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="26"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F35" s="2">
         <v>24</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="26"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F36" s="2">
         <v>22</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="26"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F37" s="2">
         <v>32</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" s="26"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F38" s="2">
         <v>28</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B39" s="26"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F39" s="2">
         <v>25</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F40" s="2">
         <v>32</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B41" s="26"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F41" s="2">
         <v>8</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="26"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F42" s="2">
         <v>31</v>
       </c>
-      <c r="G42" s="28"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>1307</v>
       </c>
       <c r="E43" s="7" t="str" cm="1">
@@ -16929,127 +17042,127 @@
         <f t="array" ref="F43:F52">ip.netmask(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0.0.0.0</v>
       </c>
-      <c r="G43" s="28" t="str" cm="1">
+      <c r="G43" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F43)),1)</f>
         <v>=ip.netmask($C$8#)</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="26"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F44" s="2" t="str">
         <v>255.255.255.255</v>
       </c>
-      <c r="G44" s="28"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B45" s="26"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F45" s="2" t="str">
         <v>255.255.255.0</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B46" s="26"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F46" s="2" t="str">
         <v>255.255.252.0</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B47" s="26"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F47" s="2" t="str">
         <v>255.255.255.255</v>
       </c>
-      <c r="G47" s="28"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B48" s="26"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F48" s="2" t="str">
         <v>255.255.255.240</v>
       </c>
-      <c r="G48" s="28"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B49" s="26"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F49" s="2" t="str">
         <v>255.255.255.128</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B50" s="26"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F50" s="2" t="str">
         <v>255.255.255.255</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B51" s="26"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F51" s="2" t="str">
         <v>255.0.0.0</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B52" s="26"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F52" s="2" t="str">
         <v>255.255.255.254</v>
       </c>
-      <c r="G52" s="28"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>1306</v>
       </c>
       <c r="E53" s="7" t="str" cm="1">
@@ -17060,127 +17173,127 @@
         <f t="array" ref="F53:F62">ip.hostmask(_xlfn.ANCHORARRAY($C$8))</f>
         <v>255.255.255.255</v>
       </c>
-      <c r="G53" s="28" t="str" cm="1">
+      <c r="G53" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F53)),1)</f>
         <v>=ip.hostmask($C$8#)</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B54" s="26"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F54" s="2" t="str">
         <v>0.0.0.0</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="26"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F55" s="2" t="str">
         <v>0.0.0.255</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="26"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F56" s="2" t="str">
         <v>0.0.3.255</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B57" s="26"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F57" s="2" t="str">
         <v>0.0.0.0</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B58" s="26"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F58" s="2" t="str">
         <v>0.0.0.15</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B59" s="26"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F59" s="2" t="str">
         <v>0.0.0.127</v>
       </c>
-      <c r="G59" s="28"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="26"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F60" s="2" t="str">
         <v>0.0.0.0</v>
       </c>
-      <c r="G60" s="28"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B61" s="26"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F61" s="2" t="str">
         <v>0.255.255.255</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B62" s="26"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F62" s="2" t="str">
         <v>0.0.0.1</v>
       </c>
-      <c r="G62" s="28"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="25" t="s">
         <v>1330</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>1305</v>
       </c>
       <c r="E63" s="7" t="str" cm="1">
@@ -17191,127 +17304,127 @@
         <f t="array" ref="F63:F72">ip.network_address(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0.0.0.0/0</v>
       </c>
-      <c r="G63" s="28" t="str" cm="1">
+      <c r="G63" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F63)),1)</f>
         <v>=ip.network_address($C$8#)</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B64" s="26"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F64" s="2" t="str">
         <v>255.255.255.255/32</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B65" s="26"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F65" s="2" t="str">
         <v>10.0.0.0/24</v>
       </c>
-      <c r="G65" s="28"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B66" s="26"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F66" s="2" t="str">
         <v>172.20.0.0/22</v>
       </c>
-      <c r="G66" s="28"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B67" s="26"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F67" s="2" t="str">
         <v>127.0.0.1/32</v>
       </c>
-      <c r="G67" s="28"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B68" s="26"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F68" s="2" t="str">
         <v>204.165.72.0/28</v>
       </c>
-      <c r="G68" s="28"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B69" s="26"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F69" s="2" t="str">
         <v>192.168.7.0/25</v>
       </c>
-      <c r="G69" s="28"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B70" s="26"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F70" s="2" t="str">
         <v>8.8.8.8/32</v>
       </c>
-      <c r="G70" s="28"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B71" s="26"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F71" s="2" t="str">
         <v>10.0.0.0/8</v>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="26"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F72" s="2" t="str">
         <v>169.254.7.2/31</v>
       </c>
-      <c r="G72" s="28"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="25" t="s">
         <v>1330</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>1304</v>
       </c>
       <c r="E73" s="7" t="str" cm="1">
@@ -17322,111 +17435,111 @@
         <f t="array" ref="F73:F82">ip.broadcast_address(_xlfn.ANCHORARRAY($C$8),TRUE)</f>
         <v>255.255.255.255</v>
       </c>
-      <c r="G73" s="28" t="str" cm="1">
+      <c r="G73" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F73)),1)</f>
         <v>=ip.broadcast_address($C$8#,TRUE)</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B74" s="26"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F74" s="2" t="str">
         <v>255.255.255.255</v>
       </c>
-      <c r="G74" s="28"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B75" s="26"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F75" s="2" t="str">
         <v>10.0.0.255</v>
       </c>
-      <c r="G75" s="28"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B76" s="26"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F76" s="2" t="str">
         <v>172.20.3.255</v>
       </c>
-      <c r="G76" s="28"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="26"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F77" s="2" t="str">
         <v>127.0.0.1</v>
       </c>
-      <c r="G77" s="28"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B78" s="26"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F78" s="2" t="str">
         <v>204.165.72.15</v>
       </c>
-      <c r="G78" s="28"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B79" s="26"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F79" s="2" t="str">
         <v>192.168.7.127</v>
       </c>
-      <c r="G79" s="28"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B80" s="26"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F80" s="2" t="str">
         <v>8.8.8.8</v>
       </c>
-      <c r="G80" s="28"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B81" s="26"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F81" s="2" t="str">
         <v>10.255.255.255</v>
       </c>
-      <c r="G81" s="28"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B82" s="27"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="8" t="str">
         <v>169.254.7.2/31</v>
       </c>
@@ -17596,7 +17709,7 @@
       <c r="B20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>191</v>
       </c>
       <c r="D20" s="18"/>
@@ -17648,121 +17761,121 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="26"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="26"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="24"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F25" s="2">
         <v>256</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="26"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F26" s="2">
         <v>1024</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="26"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F28" s="2">
         <v>16</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F29" s="2">
         <v>128</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="26"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="35"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F31" s="2">
         <v>16777216</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="26"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>1311</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>1314</v>
       </c>
       <c r="E33" s="7" t="str" cm="1">
@@ -17773,127 +17886,127 @@
         <f t="array" ref="F33:F42">ip.is_global(_xlfn.ANCHORARRAY($C$8))</f>
         <v>1</v>
       </c>
-      <c r="G33" s="28" t="str" cm="1">
+      <c r="G33" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F33)),1)</f>
         <v>=ip.is_global($C$8#)</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="26"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="24"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="26"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="26"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="24"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="26"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" s="26"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F38" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B39" s="26"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="26"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F40" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B41" s="26"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="26"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="24"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G42" s="28"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="24" t="s">
         <v>253</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>1313</v>
       </c>
       <c r="E43" s="7" t="str" cm="1">
@@ -17904,127 +18017,127 @@
         <f t="array" ref="F43:F52">ip.is_private(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0</v>
       </c>
-      <c r="G43" s="28" t="str" cm="1">
+      <c r="G43" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F43)),1)</f>
         <v>=ip.is_private($C$8#)</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="26"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="24"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F44" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G44" s="28"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="26"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="35"/>
-      <c r="D45" s="24"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="26"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="35"/>
-      <c r="D46" s="24"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="26"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="35"/>
-      <c r="D47" s="24"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F47" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G47" s="28"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="26"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="24"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F48" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G48" s="28"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="26"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="35"/>
-      <c r="D49" s="24"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F49" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="26"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="35"/>
-      <c r="D50" s="24"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F50" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="26"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="35"/>
-      <c r="D51" s="24"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F51" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="26"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="35"/>
-      <c r="D52" s="24"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F52" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="28"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="24" t="s">
         <v>209</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>1312</v>
       </c>
       <c r="E53" s="7" t="str" cm="1">
@@ -18035,127 +18148,127 @@
         <f t="array" ref="F53:F62">ip.is_rfc1918(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0</v>
       </c>
-      <c r="G53" s="28" t="str" cm="1">
+      <c r="G53" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F53)),1)</f>
         <v>=ip.is_rfc1918($C$8#)</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B54" s="26"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="35"/>
-      <c r="D54" s="24"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F54" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="26"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="35"/>
-      <c r="D55" s="24"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F55" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="26"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="35"/>
-      <c r="D56" s="24"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F56" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B57" s="26"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="24"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F57" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B58" s="26"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="35"/>
-      <c r="D58" s="24"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F58" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B59" s="26"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="35"/>
-      <c r="D59" s="24"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F59" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G59" s="28"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="26"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="35"/>
-      <c r="D60" s="24"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F60" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G60" s="28"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B61" s="26"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="24"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B62" s="26"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="24"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F62" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G62" s="28"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="24" t="s">
         <v>1315</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>1316</v>
       </c>
       <c r="E63" s="7" t="str" cm="1">
@@ -18166,127 +18279,127 @@
         <f t="array" ref="F63:F72">ip.is_unspecified(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0</v>
       </c>
-      <c r="G63" s="28" t="str" cm="1">
+      <c r="G63" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F63)),1)</f>
         <v>=ip.is_unspecified($C$8#)</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B64" s="26"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="35"/>
-      <c r="D64" s="24"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F64" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B65" s="26"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="35"/>
-      <c r="D65" s="24"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G65" s="28"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B66" s="26"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="35"/>
-      <c r="D66" s="24"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F66" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G66" s="28"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B67" s="26"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="35"/>
-      <c r="D67" s="24"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F67" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G67" s="28"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B68" s="26"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="35"/>
-      <c r="D68" s="24"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F68" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G68" s="28"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B69" s="26"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="35"/>
-      <c r="D69" s="24"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F69" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G69" s="28"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B70" s="26"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="35"/>
-      <c r="D70" s="24"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G70" s="28"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B71" s="26"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="35"/>
-      <c r="D71" s="24"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F71" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="26"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="35"/>
-      <c r="D72" s="24"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F72" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G72" s="28"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="24" t="s">
         <v>1317</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>1318</v>
       </c>
       <c r="E73" s="7" t="str" cm="1">
@@ -18297,127 +18410,127 @@
         <f t="array" ref="F73:F82">ip.is_reserved(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0</v>
       </c>
-      <c r="G73" s="28" t="str" cm="1">
+      <c r="G73" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F73)),1)</f>
         <v>=ip.is_reserved($C$8#)</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B74" s="26"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="35"/>
-      <c r="D74" s="24"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F74" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G74" s="28"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B75" s="26"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="35"/>
-      <c r="D75" s="24"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F75" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G75" s="28"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B76" s="26"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="35"/>
-      <c r="D76" s="24"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F76" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G76" s="28"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="26"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="35"/>
-      <c r="D77" s="24"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F77" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G77" s="28"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B78" s="26"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="35"/>
-      <c r="D78" s="24"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F78" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G78" s="28"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B79" s="26"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="35"/>
-      <c r="D79" s="24"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F79" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G79" s="28"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B80" s="26"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="35"/>
-      <c r="D80" s="24"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F80" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G80" s="28"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B81" s="26"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="35"/>
-      <c r="D81" s="24"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F81" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G81" s="28"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B82" s="26"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="35"/>
-      <c r="D82" s="24"/>
+      <c r="D82" s="23"/>
       <c r="E82" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F82" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G82" s="28"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="24" t="s">
         <v>1319</v>
       </c>
       <c r="C83" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>1320</v>
       </c>
       <c r="E83" s="7" t="str" cm="1">
@@ -18428,127 +18541,127 @@
         <f t="array" ref="F83:F92">ip.is_multicast(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0</v>
       </c>
-      <c r="G83" s="28" t="str" cm="1">
+      <c r="G83" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F83)),1)</f>
         <v>=ip.is_multicast($C$8#)</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B84" s="26"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="35"/>
-      <c r="D84" s="24"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F84" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G84" s="28"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B85" s="26"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="35"/>
-      <c r="D85" s="24"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F85" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G85" s="28"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B86" s="26"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="35"/>
-      <c r="D86" s="24"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F86" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G86" s="28"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B87" s="26"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="35"/>
-      <c r="D87" s="24"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F87" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G87" s="28"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B88" s="26"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="35"/>
-      <c r="D88" s="24"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F88" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G88" s="28"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B89" s="26"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="35"/>
-      <c r="D89" s="24"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F89" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G89" s="28"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="26"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="35"/>
-      <c r="D90" s="24"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F90" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G90" s="28"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B91" s="26"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="35"/>
-      <c r="D91" s="24"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F91" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G91" s="28"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B92" s="26"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="35"/>
-      <c r="D92" s="24"/>
+      <c r="D92" s="23"/>
       <c r="E92" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F92" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G92" s="28"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="24" t="s">
         <v>1321</v>
       </c>
       <c r="C93" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="23" t="s">
         <v>1322</v>
       </c>
       <c r="E93" s="7" t="str" cm="1">
@@ -18559,127 +18672,127 @@
         <f t="array" ref="F93:F102">ip.is_loopback(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0</v>
       </c>
-      <c r="G93" s="28" t="str" cm="1">
+      <c r="G93" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F93)),1)</f>
         <v>=ip.is_loopback($C$8#)</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B94" s="26"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="35"/>
-      <c r="D94" s="24"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F94" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G94" s="28"/>
+      <c r="G94" s="26"/>
     </row>
     <row r="95" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B95" s="26"/>
+      <c r="B95" s="24"/>
       <c r="C95" s="35"/>
-      <c r="D95" s="24"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F95" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G95" s="28"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B96" s="26"/>
+      <c r="B96" s="24"/>
       <c r="C96" s="35"/>
-      <c r="D96" s="24"/>
+      <c r="D96" s="23"/>
       <c r="E96" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F96" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G96" s="28"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B97" s="26"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="35"/>
-      <c r="D97" s="24"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F97" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G97" s="28"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B98" s="26"/>
+      <c r="B98" s="24"/>
       <c r="C98" s="35"/>
-      <c r="D98" s="24"/>
+      <c r="D98" s="23"/>
       <c r="E98" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F98" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G98" s="28"/>
+      <c r="G98" s="26"/>
     </row>
     <row r="99" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B99" s="26"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="35"/>
-      <c r="D99" s="24"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F99" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G99" s="28"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B100" s="26"/>
+      <c r="B100" s="24"/>
       <c r="C100" s="35"/>
-      <c r="D100" s="24"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F100" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G100" s="28"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B101" s="26"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="35"/>
-      <c r="D101" s="24"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F101" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G101" s="28"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B102" s="26"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="35"/>
-      <c r="D102" s="24"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F102" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G102" s="28"/>
+      <c r="G102" s="26"/>
     </row>
     <row r="103" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="24" t="s">
         <v>1323</v>
       </c>
       <c r="C103" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="23" t="s">
         <v>1324</v>
       </c>
       <c r="E103" s="7" t="str" cm="1">
@@ -18690,127 +18803,127 @@
         <f t="array" ref="F103:F112">ip.is_link_local(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0</v>
       </c>
-      <c r="G103" s="28" t="str" cm="1">
+      <c r="G103" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F103)),1)</f>
         <v>=ip.is_link_local($C$8#)</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B104" s="26"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="35"/>
-      <c r="D104" s="24"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F104" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G104" s="28"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B105" s="26"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="35"/>
-      <c r="D105" s="24"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F105" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G105" s="28"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="106" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B106" s="26"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="35"/>
-      <c r="D106" s="24"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F106" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G106" s="28"/>
+      <c r="G106" s="26"/>
     </row>
     <row r="107" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B107" s="26"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="35"/>
-      <c r="D107" s="24"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F107" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G107" s="28"/>
+      <c r="G107" s="26"/>
     </row>
     <row r="108" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B108" s="26"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="35"/>
-      <c r="D108" s="24"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F108" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G108" s="28"/>
+      <c r="G108" s="26"/>
     </row>
     <row r="109" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B109" s="26"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="35"/>
-      <c r="D109" s="24"/>
+      <c r="D109" s="23"/>
       <c r="E109" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F109" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G109" s="28"/>
+      <c r="G109" s="26"/>
     </row>
     <row r="110" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B110" s="26"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="35"/>
-      <c r="D110" s="24"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F110" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G110" s="28"/>
+      <c r="G110" s="26"/>
     </row>
     <row r="111" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B111" s="26"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="35"/>
-      <c r="D111" s="24"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F111" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G111" s="28"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B112" s="26"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="35"/>
-      <c r="D112" s="24"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F112" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G112" s="28"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="24" t="s">
         <v>252</v>
       </c>
       <c r="C113" s="34" t="s">
         <v>1310</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="23" t="s">
         <v>1325</v>
       </c>
       <c r="E113" s="7" t="str" cm="1">
@@ -18821,111 +18934,111 @@
         <f t="array" ref="F113:F122">ip.reverse_pointer(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0.0.0.0.in-addr.arpa</v>
       </c>
-      <c r="G113" s="28" t="str" cm="1">
+      <c r="G113" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F113)),1)</f>
         <v>=ip.reverse_pointer($C$8#)</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="26"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="35"/>
-      <c r="D114" s="24"/>
+      <c r="D114" s="23"/>
       <c r="E114" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F114" s="2" t="str">
         <v>255.255.255.255.in-addr.arpa</v>
       </c>
-      <c r="G114" s="28"/>
+      <c r="G114" s="26"/>
     </row>
     <row r="115" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="26"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="35"/>
-      <c r="D115" s="24"/>
+      <c r="D115" s="23"/>
       <c r="E115" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F115" s="2" t="str">
         <v>4.0.0.10.in-addr.arpa</v>
       </c>
-      <c r="G115" s="28"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="26"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="35"/>
-      <c r="D116" s="24"/>
+      <c r="D116" s="23"/>
       <c r="E116" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F116" s="2" t="str">
         <v>2.0.20.172.in-addr.arpa</v>
       </c>
-      <c r="G116" s="28"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="26"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="35"/>
-      <c r="D117" s="24"/>
+      <c r="D117" s="23"/>
       <c r="E117" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F117" s="2" t="str">
         <v>1.0.0.127.in-addr.arpa</v>
       </c>
-      <c r="G117" s="28"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="26"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="35"/>
-      <c r="D118" s="24"/>
+      <c r="D118" s="23"/>
       <c r="E118" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F118" s="2" t="str">
         <v>6.72.165.204.in-addr.arpa</v>
       </c>
-      <c r="G118" s="28"/>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="26"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="35"/>
-      <c r="D119" s="24"/>
+      <c r="D119" s="23"/>
       <c r="E119" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F119" s="2" t="str">
         <v>12.7.168.192.in-addr.arpa</v>
       </c>
-      <c r="G119" s="28"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="26"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="35"/>
-      <c r="D120" s="24"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F120" s="2" t="str">
         <v>8.8.8.8.in-addr.arpa</v>
       </c>
-      <c r="G120" s="28"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="26"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="35"/>
-      <c r="D121" s="24"/>
+      <c r="D121" s="23"/>
       <c r="E121" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F121" s="2" t="str">
         <v>0.0.0.10.in-addr.arpa</v>
       </c>
-      <c r="G121" s="28"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="27"/>
+      <c r="B122" s="28"/>
       <c r="C122" s="36"/>
-      <c r="D122" s="25"/>
+      <c r="D122" s="27"/>
       <c r="E122" s="8" t="str">
         <v>169.254.7.2/31</v>
       </c>
@@ -19110,7 +19223,7 @@
       <c r="B20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>191</v>
       </c>
       <c r="D20" s="18"/>
@@ -19164,110 +19277,110 @@
     <row r="24" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="38"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F24" s="2" t="str">
         <v>255.255.255.254/32</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="24"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F25" s="2" t="str">
         <v>9.255.255.0/24</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F26" s="2" t="str">
         <v>172.19.252.0/22</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F27" s="2" t="str">
         <v>127.0.0.0/32</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="38"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F28" s="2" t="str">
         <v>204.165.71.240/28</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="38"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F29" s="2" t="str">
         <v>192.168.6.128/25</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="38"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F30" s="2" t="str">
         <v>8.8.8.7/32</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="38"/>
       <c r="C31" s="35"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F31" s="2" t="str">
         <v>9.0.0.0/8</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="38"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F32" s="2" t="str">
         <v>169.254.7.0/31</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
@@ -19276,7 +19389,7 @@
       <c r="C33" s="37" t="s">
         <v>1310</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="7" t="str" cm="1">
@@ -19287,7 +19400,7 @@
         <f t="array" ref="F33:F42">ip.next_subnet(_xlfn.ANCHORARRAY($C$8))</f>
         <v>#N/A</v>
       </c>
-      <c r="G33" s="28" t="str" cm="1">
+      <c r="G33" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F33)),1)</f>
         <v>=ip.next_subnet($C$8#)</v>
       </c>
@@ -19295,119 +19408,119 @@
     <row r="34" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="38"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="24"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F34" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="38"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F35" s="2" t="str">
         <v>10.0.1.0/24</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="38"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="24"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F36" s="2" t="str">
         <v>172.20.4.0/22</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="38"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F37" s="2" t="str">
         <v>127.0.0.2/32</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="38"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F38" s="2" t="str">
         <v>204.165.72.16/28</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="38"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F39" s="2" t="str">
         <v>192.168.7.128/25</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="38"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F40" s="2" t="str">
         <v>8.8.8.9/32</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="38"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F41" s="2" t="str">
         <v>11.0.0.0/8</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="24"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F42" s="2" t="str">
         <v>169.254.7.4/31</v>
       </c>
-      <c r="G42" s="28"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="25" t="s">
         <v>1330</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>204</v>
       </c>
       <c r="E43" s="7" t="str" cm="1">
@@ -19418,127 +19531,127 @@
         <f t="array" ref="F43:F52">ip.first_host_address(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0.0.0.1/0</v>
       </c>
-      <c r="G43" s="28" t="str" cm="1">
+      <c r="G43" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F43)),1)</f>
         <v>=ip.first_host_address($C$8#)</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="38"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F44" s="2" t="str">
         <v>255.255.255.255/32</v>
       </c>
-      <c r="G44" s="28"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="38"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F45" s="2" t="str">
         <v>10.0.0.1/24</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="38"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F46" s="2" t="str">
         <v>172.20.0.1/22</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="38"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F47" s="2" t="str">
         <v>127.0.0.1/32</v>
       </c>
-      <c r="G47" s="28"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="38"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F48" s="2" t="str">
         <v>204.165.72.1/28</v>
       </c>
-      <c r="G48" s="28"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="38"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F49" s="2" t="str">
         <v>192.168.7.1/25</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="38"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F50" s="2" t="str">
         <v>8.8.8.8/32</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="38"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F51" s="2" t="str">
         <v>10.0.0.1/8</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="38"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F52" s="2" t="str">
         <v>169.254.7.2/31</v>
       </c>
-      <c r="G52" s="28"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="25" t="s">
         <v>1330</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>201</v>
       </c>
       <c r="E53" s="7" t="str" cm="1">
@@ -19549,127 +19662,127 @@
         <f t="array" ref="F53:F62">ip.previous_host_address(_xlfn.ANCHORARRAY($C$8))</f>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="28" t="str" cm="1">
+      <c r="G53" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F53)),1)</f>
         <v>=ip.previous_host_address($C$8#)</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="38"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F54" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="38"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F55" s="2" t="str">
         <v>10.0.0.3/24</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="38"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F56" s="2" t="str">
         <v>172.20.0.1/22</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="38"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F57" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="38"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F58" s="2" t="str">
         <v>204.165.72.5/28</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="38"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F59" s="2" t="str">
         <v>192.168.7.11/25</v>
       </c>
-      <c r="G59" s="28"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="38"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F60" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G60" s="28"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="38"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F61" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="38"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F62" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G62" s="28"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="25" t="s">
         <v>1330</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>202</v>
       </c>
       <c r="E63" s="7" t="str" cm="1">
@@ -19680,127 +19793,127 @@
         <f t="array" ref="F63:F72">ip.next_host_address(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0.0.0.1/0</v>
       </c>
-      <c r="G63" s="28" t="str" cm="1">
+      <c r="G63" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F63)),1)</f>
         <v>=ip.next_host_address($C$8#)</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B64" s="38"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F64" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B65" s="38"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F65" s="2" t="str">
         <v>10.0.0.5/24</v>
       </c>
-      <c r="G65" s="28"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="38"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F66" s="2" t="str">
         <v>172.20.0.3/22</v>
       </c>
-      <c r="G66" s="28"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" s="38"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F67" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G67" s="28"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="38"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F68" s="2" t="str">
         <v>204.165.72.7/28</v>
       </c>
-      <c r="G68" s="28"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="38"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F69" s="2" t="str">
         <v>192.168.7.13/25</v>
       </c>
-      <c r="G69" s="28"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" s="38"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F70" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G70" s="28"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B71" s="38"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F71" s="2" t="str">
         <v>10.0.0.1/8</v>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B72" s="38"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F72" s="2" t="str">
         <v>169.254.7.3/31</v>
       </c>
-      <c r="G72" s="28"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="25" t="s">
         <v>1330</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>205</v>
       </c>
       <c r="E73" s="7" t="str" cm="1">
@@ -19811,127 +19924,127 @@
         <f t="array" ref="F73:F82">ip.last_host_address(_xlfn.ANCHORARRAY($C$8))</f>
         <v>255.255.255.254/0</v>
       </c>
-      <c r="G73" s="28" t="str" cm="1">
+      <c r="G73" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F73)),1)</f>
         <v>=ip.last_host_address($C$8#)</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="38"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F74" s="2" t="str">
         <v>255.255.255.255/32</v>
       </c>
-      <c r="G74" s="28"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B75" s="38"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F75" s="2" t="str">
         <v>10.0.0.254/24</v>
       </c>
-      <c r="G75" s="28"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B76" s="38"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F76" s="2" t="str">
         <v>172.20.3.254/22</v>
       </c>
-      <c r="G76" s="28"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="38"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F77" s="2" t="str">
         <v>127.0.0.1/32</v>
       </c>
-      <c r="G77" s="28"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B78" s="38"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F78" s="2" t="str">
         <v>204.165.72.14/28</v>
       </c>
-      <c r="G78" s="28"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B79" s="38"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F79" s="2" t="str">
         <v>192.168.7.126/25</v>
       </c>
-      <c r="G79" s="28"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B80" s="38"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F80" s="2" t="str">
         <v>8.8.8.8/32</v>
       </c>
-      <c r="G80" s="28"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B81" s="38"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F81" s="2" t="str">
         <v>10.255.255.254/8</v>
       </c>
-      <c r="G81" s="28"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B82" s="38"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
       <c r="E82" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F82" s="2" t="str">
         <v>169.254.7.3/31</v>
       </c>
-      <c r="G82" s="28"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="25" t="s">
         <v>1331</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>207</v>
       </c>
       <c r="E83" s="7" t="str" cm="1">
@@ -19942,118 +20055,118 @@
         <f t="array" ref="F83:F92">ip.index_host_address(_xlfn.ANCHORARRAY($C$8),5)</f>
         <v>0.0.0.5/0</v>
       </c>
-      <c r="G83" s="28" t="str" cm="1">
+      <c r="G83" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F83)),1)</f>
         <v>=ip.index_host_address($C$8#,5)</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B84" s="38"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F84" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G84" s="28"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B85" s="38"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F85" s="2" t="str">
         <v>10.0.0.5/24</v>
       </c>
-      <c r="G85" s="28"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B86" s="38"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F86" s="2" t="str">
         <v>172.20.0.5/22</v>
       </c>
-      <c r="G86" s="28"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B87" s="38"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F87" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G87" s="28"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B88" s="38"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F88" s="2" t="str">
         <v>204.165.72.5/28</v>
       </c>
-      <c r="G88" s="28"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B89" s="38"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F89" s="2" t="str">
         <v>192.168.7.5/25</v>
       </c>
-      <c r="G89" s="28"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B90" s="38"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F90" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G90" s="28"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B91" s="38"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F91" s="2" t="str">
         <v>10.0.0.5/8</v>
       </c>
-      <c r="G91" s="28"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="38"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
       <c r="E92" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F92" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G92" s="28"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="38" t="s">
@@ -20062,7 +20175,7 @@
       <c r="C93" s="37" t="s">
         <v>1310</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="23" t="s">
         <v>195</v>
       </c>
       <c r="E93" s="7" t="str" cm="1">
@@ -20073,7 +20186,7 @@
         <f t="array" ref="F93:F102">ip.previous_subnet(_xlfn.ANCHORARRAY($C$8))</f>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="28" t="str" cm="1">
+      <c r="G93" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F93)),1)</f>
         <v>=ip.previous_subnet($C$8#)</v>
       </c>
@@ -20081,110 +20194,110 @@
     <row r="94" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B94" s="38"/>
       <c r="C94" s="35"/>
-      <c r="D94" s="24"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F94" s="2" t="str">
         <v>255.255.255.254/32</v>
       </c>
-      <c r="G94" s="28"/>
+      <c r="G94" s="26"/>
     </row>
     <row r="95" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B95" s="38"/>
       <c r="C95" s="35"/>
-      <c r="D95" s="24"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F95" s="2" t="str">
         <v>9.255.255.0/24</v>
       </c>
-      <c r="G95" s="28"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B96" s="38"/>
       <c r="C96" s="35"/>
-      <c r="D96" s="24"/>
+      <c r="D96" s="23"/>
       <c r="E96" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F96" s="2" t="str">
         <v>172.19.252.0/22</v>
       </c>
-      <c r="G96" s="28"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B97" s="38"/>
       <c r="C97" s="35"/>
-      <c r="D97" s="24"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F97" s="2" t="str">
         <v>127.0.0.0/32</v>
       </c>
-      <c r="G97" s="28"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B98" s="38"/>
       <c r="C98" s="35"/>
-      <c r="D98" s="24"/>
+      <c r="D98" s="23"/>
       <c r="E98" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F98" s="2" t="str">
         <v>204.165.71.240/28</v>
       </c>
-      <c r="G98" s="28"/>
+      <c r="G98" s="26"/>
     </row>
     <row r="99" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B99" s="38"/>
       <c r="C99" s="35"/>
-      <c r="D99" s="24"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F99" s="2" t="str">
         <v>192.168.6.128/25</v>
       </c>
-      <c r="G99" s="28"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B100" s="38"/>
       <c r="C100" s="35"/>
-      <c r="D100" s="24"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F100" s="2" t="str">
         <v>8.8.8.7/32</v>
       </c>
-      <c r="G100" s="28"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="38"/>
       <c r="C101" s="35"/>
-      <c r="D101" s="24"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F101" s="2" t="str">
         <v>9.0.0.0/8</v>
       </c>
-      <c r="G101" s="28"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B102" s="38"/>
       <c r="C102" s="35"/>
-      <c r="D102" s="24"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F102" s="2" t="str">
         <v>169.254.7.0/31</v>
       </c>
-      <c r="G102" s="28"/>
+      <c r="G102" s="26"/>
     </row>
     <row r="103" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" s="38" t="s">
@@ -20193,7 +20306,7 @@
       <c r="C103" s="37" t="s">
         <v>1310</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="23" t="s">
         <v>196</v>
       </c>
       <c r="E103" s="7" t="str" cm="1">
@@ -20204,7 +20317,7 @@
         <f t="array" ref="F103:F112">ip.next_subnet(_xlfn.ANCHORARRAY($C$8))</f>
         <v>#N/A</v>
       </c>
-      <c r="G103" s="28" t="str" cm="1">
+      <c r="G103" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F103)),1)</f>
         <v>=ip.next_subnet($C$8#)</v>
       </c>
@@ -20212,119 +20325,119 @@
     <row r="104" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" s="38"/>
       <c r="C104" s="35"/>
-      <c r="D104" s="24"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F104" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G104" s="28"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" s="38"/>
       <c r="C105" s="35"/>
-      <c r="D105" s="24"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F105" s="2" t="str">
         <v>10.0.1.0/24</v>
       </c>
-      <c r="G105" s="28"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="106" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B106" s="38"/>
       <c r="C106" s="35"/>
-      <c r="D106" s="24"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F106" s="2" t="str">
         <v>172.20.4.0/22</v>
       </c>
-      <c r="G106" s="28"/>
+      <c r="G106" s="26"/>
     </row>
     <row r="107" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B107" s="38"/>
       <c r="C107" s="35"/>
-      <c r="D107" s="24"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F107" s="2" t="str">
         <v>127.0.0.2/32</v>
       </c>
-      <c r="G107" s="28"/>
+      <c r="G107" s="26"/>
     </row>
     <row r="108" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B108" s="38"/>
       <c r="C108" s="35"/>
-      <c r="D108" s="24"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F108" s="2" t="str">
         <v>204.165.72.16/28</v>
       </c>
-      <c r="G108" s="28"/>
+      <c r="G108" s="26"/>
     </row>
     <row r="109" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B109" s="38"/>
       <c r="C109" s="35"/>
-      <c r="D109" s="24"/>
+      <c r="D109" s="23"/>
       <c r="E109" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F109" s="2" t="str">
         <v>192.168.7.128/25</v>
       </c>
-      <c r="G109" s="28"/>
+      <c r="G109" s="26"/>
     </row>
     <row r="110" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="38"/>
       <c r="C110" s="35"/>
-      <c r="D110" s="24"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F110" s="2" t="str">
         <v>8.8.8.9/32</v>
       </c>
-      <c r="G110" s="28"/>
+      <c r="G110" s="26"/>
     </row>
     <row r="111" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B111" s="38"/>
       <c r="C111" s="35"/>
-      <c r="D111" s="24"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F111" s="2" t="str">
         <v>11.0.0.0/8</v>
       </c>
-      <c r="G111" s="28"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B112" s="38"/>
       <c r="C112" s="35"/>
-      <c r="D112" s="24"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F112" s="2" t="str">
         <v>169.254.7.4/31</v>
       </c>
-      <c r="G112" s="28"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="38" t="s">
         <v>1326</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="25" t="s">
         <v>1332</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="23" t="s">
         <v>221</v>
       </c>
       <c r="E113" s="7" t="s">
@@ -20334,101 +20447,101 @@
         <f t="array" ref="F113">ip.index_subnet(E114,E117,E120)</f>
         <v>192.168.255.0/24</v>
       </c>
-      <c r="G113" s="28" t="str" cm="1">
+      <c r="G113" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F113)),1)</f>
         <v>=ip.index_subnet(E114,E117,E120)</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B114" s="38"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
       <c r="E114" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F114" s="19"/>
-      <c r="G114" s="28"/>
+      <c r="G114" s="26"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="38"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
       <c r="E115" s="7"/>
       <c r="F115" s="19"/>
-      <c r="G115" s="28"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B116" s="38"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
       <c r="E116" s="7" t="s">
         <v>1328</v>
       </c>
       <c r="F116" s="19"/>
-      <c r="G116" s="28"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="38"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
       <c r="E117" s="7">
         <v>24</v>
       </c>
       <c r="F117" s="19"/>
-      <c r="G117" s="28"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="38"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
       <c r="E118" s="7"/>
       <c r="F118" s="19"/>
-      <c r="G118" s="28"/>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B119" s="38"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
       <c r="E119" s="7" t="s">
         <v>1329</v>
       </c>
       <c r="F119" s="19"/>
-      <c r="G119" s="28"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="38"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="7">
         <v>-1</v>
       </c>
       <c r="F120" s="19"/>
-      <c r="G120" s="28"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="38"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
       <c r="E121" s="7"/>
       <c r="F121" s="19"/>
-      <c r="G121" s="28"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="38"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
       <c r="E122" s="7"/>
       <c r="F122" s="19"/>
-      <c r="G122" s="28"/>
+      <c r="G122" s="26"/>
     </row>
     <row r="123" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="23" t="s">
         <v>221</v>
       </c>
       <c r="E123" s="7" t="str" cm="1">
@@ -20439,127 +20552,127 @@
         <f t="array" ref="F123:F132">ip.offset(_xlfn.ANCHORARRAY($C$8),10)</f>
         <v>0.0.0.10/0</v>
       </c>
-      <c r="G123" s="28" t="str" cm="1">
+      <c r="G123" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F123)),1)</f>
         <v>=ip.offset($C$8#,10)</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B124" s="38"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
       <c r="E124" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F124" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G124" s="28"/>
+      <c r="G124" s="26"/>
     </row>
     <row r="125" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B125" s="38"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
       <c r="E125" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F125" s="2" t="str">
         <v>10.0.0.14/24</v>
       </c>
-      <c r="G125" s="28"/>
+      <c r="G125" s="26"/>
     </row>
     <row r="126" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B126" s="38"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
       <c r="E126" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F126" s="2" t="str">
         <v>172.20.0.12/22</v>
       </c>
-      <c r="G126" s="28"/>
+      <c r="G126" s="26"/>
     </row>
     <row r="127" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B127" s="38"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
       <c r="E127" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F127" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G127" s="28"/>
+      <c r="G127" s="26"/>
     </row>
     <row r="128" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B128" s="38"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
       <c r="E128" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F128" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G128" s="28"/>
+      <c r="G128" s="26"/>
     </row>
     <row r="129" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B129" s="38"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
       <c r="E129" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F129" s="2" t="str">
         <v>192.168.7.22/25</v>
       </c>
-      <c r="G129" s="28"/>
+      <c r="G129" s="26"/>
     </row>
     <row r="130" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B130" s="38"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
       <c r="E130" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F130" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G130" s="28"/>
+      <c r="G130" s="26"/>
     </row>
     <row r="131" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B131" s="38"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F131" s="2" t="str">
         <v>10.0.0.10/8</v>
       </c>
-      <c r="G131" s="28"/>
+      <c r="G131" s="26"/>
     </row>
     <row r="132" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B132" s="38"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F132" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G132" s="28"/>
+      <c r="G132" s="26"/>
     </row>
     <row r="133" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B133" s="38" t="s">
         <v>1367</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C133" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D133" s="24" t="s">
+      <c r="D133" s="23" t="s">
         <v>223</v>
       </c>
       <c r="E133" s="7" t="str" cm="1">
@@ -20570,111 +20683,111 @@
         <f t="array" ref="F133:F142">ip.octet_offset(_xlfn.ANCHORARRAY($C$8),0,10,-5,0)</f>
         <v>0.9.251.0/0</v>
       </c>
-      <c r="G133" s="28" t="str" cm="1">
+      <c r="G133" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F133)),1)</f>
         <v>=ip.octet_offset($C$8#,0,10,-5,0)</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B134" s="38"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
       <c r="E134" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F134" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G134" s="28"/>
+      <c r="G134" s="26"/>
     </row>
     <row r="135" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B135" s="38"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
       <c r="E135" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F135" s="2" t="str">
         <v>10.9.251.4/24</v>
       </c>
-      <c r="G135" s="28"/>
+      <c r="G135" s="26"/>
     </row>
     <row r="136" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B136" s="38"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
       <c r="E136" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F136" s="2" t="str">
         <v>172.29.251.2/22</v>
       </c>
-      <c r="G136" s="28"/>
+      <c r="G136" s="26"/>
     </row>
     <row r="137" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B137" s="38"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
       <c r="E137" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F137" s="2" t="str">
         <v>127.9.251.1/32</v>
       </c>
-      <c r="G137" s="28"/>
+      <c r="G137" s="26"/>
     </row>
     <row r="138" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B138" s="38"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
       <c r="E138" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F138" s="2" t="str">
         <v>204.175.67.6/28</v>
       </c>
-      <c r="G138" s="28"/>
+      <c r="G138" s="26"/>
     </row>
     <row r="139" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B139" s="38"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
       <c r="E139" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F139" s="2" t="str">
         <v>192.178.2.12/25</v>
       </c>
-      <c r="G139" s="28"/>
+      <c r="G139" s="26"/>
     </row>
     <row r="140" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B140" s="38"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F140" s="2" t="str">
         <v>8.18.3.8/32</v>
       </c>
-      <c r="G140" s="28"/>
+      <c r="G140" s="26"/>
     </row>
     <row r="141" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B141" s="38"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
       <c r="E141" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F141" s="2" t="str">
         <v>10.9.251.0/8</v>
       </c>
-      <c r="G141" s="28"/>
+      <c r="G141" s="26"/>
     </row>
     <row r="142" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B142" s="39"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
       <c r="E142" s="8" t="str">
         <v>169.254.7.2/31</v>
       </c>
@@ -20697,6 +20810,7 @@
     <mergeCell ref="C23:C32"/>
     <mergeCell ref="D23:D32"/>
     <mergeCell ref="G23:G32"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="G73:G82"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C52"/>
@@ -20706,7 +20820,13 @@
     <mergeCell ref="C53:C62"/>
     <mergeCell ref="D53:D62"/>
     <mergeCell ref="G53:G62"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="D63:D72"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="C73:C82"/>
+    <mergeCell ref="D73:D82"/>
     <mergeCell ref="B93:B102"/>
     <mergeCell ref="C93:C102"/>
     <mergeCell ref="D93:D102"/>
@@ -20715,13 +20835,6 @@
     <mergeCell ref="C83:C92"/>
     <mergeCell ref="D83:D92"/>
     <mergeCell ref="G83:G92"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="D63:D72"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="C73:C82"/>
-    <mergeCell ref="D73:D82"/>
     <mergeCell ref="B103:B112"/>
     <mergeCell ref="C103:C112"/>
     <mergeCell ref="D103:D112"/>
@@ -20749,7 +20862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3CB908-6B51-A747-946F-AB1DE0142F20}">
   <dimension ref="B2:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20869,7 +20982,7 @@
       <c r="B20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>191</v>
       </c>
       <c r="D20" s="18"/>
@@ -20922,120 +21035,120 @@
     </row>
     <row r="24" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="38"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="7" t="str">
         <v>255.255.255.255&lt;sep&gt;32</v>
       </c>
       <c r="F24" s="2" t="str">
         <v>255.255.255.255/32</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="7" t="str">
         <v>10.0.0.4&lt;sep&gt;24</v>
       </c>
       <c r="F25" s="2" t="str">
         <v>10.0.0.4/24</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="7" t="str">
         <v>172.20.0.2&lt;sep&gt;22</v>
       </c>
       <c r="F26" s="2" t="str">
         <v>172.20.0.2/22</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="7" t="str">
         <v>127.0.0.1&lt;sep&gt;32</v>
       </c>
       <c r="F27" s="2" t="str">
         <v>127.0.0.1/32</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="38"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="7" t="str">
         <v>204.165.72.6&lt;sep&gt;28</v>
       </c>
       <c r="F28" s="2" t="str">
         <v>204.165.72.6/28</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="38"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="7" t="str">
         <v>192.168.7.12&lt;sep&gt;25</v>
       </c>
       <c r="F29" s="2" t="str">
         <v>192.168.7.12/25</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="38"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="7" t="str">
         <v>8.8.8.8&lt;sep&gt;32</v>
       </c>
       <c r="F30" s="2" t="str">
         <v>8.8.8.8/32</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="38"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="7" t="str">
         <v>10.0.0.0&lt;sep&gt;8</v>
       </c>
       <c r="F31" s="2" t="str">
         <v>10.0.0.0/8</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="38"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="7" t="str">
         <v>169.254.7.2&lt;sep&gt;31</v>
       </c>
       <c r="F32" s="2" t="str">
         <v>169.254.7.2/31</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="25" t="s">
         <v>1341</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>1344</v>
       </c>
       <c r="E33" s="7" t="str" cm="1">
@@ -21046,127 +21159,127 @@
         <f t="array" ref="F33:F42">ip.from_netmask(_xlfn.ANCHORARRAY($E$33)," ")</f>
         <v>0.0.0.0/0</v>
       </c>
-      <c r="G33" s="28" t="str" cm="1">
+      <c r="G33" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F33)),1)</f>
         <v>=ip.from_netmask($E$33#," ")</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B34" s="38"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="7" t="str">
         <v>255.255.255.255 255.255.255.255</v>
       </c>
       <c r="F34" s="2" t="str">
         <v>255.255.255.255/32</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="38"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="7" t="str">
         <v>10.0.0.4 255.255.255.0</v>
       </c>
       <c r="F35" s="2" t="str">
         <v>10.0.0.4/24</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="38"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="7" t="str">
         <v>172.20.0.2 255.255.252.0</v>
       </c>
       <c r="F36" s="2" t="str">
         <v>172.20.0.2/22</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="38"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="7" t="str">
         <v>127.0.0.1 255.255.255.255</v>
       </c>
       <c r="F37" s="2" t="str">
         <v>127.0.0.1/32</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B38" s="38"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="7" t="str">
         <v>204.165.72.6 255.255.255.240</v>
       </c>
       <c r="F38" s="2" t="str">
         <v>204.165.72.6/28</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B39" s="38"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="7" t="str">
         <v>192.168.7.12 255.255.255.128</v>
       </c>
       <c r="F39" s="2" t="str">
         <v>192.168.7.12/25</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="38"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="7" t="str">
         <v>8.8.8.8 255.255.255.255</v>
       </c>
       <c r="F40" s="2" t="str">
         <v>8.8.8.8/32</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="38"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="7" t="str">
         <v>10.0.0.0 255.0.0.0</v>
       </c>
       <c r="F41" s="2" t="str">
         <v>10.0.0.0/8</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="7" t="str">
         <v>169.254.7.2 255.255.255.254</v>
       </c>
       <c r="F42" s="2" t="str">
         <v>169.254.7.2/31</v>
       </c>
-      <c r="G42" s="28"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="25" t="s">
         <v>1342</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>1344</v>
       </c>
       <c r="E43" s="7" t="str" cm="1">
@@ -21177,127 +21290,127 @@
         <f t="array" ref="F43:F52">ip.from_hostmask(_xlfn.ANCHORARRAY($E$33)," ")</f>
         <v>0.0.0.0/32</v>
       </c>
-      <c r="G43" s="28" t="str" cm="1">
+      <c r="G43" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F43)),1)</f>
         <v>=ip.from_hostmask($E$33#," ")</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="38"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="7" t="str">
         <v>255.255.255.255 0.0.0.0</v>
       </c>
       <c r="F44" s="2" t="str">
         <v>255.255.255.255/0</v>
       </c>
-      <c r="G44" s="28"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="38"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="7" t="str">
         <v>10.0.0.4 0.0.0.255</v>
       </c>
       <c r="F45" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="38"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="7" t="str">
         <v>172.20.0.2 0.0.3.255</v>
       </c>
       <c r="F46" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="38"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="7" t="str">
         <v>127.0.0.1 0.0.0.0</v>
       </c>
       <c r="F47" s="2" t="str">
         <v>127.0.0.1/0</v>
       </c>
-      <c r="G47" s="28"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="38"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="7" t="str">
         <v>204.165.72.6 0.0.0.15</v>
       </c>
       <c r="F48" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G48" s="28"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="38"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="7" t="str">
         <v>192.168.7.12 0.0.0.127</v>
       </c>
       <c r="F49" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="38"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="7" t="str">
         <v>8.8.8.8 0.0.0.0</v>
       </c>
       <c r="F50" s="2" t="str">
         <v>8.8.8.8/0</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="38"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="7" t="str">
         <v>10.0.0.0 0.255.255.255</v>
       </c>
       <c r="F51" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="38"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="7" t="str">
         <v>169.254.7.2 0.0.0.1</v>
       </c>
       <c r="F52" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G52" s="28"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="38" t="s">
         <v>1390</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="25" t="s">
         <v>1310</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>1391</v>
       </c>
       <c r="E53" s="7" t="str" cm="1">
@@ -21308,127 +21421,127 @@
         <f t="array" ref="F53:F62">ip.from_classful(_xlfn.ANCHORARRAY($E$53))</f>
         <v>0.0.0.0/8</v>
       </c>
-      <c r="G53" s="28" t="str" cm="1">
+      <c r="G53" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F53)),1)</f>
         <v>=ip.from_classful($E$53#)</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="38"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="7" t="str">
         <v>255.255.255.255</v>
       </c>
       <c r="F54" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="38"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="7" t="str">
         <v>10.0.0.4</v>
       </c>
       <c r="F55" s="2" t="str">
         <v>10.0.0.4/8</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="38"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="7" t="str">
         <v>172.20.0.2</v>
       </c>
       <c r="F56" s="2" t="str">
         <v>172.20.0.2/16</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="38"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="7" t="str">
         <v>127.0.0.1</v>
       </c>
       <c r="F57" s="2" t="str">
         <v>127.0.0.1/8</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="38"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="7" t="str">
         <v>204.165.72.6</v>
       </c>
       <c r="F58" s="2" t="str">
         <v>204.165.72.6/24</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="38"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="7" t="str">
         <v>192.168.7.12</v>
       </c>
       <c r="F59" s="2" t="str">
         <v>192.168.7.12/24</v>
       </c>
-      <c r="G59" s="28"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="38"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="7" t="str">
         <v>8.8.8.8</v>
       </c>
       <c r="F60" s="2" t="str">
         <v>8.8.8.8/8</v>
       </c>
-      <c r="G60" s="28"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="38"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="7" t="str">
         <v>10.0.0.0</v>
       </c>
       <c r="F61" s="2" t="str">
         <v>10.0.0.0/8</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="38"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="7" t="str">
         <v>169.254.7.2</v>
       </c>
       <c r="F62" s="2" t="str">
         <v>169.254.7.2/16</v>
       </c>
-      <c r="G62" s="28"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="25" t="s">
         <v>1342</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>1345</v>
       </c>
       <c r="E63" s="7" t="str" cm="1">
@@ -21439,127 +21552,127 @@
         <f t="array" ref="F63:F72">ip.with_netmask(_xlfn.ANCHORARRAY($C$8)," ")</f>
         <v>0.0.0.0 0.0.0.0</v>
       </c>
-      <c r="G63" s="28" t="str" cm="1">
+      <c r="G63" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F63)),1)</f>
         <v>=ip.with_netmask($C$8#," ")</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B64" s="38"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F64" s="2" t="str">
         <v>255.255.255.255 255.255.255.255</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B65" s="38"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F65" s="2" t="str">
         <v>10.0.0.4 255.255.255.0</v>
       </c>
-      <c r="G65" s="28"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="38"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F66" s="2" t="str">
         <v>172.20.0.2 255.255.252.0</v>
       </c>
-      <c r="G66" s="28"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" s="38"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F67" s="2" t="str">
         <v>127.0.0.1 255.255.255.255</v>
       </c>
-      <c r="G67" s="28"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="38"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F68" s="2" t="str">
         <v>204.165.72.6 255.255.255.240</v>
       </c>
-      <c r="G68" s="28"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="38"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F69" s="2" t="str">
         <v>192.168.7.12 255.255.255.128</v>
       </c>
-      <c r="G69" s="28"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" s="38"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F70" s="2" t="str">
         <v>8.8.8.8 255.255.255.255</v>
       </c>
-      <c r="G70" s="28"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B71" s="38"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F71" s="2" t="str">
         <v>10.0.0.0 255.0.0.0</v>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B72" s="38"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F72" s="2" t="str">
         <v>169.254.7.2 255.255.255.254</v>
       </c>
-      <c r="G72" s="28"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="25" t="s">
         <v>1342</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>1346</v>
       </c>
       <c r="E73" s="7" t="str" cm="1">
@@ -21570,127 +21683,127 @@
         <f t="array" ref="F73:F82">ip.with_hostmask(_xlfn.ANCHORARRAY($C$8)," ")</f>
         <v>0.0.0.0 255.255.255.255</v>
       </c>
-      <c r="G73" s="28" t="str" cm="1">
+      <c r="G73" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F73)),1)</f>
         <v>=ip.with_hostmask($C$8#," ")</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="38"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F74" s="2" t="str">
         <v>255.255.255.255 0.0.0.0</v>
       </c>
-      <c r="G74" s="28"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="38"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F75" s="2" t="str">
         <v>10.0.0.4 0.0.0.255</v>
       </c>
-      <c r="G75" s="28"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="38"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F76" s="2" t="str">
         <v>172.20.0.2 0.0.3.255</v>
       </c>
-      <c r="G76" s="28"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="38"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F77" s="2" t="str">
         <v>127.0.0.1 0.0.0.0</v>
       </c>
-      <c r="G77" s="28"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="38"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F78" s="2" t="str">
         <v>204.165.72.6 0.0.0.15</v>
       </c>
-      <c r="G78" s="28"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="38"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F79" s="2" t="str">
         <v>192.168.7.12 0.0.0.127</v>
       </c>
-      <c r="G79" s="28"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="38"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F80" s="2" t="str">
         <v>8.8.8.8 0.0.0.0</v>
       </c>
-      <c r="G80" s="28"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="38"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F81" s="2" t="str">
         <v>10.0.0.0 0.255.255.255</v>
       </c>
-      <c r="G81" s="28"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="38"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="23"/>
       <c r="E82" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F82" s="2" t="str">
         <v>169.254.7.2 0.0.0.1</v>
       </c>
-      <c r="G82" s="28"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="38" t="s">
         <v>1333</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="25" t="s">
         <v>1348</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>1347</v>
       </c>
       <c r="E83" s="7" t="str" cm="1">
@@ -21701,127 +21814,127 @@
         <f t="array" ref="F83:F92">ip.padded(_xlfn.ANCHORARRAY($C$8))</f>
         <v>000.000.000.000/00</v>
       </c>
-      <c r="G83" s="28" t="str" cm="1">
+      <c r="G83" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F83)),1)</f>
         <v>=ip.padded($C$8#)</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B84" s="38"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F84" s="2" t="str">
         <v>255.255.255.255/32</v>
       </c>
-      <c r="G84" s="28"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B85" s="38"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F85" s="2" t="str">
         <v>010.000.000.004/24</v>
       </c>
-      <c r="G85" s="28"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B86" s="38"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F86" s="2" t="str">
         <v>172.020.000.002/22</v>
       </c>
-      <c r="G86" s="28"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B87" s="38"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F87" s="2" t="str">
         <v>127.000.000.001/32</v>
       </c>
-      <c r="G87" s="28"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B88" s="38"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F88" s="2" t="str">
         <v>204.165.072.006/28</v>
       </c>
-      <c r="G88" s="28"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B89" s="38"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F89" s="2" t="str">
         <v>192.168.007.012/25</v>
       </c>
-      <c r="G89" s="28"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B90" s="38"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F90" s="2" t="str">
         <v>008.008.008.008/32</v>
       </c>
-      <c r="G90" s="28"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B91" s="38"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F91" s="2" t="str">
         <v>010.000.000.000/08</v>
       </c>
-      <c r="G91" s="28"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="38"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
       <c r="E92" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F92" s="2" t="str">
         <v>169.254.007.002/31</v>
       </c>
-      <c r="G92" s="28"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="38" t="s">
         <v>1369</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="25" t="s">
         <v>1310</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="23" t="s">
         <v>1370</v>
       </c>
       <c r="E93" s="7" t="str" cm="1">
@@ -21832,127 +21945,127 @@
         <f t="array" ref="F93:F102">ip.host_octets(_xlfn.ANCHORARRAY($C$8))</f>
         <v>0.0.0.0</v>
       </c>
-      <c r="G93" s="28" t="str" cm="1">
+      <c r="G93" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F93)),1)</f>
         <v>=ip.host_octets($C$8#)</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B94" s="38"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F94" s="2" t="str">
         <v>.255</v>
       </c>
-      <c r="G94" s="28"/>
+      <c r="G94" s="26"/>
     </row>
     <row r="95" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B95" s="38"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F95" s="2" t="str">
         <v>.4</v>
       </c>
-      <c r="G95" s="28"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B96" s="38"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
       <c r="E96" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F96" s="2" t="str">
         <v>.0.2</v>
       </c>
-      <c r="G96" s="28"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B97" s="38"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F97" s="2" t="str">
         <v>.1</v>
       </c>
-      <c r="G97" s="28"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B98" s="38"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
       <c r="E98" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F98" s="2" t="str">
         <v>.6</v>
       </c>
-      <c r="G98" s="28"/>
+      <c r="G98" s="26"/>
     </row>
     <row r="99" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B99" s="38"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F99" s="2" t="str">
         <v>.12</v>
       </c>
-      <c r="G99" s="28"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B100" s="38"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F100" s="2" t="str">
         <v>.8</v>
       </c>
-      <c r="G100" s="28"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="38"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F101" s="2" t="str">
         <v>.0.0.0</v>
       </c>
-      <c r="G101" s="28"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B102" s="38"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F102" s="2" t="str">
         <v>.2</v>
       </c>
-      <c r="G102" s="28"/>
+      <c r="G102" s="26"/>
     </row>
     <row r="103" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="38" t="s">
         <v>1334</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="25" t="s">
         <v>1310</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="23" t="s">
         <v>1349</v>
       </c>
       <c r="E103" s="7" t="str" cm="1">
@@ -21963,127 +22076,127 @@
         <f t="array" ref="F103:F112">ip.ip_in_binary(_xlfn.ANCHORARRAY($E103))</f>
         <v>0b00000000000000000000000000000000</v>
       </c>
-      <c r="G103" s="28" t="str" cm="1">
+      <c r="G103" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F103)),1)</f>
         <v>=ip.ip_in_binary($E103#)</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" s="38"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F104" s="2" t="str">
         <v>0b11111111111111111111111111111111</v>
       </c>
-      <c r="G104" s="28"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" s="38"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F105" s="2" t="str">
         <v>0b00001010000000000000000000000100</v>
       </c>
-      <c r="G105" s="28"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="106" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B106" s="38"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F106" s="2" t="str">
         <v>0b10101100000101000000000000000010</v>
       </c>
-      <c r="G106" s="28"/>
+      <c r="G106" s="26"/>
     </row>
     <row r="107" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B107" s="38"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F107" s="2" t="str">
         <v>0b01111111000000000000000000000001</v>
       </c>
-      <c r="G107" s="28"/>
+      <c r="G107" s="26"/>
     </row>
     <row r="108" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B108" s="38"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F108" s="2" t="str">
         <v>0b11001100101001010100100000000110</v>
       </c>
-      <c r="G108" s="28"/>
+      <c r="G108" s="26"/>
     </row>
     <row r="109" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B109" s="38"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
       <c r="E109" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F109" s="2" t="str">
         <v>0b11000000101010000000011100001100</v>
       </c>
-      <c r="G109" s="28"/>
+      <c r="G109" s="26"/>
     </row>
     <row r="110" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="38"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F110" s="2" t="str">
         <v>0b00001000000010000000100000001000</v>
       </c>
-      <c r="G110" s="28"/>
+      <c r="G110" s="26"/>
     </row>
     <row r="111" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B111" s="38"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F111" s="2" t="str">
         <v>0b00001010000000000000000000000000</v>
       </c>
-      <c r="G111" s="28"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B112" s="38"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F112" s="2" t="str">
         <v>0b10101001111111100000011100000010</v>
       </c>
-      <c r="G112" s="28"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="38" t="s">
         <v>1335</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="23" t="s">
         <v>1350</v>
       </c>
       <c r="E113" s="7" t="str" cm="1">
@@ -22094,127 +22207,127 @@
         <f t="array" ref="F113:F122">ip.netmask_in_binary(_xlfn.ANCHORARRAY($E113))</f>
         <v>0b00000000000000000000000000000000</v>
       </c>
-      <c r="G113" s="28" t="str" cm="1">
+      <c r="G113" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F113)),1)</f>
         <v>=ip.netmask_in_binary($E113#)</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B114" s="38"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
       <c r="E114" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F114" s="2" t="str">
         <v>0b11111111111111111111111111111111</v>
       </c>
-      <c r="G114" s="28"/>
+      <c r="G114" s="26"/>
     </row>
     <row r="115" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B115" s="38"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
       <c r="E115" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F115" s="2" t="str">
         <v>0b11111111111111111111111100000000</v>
       </c>
-      <c r="G115" s="28"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B116" s="38"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
       <c r="E116" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F116" s="2" t="str">
         <v>0b11111111111111111111110000000000</v>
       </c>
-      <c r="G116" s="28"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B117" s="38"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
       <c r="E117" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F117" s="2" t="str">
         <v>0b11111111111111111111111111111111</v>
       </c>
-      <c r="G117" s="28"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B118" s="38"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
       <c r="E118" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F118" s="2" t="str">
         <v>0b11111111111111111111111111110000</v>
       </c>
-      <c r="G118" s="28"/>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B119" s="38"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
       <c r="E119" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F119" s="2" t="str">
         <v>0b11111111111111111111111110000000</v>
       </c>
-      <c r="G119" s="28"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B120" s="38"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F120" s="2" t="str">
         <v>0b11111111111111111111111111111111</v>
       </c>
-      <c r="G120" s="28"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B121" s="38"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
       <c r="E121" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F121" s="2" t="str">
         <v>0b11111111000000000000000000000000</v>
       </c>
-      <c r="G121" s="28"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B122" s="38"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
       <c r="E122" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F122" s="2" t="str">
         <v>0b11111111111111111111111111111110</v>
       </c>
-      <c r="G122" s="28"/>
+      <c r="G122" s="26"/>
     </row>
     <row r="123" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="38" t="s">
         <v>1336</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="23" t="s">
         <v>1351</v>
       </c>
       <c r="E123" s="7" t="str" cm="1">
@@ -22225,127 +22338,127 @@
         <f t="array" ref="F123:F132">ip.hostmask_in_binary(_xlfn.ANCHORARRAY($E123))</f>
         <v>0b11111111111111111111111111111111</v>
       </c>
-      <c r="G123" s="28" t="str" cm="1">
+      <c r="G123" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F123)),1)</f>
         <v>=ip.hostmask_in_binary($E123#)</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B124" s="38"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
       <c r="E124" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F124" s="2" t="str">
         <v>0b00000000000000000000000000000000</v>
       </c>
-      <c r="G124" s="28"/>
+      <c r="G124" s="26"/>
     </row>
     <row r="125" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B125" s="38"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
       <c r="E125" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F125" s="2" t="str">
         <v>0b00000000000000000000000011111111</v>
       </c>
-      <c r="G125" s="28"/>
+      <c r="G125" s="26"/>
     </row>
     <row r="126" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B126" s="38"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
       <c r="E126" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F126" s="2" t="str">
         <v>0b00000000000000000000001111111111</v>
       </c>
-      <c r="G126" s="28"/>
+      <c r="G126" s="26"/>
     </row>
     <row r="127" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B127" s="38"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
       <c r="E127" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F127" s="2" t="str">
         <v>0b00000000000000000000000000000000</v>
       </c>
-      <c r="G127" s="28"/>
+      <c r="G127" s="26"/>
     </row>
     <row r="128" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B128" s="38"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
       <c r="E128" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F128" s="2" t="str">
         <v>0b00000000000000000000000000001111</v>
       </c>
-      <c r="G128" s="28"/>
+      <c r="G128" s="26"/>
     </row>
     <row r="129" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B129" s="38"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
       <c r="E129" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F129" s="2" t="str">
         <v>0b00000000000000000000000001111111</v>
       </c>
-      <c r="G129" s="28"/>
+      <c r="G129" s="26"/>
     </row>
     <row r="130" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B130" s="38"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
       <c r="E130" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F130" s="2" t="str">
         <v>0b00000000000000000000000000000000</v>
       </c>
-      <c r="G130" s="28"/>
+      <c r="G130" s="26"/>
     </row>
     <row r="131" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B131" s="38"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F131" s="2" t="str">
         <v>0b00000000111111111111111111111111</v>
       </c>
-      <c r="G131" s="28"/>
+      <c r="G131" s="26"/>
     </row>
     <row r="132" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B132" s="38"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F132" s="2" t="str">
         <v>0b00000000000000000000000000000001</v>
       </c>
-      <c r="G132" s="28"/>
+      <c r="G132" s="26"/>
     </row>
     <row r="133" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="38" t="s">
         <v>1337</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="25" t="s">
         <v>1310</v>
       </c>
-      <c r="D133" s="24" t="s">
+      <c r="D133" s="23" t="s">
         <v>1352</v>
       </c>
       <c r="E133" s="7" t="str" cm="1">
@@ -22356,127 +22469,127 @@
         <f t="array" ref="F133:F142">ip.ip_in_decimal(_xlfn.ANCHORARRAY($E133))</f>
         <v>0</v>
       </c>
-      <c r="G133" s="28" t="str" cm="1">
+      <c r="G133" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F133)),1)</f>
         <v>=ip.ip_in_decimal($E133#)</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B134" s="38"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
       <c r="E134" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F134" s="2">
         <v>4294967295</v>
       </c>
-      <c r="G134" s="28"/>
+      <c r="G134" s="26"/>
     </row>
     <row r="135" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B135" s="38"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
       <c r="E135" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F135" s="2">
         <v>167772164</v>
       </c>
-      <c r="G135" s="28"/>
+      <c r="G135" s="26"/>
     </row>
     <row r="136" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B136" s="38"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
       <c r="E136" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F136" s="2">
         <v>2886991874</v>
       </c>
-      <c r="G136" s="28"/>
+      <c r="G136" s="26"/>
     </row>
     <row r="137" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B137" s="38"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
       <c r="E137" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F137" s="2">
         <v>2130706433</v>
       </c>
-      <c r="G137" s="28"/>
+      <c r="G137" s="26"/>
     </row>
     <row r="138" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B138" s="38"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
       <c r="E138" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F138" s="2">
         <v>3433383942</v>
       </c>
-      <c r="G138" s="28"/>
+      <c r="G138" s="26"/>
     </row>
     <row r="139" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B139" s="38"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
       <c r="E139" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F139" s="2">
         <v>3232237324</v>
       </c>
-      <c r="G139" s="28"/>
+      <c r="G139" s="26"/>
     </row>
     <row r="140" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B140" s="38"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F140" s="2">
         <v>134744072</v>
       </c>
-      <c r="G140" s="28"/>
+      <c r="G140" s="26"/>
     </row>
     <row r="141" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B141" s="38"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
       <c r="E141" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F141" s="2">
         <v>167772160</v>
       </c>
-      <c r="G141" s="28"/>
+      <c r="G141" s="26"/>
     </row>
     <row r="142" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B142" s="38"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
       <c r="E142" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F142" s="2">
         <v>2851997442</v>
       </c>
-      <c r="G142" s="28"/>
+      <c r="G142" s="26"/>
     </row>
     <row r="143" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="38" t="s">
         <v>1338</v>
       </c>
-      <c r="C143" s="23" t="s">
+      <c r="C143" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="23" t="s">
         <v>1353</v>
       </c>
       <c r="E143" s="7" t="str" cm="1">
@@ -22487,127 +22600,127 @@
         <f t="array" ref="F143:F152">ip.netmask_in_decimal(_xlfn.ANCHORARRAY($E143))</f>
         <v>0</v>
       </c>
-      <c r="G143" s="28" t="str" cm="1">
+      <c r="G143" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F143)),1)</f>
         <v>=ip.netmask_in_decimal($E143#)</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B144" s="38"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
       <c r="E144" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F144" s="2">
         <v>4294967295</v>
       </c>
-      <c r="G144" s="28"/>
+      <c r="G144" s="26"/>
     </row>
     <row r="145" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B145" s="38"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
       <c r="E145" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F145" s="2">
         <v>4294967040</v>
       </c>
-      <c r="G145" s="28"/>
+      <c r="G145" s="26"/>
     </row>
     <row r="146" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B146" s="38"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
       <c r="E146" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F146" s="2">
         <v>4294966272</v>
       </c>
-      <c r="G146" s="28"/>
+      <c r="G146" s="26"/>
     </row>
     <row r="147" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B147" s="38"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
       <c r="E147" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F147" s="2">
         <v>4294967295</v>
       </c>
-      <c r="G147" s="28"/>
+      <c r="G147" s="26"/>
     </row>
     <row r="148" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B148" s="38"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
       <c r="E148" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F148" s="2">
         <v>4294967280</v>
       </c>
-      <c r="G148" s="28"/>
+      <c r="G148" s="26"/>
     </row>
     <row r="149" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B149" s="38"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
       <c r="E149" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F149" s="2">
         <v>4294967168</v>
       </c>
-      <c r="G149" s="28"/>
+      <c r="G149" s="26"/>
     </row>
     <row r="150" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B150" s="38"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
       <c r="E150" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F150" s="2">
         <v>4294967295</v>
       </c>
-      <c r="G150" s="28"/>
+      <c r="G150" s="26"/>
     </row>
     <row r="151" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B151" s="38"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
       <c r="E151" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F151" s="2">
         <v>4278190080</v>
       </c>
-      <c r="G151" s="28"/>
+      <c r="G151" s="26"/>
     </row>
     <row r="152" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B152" s="38"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
       <c r="E152" s="7" t="str">
         <v>169.254.7.2/31</v>
       </c>
       <c r="F152" s="2">
         <v>4294967294</v>
       </c>
-      <c r="G152" s="28"/>
+      <c r="G152" s="26"/>
     </row>
     <row r="153" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="38" t="s">
         <v>1339</v>
       </c>
-      <c r="C153" s="23" t="s">
+      <c r="C153" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="23" t="s">
         <v>1354</v>
       </c>
       <c r="E153" s="7" t="str" cm="1">
@@ -22618,111 +22731,111 @@
         <f t="array" ref="F153:F162">ip.hostmask_in_decimal(_xlfn.ANCHORARRAY($E153))</f>
         <v>4294967295</v>
       </c>
-      <c r="G153" s="28" t="str" cm="1">
+      <c r="G153" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(F153)),1)</f>
         <v>=ip.hostmask_in_decimal($E153#)</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B154" s="38"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
       <c r="E154" s="7" t="str">
         <v>255.255.255.255/32</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
       </c>
-      <c r="G154" s="28"/>
+      <c r="G154" s="26"/>
     </row>
     <row r="155" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B155" s="38"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
       <c r="E155" s="7" t="str">
         <v>10.0.0.4/24</v>
       </c>
       <c r="F155" s="2">
         <v>255</v>
       </c>
-      <c r="G155" s="28"/>
+      <c r="G155" s="26"/>
     </row>
     <row r="156" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B156" s="38"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
       <c r="E156" s="7" t="str">
         <v>172.20.0.2/22</v>
       </c>
       <c r="F156" s="2">
         <v>1023</v>
       </c>
-      <c r="G156" s="28"/>
+      <c r="G156" s="26"/>
     </row>
     <row r="157" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B157" s="38"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
       <c r="E157" s="7" t="str">
         <v>127.0.0.1/32</v>
       </c>
       <c r="F157" s="2">
         <v>0</v>
       </c>
-      <c r="G157" s="28"/>
+      <c r="G157" s="26"/>
     </row>
     <row r="158" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B158" s="38"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
       <c r="E158" s="7" t="str">
         <v>204.165.72.6/28</v>
       </c>
       <c r="F158" s="2">
         <v>15</v>
       </c>
-      <c r="G158" s="28"/>
+      <c r="G158" s="26"/>
     </row>
     <row r="159" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B159" s="38"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
       <c r="E159" s="7" t="str">
         <v>192.168.7.12/25</v>
       </c>
       <c r="F159" s="2">
         <v>127</v>
       </c>
-      <c r="G159" s="28"/>
+      <c r="G159" s="26"/>
     </row>
     <row r="160" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B160" s="38"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
       <c r="E160" s="7" t="str">
         <v>8.8.8.8/32</v>
       </c>
       <c r="F160" s="2">
         <v>0</v>
       </c>
-      <c r="G160" s="28"/>
+      <c r="G160" s="26"/>
     </row>
     <row r="161" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B161" s="38"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
       <c r="E161" s="7" t="str">
         <v>10.0.0.0/8</v>
       </c>
       <c r="F161" s="2">
         <v>16777215</v>
       </c>
-      <c r="G161" s="28"/>
+      <c r="G161" s="26"/>
     </row>
     <row r="162" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B162" s="39"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
       <c r="E162" s="8" t="str">
         <v>169.254.7.2/31</v>
       </c>
@@ -22802,7 +22915,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B22EB0-E35F-AD4A-B9D4-4DC0A0C23AC1}">
-  <dimension ref="B2:J50"/>
+  <dimension ref="B2:J64"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -22934,7 +23047,7 @@
       <c r="B20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>191</v>
       </c>
       <c r="D20" s="18"/>
@@ -22948,15 +23061,15 @@
       <c r="B22" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
@@ -22994,13 +23107,13 @@
       <c r="D25" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F25" s="41">
-        <v>0</v>
-      </c>
-      <c r="G25" s="41">
+      <c r="F25" s="42">
+        <v>0</v>
+      </c>
+      <c r="G25" s="42">
         <v>-1</v>
       </c>
       <c r="H25" s="6" t="str" cm="1">
@@ -23014,86 +23127,83 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="2" t="str">
         <v>192.168.0.32/27</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="2" t="str">
         <v>192.168.0.64/27</v>
       </c>
-      <c r="I27" s="28" t="e">
-        <f ca="1">_xlfn.FORMULATEXT(H27)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="38"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="2" t="str">
         <v>192.168.0.96/27</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="38"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="2" t="str">
         <v>192.168.0.128/27</v>
       </c>
-      <c r="I29" s="28"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="38"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="2" t="str">
         <v>192.168.0.160/27</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="38"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="2" t="str">
         <v>192.168.0.192/27</v>
       </c>
-      <c r="I31" s="28"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="39"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="9"/>
       <c r="I32" s="29"/>
     </row>
@@ -23123,72 +23233,72 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="38"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="2" t="str">
         <v>192.168.0.4</v>
       </c>
-      <c r="I34" s="28"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="38"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="2" t="str">
         <v>192.168.0.5</v>
       </c>
-      <c r="I35" s="28"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="38"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="28"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="38"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="28"/>
+      <c r="I37" s="26"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="38"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="28"/>
+      <c r="I38" s="26"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="38"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="28"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="39"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -23221,8 +23331,8 @@
     </row>
     <row r="42" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="7" t="s">
         <v>1378</v>
       </c>
@@ -23231,12 +23341,12 @@
       <c r="H42" s="2" t="str">
         <v>192.168.2.0/24</v>
       </c>
-      <c r="I42" s="28"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="38"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="7" t="s">
         <v>1382</v>
       </c>
@@ -23245,12 +23355,12 @@
       <c r="H43" s="2" t="str">
         <v>192.168.5.0/24</v>
       </c>
-      <c r="I43" s="28"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="38"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="7" t="s">
         <v>1383</v>
       </c>
@@ -23259,12 +23369,12 @@
       <c r="H44" s="2" t="str">
         <v>192.168.15.0</v>
       </c>
-      <c r="I44" s="28"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="38"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="7" t="s">
         <v>1377</v>
       </c>
@@ -23273,12 +23383,12 @@
       <c r="H45" s="2" t="str">
         <v>192.168.15.0/24</v>
       </c>
-      <c r="I45" s="28"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="38"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="7" t="s">
         <v>1384</v>
       </c>
@@ -23287,12 +23397,12 @@
       <c r="H46" s="2" t="str">
         <v>192.168.21.0/24</v>
       </c>
-      <c r="I46" s="28"/>
+      <c r="I46" s="26"/>
     </row>
     <row r="47" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="38"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="7" t="s">
         <v>1385</v>
       </c>
@@ -23301,12 +23411,12 @@
       <c r="H47" s="2" t="str">
         <v>192.168.200.0/24</v>
       </c>
-      <c r="I47" s="28"/>
+      <c r="I47" s="26"/>
     </row>
     <row r="48" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="39"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="8" t="s">
         <v>1386</v>
       </c>
@@ -23317,14 +23427,246 @@
       </c>
       <c r="I48" s="29"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="17"/>
+    <row r="49" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="40" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E49" s="5" t="str" cm="1">
+        <f t="array" ref="E49:E56">ip.subnets("192.168.0.0/24",27)</f>
+        <v>192.168.0.0/27</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="str" cm="1">
+        <f t="array" ref="H49:H52">ip.filter_include(_xlfn.ANCHORARRAY($E$49),"192.168.0.0/25")</f>
+        <v>192.168.0.0/27</v>
+      </c>
+      <c r="I49" s="33" t="str" cm="1">
+        <f t="array" aca="1" ref="I49" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(H49)),1)</f>
+        <v>=ip.filter_include($E$49#,"192.168.0.0/25")</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="38"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="7" t="str">
+        <v>192.168.0.32/27</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="2" t="str">
+        <v>192.168.0.32/27</v>
+      </c>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="38"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="7" t="str">
+        <v>192.168.0.64/27</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="2" t="str">
+        <v>192.168.0.64/27</v>
+      </c>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="38"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="7" t="str">
+        <v>192.168.0.96/27</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="2" t="str">
+        <v>192.168.0.96/27</v>
+      </c>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="38"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="7" t="str">
+        <v>192.168.0.128/27</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="38"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="7" t="str">
+        <v>192.168.0.160/27</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="26"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="38"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="7" t="str">
+        <v>192.168.0.192/27</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="39"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="8" t="str">
+        <v>192.168.0.224/27</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="29"/>
+    </row>
+    <row r="57" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="40" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E57" s="5" t="str" cm="1">
+        <f t="array" ref="E57:E64">ip.subnets("192.168.0.0/24",27)</f>
+        <v>192.168.0.0/27</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="str" cm="1">
+        <f t="array" ref="H57:H60">ip.filter_exclude(_xlfn.ANCHORARRAY($E$57),"192.168.0.0/25")</f>
+        <v>192.168.0.128/27</v>
+      </c>
+      <c r="I57" s="33" t="str" cm="1">
+        <f t="array" aca="1" ref="I57" ca="1">_xlfn.CHOOSEROWS(_xlfn.FORMULATEXT(_xlfn.ANCHORARRAY(H57)),1)</f>
+        <v>=ip.filter_exclude($E$57#,"192.168.0.0/25")</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="38"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="7" t="str">
+        <v>192.168.0.32/27</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="2" t="str">
+        <v>192.168.0.160/27</v>
+      </c>
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="38"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="7" t="str">
+        <v>192.168.0.64/27</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="2" t="str">
+        <v>192.168.0.192/27</v>
+      </c>
+      <c r="I59" s="26"/>
+    </row>
+    <row r="60" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="38"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="7" t="str">
+        <v>192.168.0.96/27</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="2" t="str">
+        <v>192.168.0.224/27</v>
+      </c>
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="38"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="7" t="str">
+        <v>192.168.0.128/27</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="38"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="7" t="str">
+        <v>192.168.0.160/27</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="26"/>
+    </row>
+    <row r="63" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="38"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="7" t="str">
+        <v>192.168.0.192/27</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="39"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="8" t="str">
+        <v>192.168.0.224/27</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="29">
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="C49:C56"/>
+    <mergeCell ref="D49:D56"/>
+    <mergeCell ref="I49:I56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="I57:I64"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="C25:C32"/>
     <mergeCell ref="D25:D32"/>
@@ -23334,6 +23676,10 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C22:I22"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="G25:G32"/>
+    <mergeCell ref="I25:I32"/>
     <mergeCell ref="B41:B48"/>
     <mergeCell ref="C41:C48"/>
     <mergeCell ref="D41:D48"/>
@@ -23342,11 +23688,6 @@
     <mergeCell ref="C33:C40"/>
     <mergeCell ref="D33:D40"/>
     <mergeCell ref="I33:I40"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:F32"/>
-    <mergeCell ref="G25:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -23482,7 +23823,7 @@
       <c r="B20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>191</v>
       </c>
       <c r="D20" s="18"/>
@@ -23495,14 +23836,14 @@
       <c r="B22" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
@@ -23531,10 +23872,10 @@
       <c r="B25" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="42" t="s">
         <v>230</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -23554,14 +23895,14 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="46"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="H26" s="28"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="46"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="7" t="s">
         <v>229</v>
       </c>
@@ -23572,12 +23913,12 @@
         <f t="array" ref="G27">ip.subnet_of(E27,F27)</f>
         <v>1</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="46"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="7" t="s">
         <v>229</v>
       </c>
@@ -23588,12 +23929,12 @@
         <f t="array" ref="G28">ip.subnet_of(E28,F28)</f>
         <v>1</v>
       </c>
-      <c r="H28" s="28"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="46"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="7" t="s">
         <v>229</v>
       </c>
@@ -23604,12 +23945,12 @@
         <f t="array" ref="G29">ip.subnet_of(E29,F29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="28"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="46"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="7" t="s">
         <v>229</v>
       </c>
@@ -23620,21 +23961,21 @@
         <f t="array" ref="G30">ip.subnet_of(E30,F30)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="28"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="46"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="28"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="47"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
@@ -23644,10 +23985,10 @@
       <c r="B33" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="42" t="s">
         <v>230</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -23667,14 +24008,14 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="46"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="H34" s="28"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="46"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="7" t="s">
         <v>229</v>
       </c>
@@ -23682,12 +24023,12 @@
         <v>237</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="28"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="46"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="7" t="s">
         <v>229</v>
       </c>
@@ -23695,12 +24036,12 @@
         <v>229</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="28"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="46"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="7" t="s">
         <v>229</v>
       </c>
@@ -23708,12 +24049,12 @@
         <v>238</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="46"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="7" t="s">
         <v>229</v>
       </c>
@@ -23721,21 +24062,21 @@
         <v>234</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="46"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="28"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="47"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
@@ -23777,10 +24118,10 @@
       <c r="B43" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="42" t="s">
         <v>241</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -23800,8 +24141,8 @@
     </row>
     <row r="44" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="46"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="7" t="s">
         <v>229</v>
       </c>
@@ -23812,12 +24153,12 @@
         <f t="array" ref="G44">ip.supernet_diff(E44,F44)</f>
         <v>192.168.0.0/22</v>
       </c>
-      <c r="H44" s="28"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="46"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="7" t="s">
         <v>229</v>
       </c>
@@ -23828,12 +24169,12 @@
         <f t="array" ref="G45">ip.supernet_diff(E45,F45)</f>
         <v>192.168.0.0/21</v>
       </c>
-      <c r="H45" s="28"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="46"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="7" t="s">
         <v>229</v>
       </c>
@@ -23844,12 +24185,12 @@
         <f t="array" ref="G46">ip.supernet_diff(E46,F46)</f>
         <v>192.168.0.0/20</v>
       </c>
-      <c r="H46" s="28"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="46"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="7" t="s">
         <v>229</v>
       </c>
@@ -23860,12 +24201,12 @@
         <f t="array" ref="G47">ip.supernet_diff(E47,F47)</f>
         <v>192.168.0.0/19</v>
       </c>
-      <c r="H47" s="28"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="46"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="7" t="s">
         <v>229</v>
       </c>
@@ -23876,12 +24217,12 @@
         <f t="array" ref="G48">ip.supernet_diff(E48,F48)</f>
         <v>192.168.0.0/18</v>
       </c>
-      <c r="H48" s="28"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="46"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="7" t="s">
         <v>229</v>
       </c>
@@ -23892,12 +24233,12 @@
         <f t="array" ref="G49">ip.supernet_diff(E49,F49)</f>
         <v>192.168.0.0/17</v>
       </c>
-      <c r="H49" s="28"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="47"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="8" t="s">
         <v>229</v>
       </c>
@@ -23946,10 +24287,10 @@
       <c r="B53" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="42" t="s">
         <v>243</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -23969,8 +24310,8 @@
     </row>
     <row r="54" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="46"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="7" t="s">
         <v>229</v>
       </c>
@@ -23981,12 +24322,12 @@
         <f t="array" ref="G54">ip.supernet_new_prefix(E54,F54)</f>
         <v>192.168.0.0/22</v>
       </c>
-      <c r="H54" s="28"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="46"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="7" t="s">
         <v>229</v>
       </c>
@@ -23997,12 +24338,12 @@
         <f t="array" ref="G55">ip.supernet_new_prefix(E55,F55)</f>
         <v>192.168.0.0/21</v>
       </c>
-      <c r="H55" s="28"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="46"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="7" t="s">
         <v>229</v>
       </c>
@@ -24013,12 +24354,12 @@
         <f t="array" ref="G56">ip.supernet_new_prefix(E56,F56)</f>
         <v>192.168.0.0/20</v>
       </c>
-      <c r="H56" s="28"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="46"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="7" t="s">
         <v>229</v>
       </c>
@@ -24029,12 +24370,12 @@
         <f t="array" ref="G57">ip.supernet_new_prefix(E57,F57)</f>
         <v>192.168.0.0/19</v>
       </c>
-      <c r="H57" s="28"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="46"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="7" t="s">
         <v>229</v>
       </c>
@@ -24045,12 +24386,12 @@
         <f t="array" ref="G58">ip.supernet_new_prefix(E58,F58)</f>
         <v>192.168.0.0/18</v>
       </c>
-      <c r="H58" s="28"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="46"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="7" t="s">
         <v>229</v>
       </c>
@@ -24061,12 +24402,12 @@
         <f t="array" ref="G59">ip.supernet_new_prefix(E59,F59)</f>
         <v>192.168.0.0/17</v>
       </c>
-      <c r="H59" s="28"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="47"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="8" t="s">
         <v>229</v>
       </c>
@@ -36077,7 +36418,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBpAHAAIgAsACIAdABlAHgAdAAiADoAIgAvACoAKgBcAG4AIAAqACAARQB4AGMAZQBsACAASQBQACAAQQBkAGQAcgBlAHMAcwAgAE0AYQBuAGkAcAB1AGwAYQB0AGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgBcAG4AIAAqACAAaAB0AHQAcABzADoALwAvAGcAaQBzAHQALgBnAGkAdABoAHUAYgAuAGMAbwBtAC8AbgBnAHIAaQBzAG8AbgAvADUANAA4ADMANgBhADIAZQAxADQAZgA3ADkAZABhADcANgAxADIAZgBlADcAYgA0AGMAYQA1AGUAZQA1ADMANgBcAG4AIAAqAFwAbgAgACoAIABBACAAYwBvAG0AcABsAGUAdABlACAAcwB1AGkAdABlACAAbwBmACAARQB4AGMAZQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAIAB0AG8AIABlAGEAcwBpAGwAeQAgAG0AYQBuAGkAcAB1AGwAYQB0AGUAIABJAFAAIABhAGQAZAByAGUAcwBzAGUAcwAuAFwAbgAgACoAIABBAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIABjAG8AbQBwAGEAdABpAGIAbABlACAAdwBpAHQAaAAgAEQAeQBuAGEAbQBpAGMAIABBAHIAcgBhAHkAcwAuAFwAbgAgACoAIABSAGUAYwBvAG0AbQBlAG4AZAAgAHQAbwAgAGkAbgBzAHQAYQBsAGwAIABpAG4AIABhACAAbgBlAHcAIABtAG8AZAB1AGwAZQAgAGMAYQBsAGwAZQBkACAAXAAiAGkAcABcACIAIABzAG8AIABhAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzAFwAbgAgACoAIABhAHIAZQAgAGEAdgBhAGkAbABhAGIAbABlACAAdQBuAGQAZQByACAAXAAiAGkAcAAuAFwAIgBcAG4AIAAqAFwAbgAgACoAIABDAG8AcAB5AHIAaQBnAGgAdAAgADIAMAAyADUAIABOAGkAYwBvAGwAYQBzACAARwByAGkAcwBvAG4AXABuACAAKgBcAG4AIAAqACAATABpAGMAZQBuAHMAZQBkACAAdQBuAGQAZQByACAAdABoAGUAIABBAHAAYQBjAGgAZQAgAEwAaQBjAGUAbgBzAGUALAAgAFYAZQByAHMAaQBvAG4AIAAyAC4AMAAgACgAdABoAGUAIABcACIATABpAGMAZQBuAHMAZQBcACIAKQA7AFwAbgAgACoAIAB5AG8AdQAgAG0AYQB5ACAAbgBvAHQAIAB1AHMAZQAgAHQAaABpAHMAIABmAGkAbABlACAAZQB4AGMAZQBwAHQAIABpAG4AIABjAG8AbQBwAGwAaQBhAG4AYwBlACAAdwBpAHQAaAAgAHQAaABlACAATABpAGMAZQBuAHMAZQAuAFwAbgAgACoAIABZAG8AdQAgAG0AYQB5ACAAbwBiAHQAYQBpAG4AIABhACAAYwBvAHAAeQAgAG8AZgAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGEAdABcAG4AIAAqAFwAbgAgACoAIAAgACAAIAAgAGgAdAB0AHAAOgAvAC8AdwB3AHcALgBhAHAAYQBjAGgAZQAuAG8AcgBnAC8AbABpAGMAZQBuAHMAZQBzAC8ATABJAEMARQBOAFMARQAtADIALgAwAFwAbgAgACoAXABuACAAKgAgAFUAbgBsAGUAcwBzACAAcgBlAHEAdQBpAHIAZQBkACAAYgB5ACAAYQBwAHAAbABpAGMAYQBiAGwAZQAgAGwAYQB3ACAAbwByACAAYQBnAHIAZQBlAGQAIAB0AG8AIABpAG4AIAB3AHIAaQB0AGkAbgBnACwAIABzAG8AZgB0AHcAYQByAGUAXABuACAAKgAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAgAHUAbgBkAGUAcgAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGkAcwAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAgAG8AbgAgAGEAbgAgAFwAIgBBAFMAIABJAFMAXAAiACAAQgBBAFMASQBTACwAXABuACAAKgAgAFcASQBUAEgATwBVAFQAIABXAEEAUgBSAEEATgBUAEkARQBTACAATwBSACAAQwBPAE4ARABJAFQASQBPAE4AUwAgAE8ARgAgAEEATgBZACAASwBJAE4ARAAsACAAZQBpAHQAaABlAHIAIABlAHgAcAByAGUAcwBzACAAbwByACAAaQBtAHAAbABpAGUAZAAuAFwAbgAgACoAIABTAGUAZQAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGYAbwByACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGMAIABsAGEAbgBnAHUAYQBnAGUAIABnAG8AdgBlAHIAbgBpAG4AZwAgAHAAZQByAG0AaQBzAHMAaQBvAG4AcwAgAGEAbgBkAFwAbgAgACoAIABsAGkAbQBpAHQAYQB0AGkAbwBuAHMAIAB1AG4AZABlAHIAIAB0AGgAZQAgAEwAaQBjAGUAbgBzAGUALgBcAG4AIAAqAFwAbgAgACoALwBcAG4AXABuAFwAbgAvACoAKgBcAG4AIAAqACAATgBvAHQAZQBzAFwAbgAgACoAIABcAG4AIAAqACAARABpAHIAZQBjAHQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ADoAXABuACAAKgAgAFwAbgAgACoAIABFAHgAYwBlAGwAIABpAG0AbQBlAGQAaQBhAHQAZQBsAHkAIABjAG8AbgB2AGUAcgB0AHMAIABEAGkAcgBlAGMAdAAgAG4AdQBtAGUAcgBpAGMAIABpAG4AcAB1AHQAIAB0AG8AIABmAGwAbwBhAHQAaQBuAGcALQBwAG8AaQBuAHQAIABhAG4AZABcAG4AIAAqACAAbgB1AG0AYgBlAHIAcwAgAGIAZQB5AG8AbgBkACAAMgBeADMAMQAgACgAMgAxADQANwA0ADgAMwA2ADQAOAApACAAbQBhAHkAIABsAG8AcwBlACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAHMAbwAgAGkAcwAgAG4AbwB0ACAAcwB1AGkAdABhAGIAbABlACAAXABuACAAKgAgAHQAbwAgAG0AYQBuAGEAZwBlACAAMwAyACAAYgBpAHQAIABpAHAAIABhAGQAZAByAGUAcwBzAGUAcwAuAFwAbgAgACoAIABcAG4AIAAqACAAVwBoAGUAbgAgAHkAbwB1ACAAdQBzAGUAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAwADQAMABcACIAKQAsACAARQB4AGMAZQBsACAAcABhAHIAcwBlAHMAIAB0AGgAZQAgAHQAZQB4AHQAIAByAGUAcAByAGUAcwBlAG4AdABhAHQAaQBvAG4AIABvAGYAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgAGEAIABcAG4AIAAqACAAcAByAGUAYwBpAHMAZQAgAG4AdQBtAGUAcgBpAGMAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAXABuACAAKgAgAD0ANAAyADkANAA5ADYANwAwADQAMAAgACAALQAtAD4AIABJAG4AYwBvAHIAcgBlAGMAdAAgAHYAYQBsAHUAZQAgAGQAdQBlACAAdABvACAAZgBsAG8AYQB0AGkAbgBnAC0AcABvAGkAbgB0ACAAcgBvAHUAbgBkAGkAbgBnAFwAbgAgACoAIAA9AFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADAANAAwAFwAIgApACAAIAAtAC0APgAgAEMAbwByAHIAZQBjAHQAIAB2AGEAbAB1AGUAIABiAGUAYwBhAHUAcwBlACAAaQB0ACcAcwAgAHAAYQByAHMAZQBkACAAZgByAGUAcwBoAFwAbgAgACoAIABcAG4AIAAqACAAVwBlACAAdABoAGUAcgBlAGYAbwByAGUAIAB1AHMAZQAgAFYAQQBMAFUARQAoACkAIABlAHYAZQByAHkAdwBoAGUAcgBlACAAdwBoAGUAbgAgAGUAbgB0AGUAcgBpAG4AZwAgAEkAUAAgAGEAZABkAHIAZQBzAHMAZQBzACAAaQBuACAAZABlAGMAaQBtAGEAbAAgAGYAbwByAG0AIABmAG8AcgAgAHMAcABlAGUAZAAuAFwAbgAgACoAXABuACAAKgBcAG4AIAAqACAAQQByAHIAYQB5ACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFMAbwAgAHQAaABhAHQAIABhAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIABhAHIAcgBhAHkAIABjAG8AbQBwAGEAdABpAGIAbABlACAAdwBlACAAYQB2AG8AaQBkACAAdQBzAGkAbgBnACAAYgB1AGkAbAB0AC0AaQBuACAARQB4AGMAZQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAIAB0AGgAYQB0AFwAbgAgACoAIABhAHIAZQAgAG4AbwB0ACAAYwBvAG0AcABhAHQAaQBiAGwAZQA6ACAAQQBOAEQAKAApACwAIABPAFIAKAApACwAIABUAEUAWABUAFMAUABMAEkAVAAoACkALgBcAG4AIAAqACAAXABuACAAKgAgAEEATgBEACgAKQA6ACAASQBuAHMAdABlAGEAZAAsACAAdwBlACAAdQBzAGUAIAAoACgAdABlAHMAdAAxACkAIAAqACAAKAB0AGUAcwB0ACAAMgApACkAIAA+ACAAMABcAG4AIAAqACAATwBSACgAKQA6ACAAIABJAG4AcwB0AGUAYQBkACwAIAB3AGUAIAB1AHMAZQAgACgAKAB0AGUAcwB0ADEAKQAgACsAIAAoAHQAZQBzAHQAIAAyACkAKQAgAD4AIAAwAFwAbgAgACoAXABuACAAKgAgAFQARQBYAFQAUwBQAEwASQBUACgAKQA6ACAASQBuAHMAdABlAGEAZAAsACAAdwBlACAAdQBzAGUAIAB0AGgAZQAgAGMAbABhAHMAcwBpAGMAcwAgAEYASQBOAEQAKAApACwAUwBFAEEAUgBDAEgAKAApACwATABFAEYAVAAoACkALABNAEkARAAoACkALAAgAFIASQBHAEgAVAAoACkAXABuACAAKgBcAG4AIAAqAC8AXABuAFwAbgBcAG4AXABuAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwBcAG4ALwAvACAAIAAgACAAIABGAE8AUgBNAEEAVABJAE4ARwAgAEYAVQBOAEMAVABJAE8ATgBTAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAFwAbgAvACoAKgBcAG4AIAAqACAATQBvAHMAdAAgAGYAdQBuAGMAdABpAG8AbgBzACAAIABpAG4AcAB1AHQAIABtAHUAcwB0ACAAYgBlACAAaQBuACAAdABoAGUAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAASQBmACAAeQBvAHUAcgAgAGQAYQB0AGEAIABmAG8AcgBtAGEAdAAgAGkAcwAgAGQAaQBmAGYAZQByAGUAbgB0ACwAIAB1AHMAZQAgAHQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAdABvAFwAbgAgACoAIABjAG8AbgB2AGUAcgB0AC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAsACAAXAAiAGkAcAAvAG4AZQB0AG0AYQBzAGsAXAAiACAAbwByACAAXAAiAGkAcAAvAGgAbwBzAHQAbQBhAHMAawBcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABbAHMAZQBwAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAdABoAGUAIABzAGUAcABhAHIAYQB0AG8AcgAgAHUAcwBlAGQAIAB0AG8AIABzAGUAcABhAHIAYQB0AGUAIAB0AGgAZQAgAEkAUAAgAGYAcgBvAG0AIAB0AGgAZQAgAHAAcgBlAGYAaQB4AC8AbgBlAHQAbQBhAHMAawAvAGgAbwBzAHQAbQBhAHMAawAuAFwAbgAgACoAIABEAGUAZgBhAHUAbAB0ACAAdABvACAAXAAiAC8AXAAiAC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABmAHIAbwBtAF8AcAByAGUAZgBpAHgAbABlAG4AKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxACAAbQBhAHMAawAgADIANABcACIALAAgAFwAIgAgAG0AYQBzAGsAIABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAXABuACAAKgAgAGYAcgBvAG0AXwBuAGUAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiAFwAbgAgACoAIABhAGQAZAByAGUAcwBzACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAgADAALgAwAC4AMAAuADIANQA1AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgBcAG4AIAAqAC8AXABuAGYAcgBvAG0AXwBwAHIAZQBmAGkAeABsAGUAbgAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAcwBlAHAAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAGUAcAAsAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAZgBpAHgAbABlAG4ALAAgAFQARQBYAFQAQQBGAFQARQBSACgAYwBlAGwAbABzACwAIABzAGUAcAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AcwB0AHIAaQBuAGcAIAAmACAAXAAiAC8AXAAiACAAJgAgAHAAcgBlAGYAaQB4AGwAZQBuAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAGYAcgBvAG0AXwBuAGUAdABtAGEAcwBrACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHMAZQBwACwAaQBmACgASQBTAE8ATQBJAFQAVABFAEQAKABzAGUAcAApACwAIABcACIALwBcACIALAAgAHMAZQBwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABfAHMAdAByAGkAbgBnACwAIABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABtAGEAcwBrACwAIABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcABfAHMAdAByAGkAbgBnACAAJgAgAFwAIgAvAFwAIgAgACYAIABfAGQAbwB0ADIAcABmAHgAKABuAGUAdABtAGEAcwBrACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AZgByAG8AbQBfAGgAbwBzAHQAbQBhAHMAawAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAcwBlAHAAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAGUAcAAsAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHMAdABtAGEAcwBrACwAIABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAgACYAIABcACIALwBcACIAIAAmACAAXwBiAGkAbgAyAHAAZgB4ACgAXwBkAGUAYwAyAGIAaQBuACgAQgBJAFQATgBPAFQAKABfAGQAbwB0ADIAZABlAGMAKABoAG8AcwB0AG0AYQBzAGsAKQAsADMAMgApACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAGkAcAAgAGEAZABkAHIAZQBzAHMAZQBzACAAdwBpAHQAaAAgAG4AbwAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAB3AGkAdABoACAAdABoAGUAIABjAG8AcgByAGUAYwB0ACAAYwBsAGEAcwBzAGYAdQBsACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAuAFwAbgAgACoAIABJAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIABmAG8AbABsAG8AdwBlAGQAIABiAHkAIABhACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAsACAAdABoAGEAdAAgAGkAbgB0AGUAcgBmAGEAYwBlACAAaQBzACAAcgBlAHQAdQByAG4AZQBkACAAYwBoAGUAYwBrAGUAZAAgAGIAdQB0AFwAbgAgACoAIAB1AG4AYwBoAGEAbgBnAGUAZAAuAFwAbgAgACoAIABJAGYAIABuAG8AIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAaQBzACAAcAByAG8AdgBpAGQAZQBkACwAIAB0AGgAZQAgAGQAZQBmAGEAdQBsAHQAIABzAHUAYgBuAGUAdAAgAG0AYQBzAGsAIABmAG8AcgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAgAGMAbABhAHMAcwAgAGkAcwAgAGEAZABkAGUAZAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcABcACIAIABvAHIAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGYAcgBvAG0AXwBjAGwAYQBzAHMAZgB1AGwAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBmAHIAbwBtAF8AYwBsAGEAcwBzAGYAdQBsACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBmAHMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADIAMQA0ADcANAA4ADMANgA0ADgAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAwACAAYQBuAGQAIAAxADIANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AOABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAxADIAOAAgAGEAbgBkACAAMQA5ADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAHAAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvADEANgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADMANwA1ADgAMAA5ADYAMwA4ADQAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAxADkAMgAgAGEAbgBkACAAMgAyADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAHAAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvADIANABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwA3ADUAOAAwADkANgAzADgANABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEYAbwByAG0AYQB0AHQAaQBuAGcAIABGAHUAbgBjAHQAaQBvAG4AcwAuACAATQBvAHMAdAAgAGYAdQBuAGMAdABpAG8AbgBzACAAcgBlAHQAdQByAG4AcwAgAGkAcAAgAGkAbgBmAG8AcgBtAGEAdABpAG8AbgAgAGkAbgAgAFwAbgAgACoAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAbABlAG4AXAAiACAAZgBvAHIAbQBhAHQALgAgAEkAZgAgAHkAbwB1ACAAZABlAHMAaQByAGUAIABhAG4AbwB0AGgAZQByACAAbwB1AHQAcAB1AHQALAAgAHUAcwBlACAAdABoAGUAcwBlAFwAbgAgACoAIABmAHUAbgBzAHQAaQBvAG4AIAB0AG8AIABmAG8AcgBtAGEAdABcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHcAaQB0AGgAXwBuAGUAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiAFwAbgAgACoAIAB3AGkAdABoAF8AaABvAHMAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADAALgAwAC4AMAAuADIANQA1AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AdwBpAHQAaABfAG4AZQB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAAaQBwACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACAAJgAgAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACAAJgAgAG4AZQB0AG0AYQBzAGsAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACkAOwBcAG4AXABuAHcAaQB0AGgAXwBoAG8AcwB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAAaQBwACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACAAJgAgAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACAAJgAgAGgAbwBzAHQAbQBhAHMAawAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAIABwAGEAZABkAGUAZAAgAHcAaQB0AGgAIAAwAHMAIABzAG8AIAB0AGgAYQB0ACAAdABoAGUAeQAgAGMAYQBuACAAYgBlACAAZQBhAHMAaQBsAHkAIABzAG8AcgB0AGUAZAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAZABvACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAdABoAGUAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoAFwAbgAgACoAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHAAbwBuAHMAZQAgAGkAZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABwAGEAZABkAGUAZAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwA4AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAAMAAwAC4AMAAwADEALwAwADgAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuACAAcABhAGQAZABlAGQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBjAGgAZQBjAGsAZQBkACwAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBjAGgAZQBjAGsAZQBkACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMgAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AYwBoAGUAYwBrAGUAZAAsACAAXAAiAC4AXAAiACwAIAAyACkALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAzACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBjAGgAZQBjAGsAZQBkACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AYwBoAGUAYwBrAGUAZAAsACAAXAAiAC4AXAAiACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAbwBjAHQAZQB0ADEALAAgAFwAIgAwADAAMABcACIAKQAgACYAIABcACIALgBcACIAIAAmAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAG8AYwB0AGUAdAAyACwAIABcACIAMAAwADAAXAAiACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAG8AYwB0AGUAdAAzACwAIABcACIAMAAwADAAXAAiACkAIAAmACAAXAAiAC4AXAAiACAAJgBcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKABvAGMAdABlAHQANAAsACAAXAAiADAAMAAwAFwAIgApACAAJgAgAEkARgAoAE4ATwBUACgAbwBtAGkAdABfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAKQAgACoAIABpAHMAXwBuAGUAdAAsACAAXAAiAC8AXAAiACAAJgAgAFQARQBYAFQAKABfAGQAZQBjADIAcABmAHgAKABwAGYAeABkAGUAYwApACwAXAAiADAAMABcACIAKQAsACAAXAAiAFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbwBjAHQAZQB0AHMAIABjAG8AcgByAGUAcwBwAG8AbgBkAGkAbgBnACAAdABvACAAdABoAGUAIABoAG8AcwB0ACAAcABhAHIAdAAgAG8AZgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABGAG8AcgAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABoAGkAZwBoAGUAcgAgAHQAaABhAG4AIAAyADQALAAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGwAYQBzAHQAIABvAGMAdABlAHQALgBcAG4AIAAqACAARgBvAHIAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAYgBlAHQAdwBlAGUAbgAgADEANgAgAGEAbgBkACAAMgAzACwAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAdAB3AG8AIABvAGMAdABlAHQAcwAuAFwAbgAgACoAIABGAG8AcgAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABiAGUAdAB3AGUAZQBuACAAOAAgAGEAbgBkACAAMQA1ACwAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAdABoAHIAZQBlACAAbwBjAHQAZQB0AHMALgBcAG4AIAAqACAARgBvAHIAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADcALAAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAdQBsAGwAIABJAFAAIABhAGQAZAByAGUAcwBzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGgAbwBzAHQAXwBvAGMAdABlAHQAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGgAbwBzAHQAXwBvAGMAdABlAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMQAsACAAVgBBAEwAVQBFACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGEAZABkAHIAZQBzAHMALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADIAKQAsACAAXAAiAC4AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADMALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGEAZABkAHIAZQBzAHMALAAgAFwAIgAuAFwAIgAsACAAMwApACwAIABcACIALgBcACIALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQANAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABvAGMAdABlAHQAMQAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMQAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPgAgADIANQA1ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAG8AYwB0AGUAdAA0ACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAA0ACAAPgAgADIANQA1ACkAIAArACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AMwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPgA9ACAAMgA0ACwAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAGYAeAAgAD4APQAgADEANgAsACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAzACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPgA9ACAAOAAsACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAyACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMwAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAGYAeAAgAD4APQAgADAALAAgAG8AYwB0AGUAdAAxACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMgAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADMAIAAmACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIABpAG4AIABiAGkAbgBhAHIAeQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHAAXwBpAG4AXwBiAGkAbgBhAHIAeQAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiACkAIAA9AD0APgAgAFwAIgAwAGIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHAAXwBpAG4AXwBiAGkAbgBhAHIAeQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwAGIAXAAiACAAJgAgAF8AZABvAHQAMgBiAGkAbgAoAGkAcABfAGEAZABkAHIAZQBzAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGIAaQBuAGEAcgB5AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAwAGIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBuAGUAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcACIAMABiAFwAIgAgACYAIABfAHAAZgB4ADIAYgBpAG4AKABwAGYAeAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AcwB0AG0AYQBzAGsAIABpAG4AIABiAGkAbgBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAaABvAHMAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMABiADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAMQAxADEAMQAxADEAMQBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaABvAHMAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcACIAMABiAFwAIgAgACYAIABfAGQAZQBjADIAYgBpAG4AKABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAzADIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAHAAIABhAGQAZAByAGUAcwBzACAAaQBuACAAZABlAGMAaQBtAGEAbAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHAAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANQA1AFwAIgApACAAPQA9AD4AIAA0ADIAOQA0ADkANgA3ADIAOQA1AFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcABfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBhAGQAZAByAGUAcwBzACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADEAMAAuADAALgAwAC4AMAAvADgAXAAiACkAIAA9AD0APgAgADQAMgA3ADgAMQA5ADAAMAA4ADAAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHQAbQBhAHMAawBfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AcwB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADEAMAAuADAALgAwAC4AMAAvADgAXAAiACkAIAA9AD0APgAgADEANgA3ADcANwAyADEANQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAQgBJAFQATgBPAFQAKABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAMwAyACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAaABlAGMAawBlAGQAIABpAHAAIABwAHIAbwBwAGUAcgBsAHkAIABmAG8AcgBtAGEAdAB0AGUAZAAgAG8AcgAgAE4AQQAgAGkAZgAgAHQAaABlACAAaQBwACAAaQBzACAAaQBuAHYAYQBsAGkAZAAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAAXAAiACAAbwByACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABjAGgAZQBjAGsAZQBkACgAXAAiADEAMAAuADAAMAAuADAALgAwADAALwA4AFwAIgApACAAPQA9AD4AIABcACIAMQAwAC4AMAAuADAALgAwAC8AOABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AYwBoAGUAYwBrAGUAZAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAEkARgAoAGkAcwBfAG4AZQB0ACwAIABcACIALwBcACIAIAAmAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkALAAgAFwAIgBcACIAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAC8ALwAgACAAIAAgACAAQgBBAFMARQAgAEYAVQBOAEMAVABJAE8ATgBTAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuACAAdABoAGUAIABJAFAAIABwAGEAcgB0ACAAbwBmACAAYQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAHAAYQBpAHIALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAFwAbgAgACoALwBcAG4AaQBwACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AZABvAHQAMgBkAGUAYwAoAGkAcABfAHMAdAByAGkAbgBnACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABwAGEAcgB0ACAAbwBmACAAYQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AGwAZQBuAFwAIgAgAHAAYQBpAHIAIABhAHMAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHAAcgBlAGYAaQB4AGwAZQBuACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAMgA0AFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAHAAcgBlAGYAaQB4AGwAZQBuACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAHAAZgB4ACAAPAAgADAAKQAgACsAIAAoAHAAZgB4ACAAPgAgADMAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgAHAAYQByAHQAIABvAGYAIABhAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAcABhAGkAcgAgAGEAcwAgAGEAIABuAGUAdAAgAG0AYQBzAGsALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHQAbQBhAHMAawAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkAKQApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgAHAAYQByAHQAIABvAGYAIABhAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAcABhAGkAcgAgAGEAcwAgAGEAIABoAG8AcwB0ACAAbQBhAHMAawAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAaABvAHMAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADAALgAwAC4AMAAuADIANQA1AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAzADIAKQApACkAXABuAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHQAdwBvAHIAawAgAGEAZABkAHIAZQBzAHMAIABvAGYAIAB0AGgAZQAgAGcAaQB2AGUAbgAgAGkAbgB0AGUAcgBmAGEAYwBlACAAaQBwAC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAGUAdAB3AG8AcgBrAF8AYQBkAGQAcgBlAHMAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG4AZQB0AHcAbwByAGsAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAKQAgACYAIABJAEYAKABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGIAcgBvAGEAZABjAGEAcwB0ACAAYQBkAGQAcgBlAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGIAcgBvAGEAZABjAGEAcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMgA1ADUAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGIAcgBvAGEAZABjAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAZQB4AGMAbAB1AGQAZQBfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGMAZQBsAGwAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGMAZQBsAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAKQAgACYAIABJAEYAKABlAHgAYwBsAHUAZABlAF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAYQBkAGQAcgBlAHMAcwBlAHMAIABpAG4AIAB0AGgAZQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAHUAbQBfAGEAZABkAHIAZQBzAHMAZQBzACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAMgA1ADYAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgB1AG0AXwBhAGQAZAByAGUAcwBzAGUAcwAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AIAAzADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIASQBUAE4ATwBUACgAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsADMAMgApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvAC8AIABTAHUAYgBuAGUAdAAgAEgAbwBzAHQAIABOAGEAdgBpAGcAYQB0AGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZgBpAHIAcwB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQA6ACAATwBwAHQAaQBvAG4AYQBsACwAIABkAG8AIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAGkAbgAgAHQAaABlACAAcgBlAHMAcABvAG4AcwBlACAAaQBmACAAdABoAGUAIABpAG4AcAB1AHQAIABpAHMAIABhACAAbgBlAHQAdwBvAHIAawBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGYAaQByAHMAdABoAG8AcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AZgBpAHIAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABjAGUAbABsAHMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAYwBlAGwAbABzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABjAGUAbABsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGYAaQByAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACkAIAAmACAASQBGACgAIABvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AIAArACAAbgBvAHQAKABpAHMAXwBuAGUAdAApACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQA6ACAATwBwAHQAaQBvAG4AYQBsACwAIABkAG8AIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAGkAbgAgAHQAaABlACAAcgBlAHMAcABvAG4AcwBlACAAaQBmACAAdABoAGUAIABpAG4AcAB1AHQAIABpAHMAIABhACAAbgBlAHQAdwBvAHIAawBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGwAYQBzAHQAaABvAHMAdAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADIANQA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBsAGEAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALAAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGMAZQBsAGwAcwApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABjAGUAbABsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGMAZQBsAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGwAYQBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHgAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwAgAG8AZgAgAGEAIABzAHUAYgBuAGUAdAAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdADoAIABPAHAAdABpAG8AbgBhAGwALAAgAGQAbwAgAG4AbwB0ACAAaQBuAGMAbAB1AGQAZQAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaABcAG4AIAAqACAAaQBuACAAdABoAGUAIAByAGUAcwBwAG8AbgBzAGUAIABpAGYAIAB0AGgAZQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIABuAGUAdAB3AG8AcgBrAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgA0AC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAzAFwAIgBcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQAwAC4AMAAuADAALgAyAFwAIgApACAAPQA9AD4AIABcACIAMQAwAC4AMAAuADAALgAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBwAHIAZQB2AGkAbwB1AHMAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGMAZQBsAGwAcwApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABjAGUAbABsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHcAXwBpAHAALABpAHAAZABlAGMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AGgAbwBzAHQALABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHcAXwBpAHAAIAA8ACAAZgBpAHIAcwB0AGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdwBfAGkAcAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB4AHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgA0AC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAzAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AbgBlAHgAdABfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAYwBlAGwAbABzACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABjAGUAbABsAHMALABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAGMAZQBsAGwAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBfAGkAcAAsAGkAcABkAGUAYwAgACsAIAAxACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AGgAbwBzAHQALABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AGgAbwBzAHQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABuAGUAdwBfAGkAcAAgAD4AIABsAGEAcwB0AGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdwBfAGkAcAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABuAGUAeAB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHAAcgBlAHYAaQBvAHUAcwBoAG8AcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4ANAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMwBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBuAGQAZQB4AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABpAG4AZABlAHgALABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaABvAHMAdAAsAF8AbABhAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBoAG8AcwB0ACwAXwBmAGkAcgBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAPAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBoAG8AcwB0ACAAKwAgAGkAbgBkAGUAeAAgACsAIAAxACAAPAAgAGYAaQByAHMAdABfAGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAbABhAHMAdABfAGgAbwBzAHQAIAArACAAaQBuAGQAZQB4ACAAKwAgADEAIAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGgAbwBzAHQAIAArACAAaQBuAGQAZQB4ACAALQAgADEAIAA+ACAAbABhAHMAdABfAGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAZgBpAHIAcwB0AF8AaABvAHMAdAAgACsAIABpAG4AZABlAHgAIAAtACAAMQApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAcAByAGUAdgBpAG8AdQBzACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAHMAdQBiAG4AZQB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADcALgAyADUANQAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAHAAcgBlAHYAaQBvAHUAcwBfAHMAdQBiAG4AZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABkAGUAYwAsACAAXwBwAHIAZQB2AGkAbwB1AHMAcwB1AGIAbgBlAHQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABuAGUAdABkAGUAYwAgADwAIAAwACkAIAArACAAKABuAGUAdABkAGUAYwAgAD4AIAAyACAAXgAgADMAMgAgAC0AIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB4AHQAIABzAHUAYgBuAGUAdAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAGUAeAB0AHMAdQBiAG4AZQB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHgAdABfAHMAdQBiAG4AZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AbgBlAHgAdABzAHUAYgBuAGUAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAXAAiAGkAbgBkAGUAeABcACIAdABoACAAcwB1AGIAbgBlAHQAIABpAG4AIABhACAAbABhAHIAZwBlAHIAIABzAHUAbQBtAGEAcgB5AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBzAHUAbQBtAGEAcgB5ADoAIABhACAAQwBlAGwAbAAgAG8AcgAgAFMAdAByAGkAbgBnACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAbgAgAGkAcAAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAF8AcAByAGUAZgBpAHgAOgAgAGEAIABDAGUAbABsACAAbwByACAAUwB0AHIAaQBuAGcAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAYQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAHQAbwAgAHMAdQBiAG4AZQB0ACAAdABoAGUAIABzAHUAbQBtAGEAcgB5ACAAaQBuAHQAbwAuAFwAbgAgACoAIABpAG4AZABlAHgAOgAgAGEAIABwAG8AcwBpAHQAaQB2AGUAIABvAHIAIABuAGUAZwBhAHQAaQB2AGUAIABpAG4AZABlAHgAIABuAHUAbQBiAGUAcgAuACAASQBmACAAcABvAHMAaQB0AGkAdgBlACwAIAB3AGkAbABsACAAXABuACAAKgAgAHIAZQB0AHUAcgBuACAAdABoAGUAIABzAHUAYgBuAGUAdAAgAGEAdAAgAHQAaABlACAAaQBuAGQAZQB4ACAAcABvAHMAaQB0AGkAbwBuACAAKABmAGkAcgBzAHQAIABzAHUAYgBuAGUAdAAgAGkAcwAgADAAKQAuAFwAbgAgACoAIABJAGYAIABuAGUAZwBhAHQAaQB2AGUALAAgAHcAaQBsAGwAIAByAGUAdAB1AHIAbgAgAHQAaABlACAAcwB1AGIAbgBlAHQAIABkAGUAYwByAGUAYQBzAGkAbgBnACAAZgByAG8AbQAgAHQAaABlACAAZQBuAGQAIABvAGYAXABuACAAKgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuACAAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAG4AZABlAHgAXwBzAHUAYgBuAGUAdAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAxADYAXAAiACwAMgA0ACwALQAzACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMgA1ADMALgAwAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAG4AZABlAHgAXwBzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAHMAdQBtAG0AYQByAHkALAAgAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeAAsACAAaQBuAGQAZQB4ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAaQBwAF8AcwB1AG0AbQBhAHIAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGkAcABfAHMAdQBtAG0AYQByAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcwBtAGEAbABsAGUAcgBfAHAAcgBlAGYAaQB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAsACAAXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABzAHUAYgBfAHMAaQB6AGUALABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeAApACwAMwAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAB0AGEAcgBnAGUAdABfAG4AZQB0AF8AZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AZABlAHgAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcABfAGQAZQBjACAAKwAgAGkAbgBkAGUAeAAgACoAIAAoAHMAdQBiAF8AcwBpAHoAZQAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAHMAdABfAGkAcABfAGQAZQBjACAAKwAgADEAIAArACAAaQBuAGQAZQB4ACAAKgAgACgAcwB1AGIAXwBzAGkAegBlACAAKwAgADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKAB0AGEAcgBnAGUAdABfAG4AZQB0AF8AZABlAGMAKQAgACYAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcwBtAGEAbABsAGUAcgBfAHAAcgBlAGYAaQB4AGQAZQBjACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZAB5AG4AYQBtAGkAYwAgAGEAcgByAGEAeQAgAG8AZgAgAHQAaABlACAAcwB1AGIAbgBlAHQAcwAgAGkAbgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAHMAdQBwAGUAcgBuAGUAdAA6ACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAHAAZgB4ADoAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABvAGYAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AHQAaQBuAGcALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHMAdQBiAG4AZQB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgAsADIANQApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADUAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAyADgALwAyADUAXAAiAH0AXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AcwB1AGIAbgBlAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdQBwAGUAcgBuAGUAdAAsAHMAbQBhAGwAbABlAHIAcABmAHgALABbAHMAdABhAHIAdABdACwAWwBzAHQAbwBwAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AHAAZQByAG4AZQB0AGkAcAAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAHMAdQBwAGUAcgBuAGUAdAAsACAAXAAiAC8AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBwAGUAcgBuAGUAdABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABzAHUAcABlAHIAbgBlAHQALAAgAFwAIgAvAFwAIgApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAF8AZABvAHQAMgBkAGUAYwAoAHMAdQBwAGUAcgBuAGUAdABpAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AHAAZQByAG4AZQB0AHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABzAHUAcABlAHIAbgBlAHQAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAHMAbQBhAGwAbABlAHIAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHMAbQBhAGwAbABlAHIAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcABfAGQAZQBjACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAHMAdQBwAGUAcgBuAGUAdABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAHMAdQBwAGUAcgBuAGUAdABwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAcwBpAHoAZQAsACAAQgBJAFQATgBPAFQAKABzAG0AYQBsAGwAZQByAHAAZgB4AGQAZQBjACwAMwAyACkAIAArACAAMQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAHQAYQByAGcAZQB0AF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABhAHIAdAAgAD4APQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIABzAHQAYQByAHQAIAAqACAAbgBlAHQAcwBpAHoAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIAAxACAAKwAgAHMAdABhAHIAdAAgACoAIABuAGUAdABzAGkAegBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AdABhAHIAZwBlAHQAXwBpAHAALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMATwBNAEkAVABUAEUARAAoAHMAdABvAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwB0AG8AcAAgAD4APQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIABzAHQAbwBwACAAKgAgAG4AZQB0AHMAaQB6AGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMAIAArACAAMQAgACsAIABzAHQAbwBwACAAKgAgAG4AZQB0AHMAaQB6AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIAbgBlAHQAXwBuAGIAcgAsACAAKABsAGEAcwB0AF8AdABhAHIAZwBlAHQAXwBpAHAAIAArACAAMQAgAC0AIABmAGkAcgBzAHQAXwB0AGEAcgBnAGUAdABfAGkAcAApACAALwAgAG4AZQB0AHMAaQB6AGUALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABmAGkAcgBzAHQAXwB0AGEAcgBnAGUAdABfAGkAcAAgACsAIABTAEUAUQBVAEUATgBDAEUAKABzAHUAYgBuAGUAdABfAG4AYgByACwALAAwACwAMQApACAAKgAgAG4AZQB0AHMAaQB6AGUAKQAgACYAIABcACIALwBcACIAIAAmACAAcwBtAGEAbABsAGUAcgBwAGYAeABcAG4AXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAYQAgAGQAeQBuAGEAbQBpAGMAIABhAHIAcgBhAHkAIABvAGYAIAB0AGgAZQAgAGgAbwBzAHQAcwAgAGkAbgAgAHQAaABlACAAbgBlAHQAdwBvAHIAawAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAG4AZQB0AHcAbwByAGsAOgAgAGEAIABDAGUAbABsACAAbwByACAAUwB0AHIAaQBuAGcAIABuAGUAdAB3AG8AcgBrACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABoAG8AcwB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMwAxAFwAIgApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AHMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAWwBzAHQAYQByAHQAXQAsAFsAcwB0AG8AcABdACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAG8AdAAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAXwBkAG8AdAAyAGQAZQBjACgAaQBwAGQAbwB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAYQBsAF8AcwB0AG8AcAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABzAHQAbwBwACkALAAtADEALABzAHQAbwBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAIAA8AD0AIAAzADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPAA9ACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBuAGQAZQB4AGUAZABfAGkAcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBwACAAKwAgAHMAdABhAHIAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAIAArACAAcwB0AGEAcgB0ACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBhAGwAXwBzAHQAbwBwACAAPgA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcAAgACsAIAByAGUAYQBsAF8AcwB0AG8AcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAIAArACAAcgBlAGEAbABfAHMAdABvAHAAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG4AdQBtAGIAZQByAF8AbwBmAF8AaABvAHMAdABzACwAIABsAGEAcwB0AF8AaQBuAGQAZQB4AGUAZABfAGkAcAAgAC0AIABmAGkAcgBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABmAGkAcgBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACAAPAAgAGYAaQByAHMAdABfAGkAcAApACAAKwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbABhAHMAdABfAGkAbgBkAGUAeABlAGQAXwBpAHAAIAA+ACAAbABhAHMAdABfAGkAcAApACAAKwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AdQBtAGIAZQByAF8AbwBmAF8AaABvAHMAdABzACAAPAAgADEALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGYAaQByAHMAdABfAGkAbgBkAGUAeABlAGQAXwBpAHAAIAArACAAUwBFAFEAVQBFAE4AQwBFACgAbgB1AG0AYgBlAHIAXwBvAGYAXwBoAG8AcwB0AHMALAAsADAALAAxACkAKQAgACYAIABJAEYAKABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZAB5AG4AYQBtAGkAYwAgAGEAcgByAGEAeQAgAG8AZgAgAHQAaABlACAAcwB1AGIAbgBlAHQAcwAgAGkAbgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAHMAdQBwAGUAcgBuAGUAdAA6ACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAHAAZgB4ADoAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABvAGYAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AHQAaQBuAGcALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHMAdQBiAG4AZQB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgAsADIANQApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADUAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAyADgALwAyADUAXAAiAH0AXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AcwB1AGIAbgBlAHQAXwBvAGYAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABvAHQAaABlAHIALABcAG4AIAAgACAAIAAvAC8AUgBlAHQAdQByAG4AIABUAHIAdQBlACAAaQBmACAAaQBwAF8AbgBlAHQAdwBvAHIAawAgAGkAcwAgAGEAIABzAHUAYgBuAGUAdAAgAG8AZgAgAG8AdABoAGUAcgAuAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABfAGQAZQBjACwAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AbgBlAHQAdwBvAHIAawAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABuAGUAdABfAGQAZQBjACwAIABuAGUAdABfAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AbABhAHMAdABfAGkAcAAsACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG4AZQB0AF8AZABlAGMALAAgAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABvAHQAaABlAHIALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAbwB0AGgAZQByACwAIABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABvAHQAaABlAHIAXwBuAGUAdABfAGQAZQBjACwAIABvAHQAaABlAHIAXwBuAGUAdABfAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AbABhAHMAdABfAGkAcAAsACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAKAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACAAPAA9ACAAbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAAIAApACAAKgAgACgAbgBlAHQAXwBsAGEAcwB0AF8AaQBwACAAPAA9ACAAbwB0AGgAZQByAF8AbgBlAHQAXwBsAGEAcwB0AF8AaQBwACkAKQAgAD4AIAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAHMAdQBwAGUAcgBuAGUAdABfAG8AZgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAG8AdABoAGUAcgAsAFwAbgAgACAAIAAgAC8ALwBSAGUAdAB1AHIAbgAgAFQAcgB1AGUAIABpAGYAIABpAHAAXwBuAGUAdAB3AG8AcgBrACAAaQBzACAAYQAgAHMAdQBiAG4AZQB0ACAAbwBmACAAbwB0AGgAZQByAC4AXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABfAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG4AZQB0AF8AZABlAGMALAAgAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAbgBlAHQAXwBkAGUAYwAsACAAbgBlAHQAXwBwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAG8AdABoAGUAcgAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABvAHQAaABlAHIALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAbwB0AGgAZQByAF8AbgBlAHQAXwBkAGUAYwAsACAAbwB0AGgAZQByAF8AbgBlAHQAXwBwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAKAAoACAAbwB0AGgAZQByAF8AbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAAIAA8AD0AIABuAGUAdABfAGYAaQByAHMAdABfAGkAcAAgACkAIAAqACAAKABuAGUAdABfAGwAYQBzAHQAXwBpAHAAIAA8AD0AIABvAHQAaABlAHIAXwBuAGUAdABfAGwAYQBzAHQAXwBpAHAAKQApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AcwB1AHAAZQByAG4AZQB0AF8AZABpAGYAZgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAHAAcgBlAGYAaQB4AGwAZQBuAF8AZABpAGYAZgAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAG4AZQB0AHcAbwByAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBuAGUAdAB3AG8AcgBrACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBfAHAAcgBlAGYAaQB4ACwAIABwAGYAeAAgAC0AIABwAHIAZQBmAGkAeABsAGUAbgBfAGQAaQBmAGYALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPAAgADAAKQAgACsAIAAoAG4AZQB3AF8AcAByAGUAZgBpAHgAIAA+ACAAMwAyACkAIAArACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPgA9ACAAcABmAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIAAoAHAAZgB4ACAALQAgAHAAcgBlAGYAaQB4AGwAZQBuAF8AZABpAGYAZgApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBzAHUAcABlAHIAbgBlAHQAXwBuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AbgBlAHQAdwBvAHIAawAsACAAbgBlAHcAXwBwAHIAZQBmAGkAeAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAG4AZQB0AHcAbwByAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBuAGUAdAB3AG8AcgBrACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbgBlAHcAXwBwAHIAZQBmAGkAeAAgADwAIAAwACkAIAArACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPgAgADMAMgApACAAKwAgACgAbgBlAHcAXwBwAHIAZQBmAGkAeAAgAD4APQAgAHAAZgB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABpAHAAZABlAGMAKQAgACYAIABcACIALwBcACIAIAAmACAAbgBlAHcAXwBwAHIAZQBmAGkAeABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBvAHIAdABlAGQAIABsAGkAcwB0ACAAbwBmACAAaQBwACAAYQBkAGQAcgBlAHMAcwBlAHMALwBpAG4AdABlAHIAZgBhAGMAZQBzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAAXAAiACAAbwByACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAZABvACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAdABoAGUAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoAFwAbgAgACoAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHAAbwBuAHMAZQAgAGkAZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABzAG8AcgB0ACgAewBcACIAMQA5ADIALgAxADYAOAAuADEALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgB9ACkAIAA9AD0APgAgAHsAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgAgAHMAbwByAHQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAAaQBwAC4AYwBoAGUAYwBrAGUAZAAoAFMATwBSAFQAKABpAHAALgBwAGEAZABkAGUAZAAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAApACkAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIABvAGYAZgBzAGUAdAAgAGIAeQAgAHQAaABlACAAZABlAGMAaQBtAGEAbAAgAG8AZgBmAHMAZQB0ACAAcAByAG8AdgBpAGQAZQBkAC4AXABuACAAKgAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHQAdQByAG4AcwAgACMATgAvAEEAIABpAGYAIAB0AGgAZQAgAG8AZgBmAHMAZQB0ACAASQBQACAAaQBzACAAbwB1AHQAcwBpAGQAZQAgAHQAaABlACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAbwBmAGYAcwBlAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgAsADEAMAApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADEALgAxADEALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG8AZgBmAHMAZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAIABkAGUAYwBpAG0AYQBsAF8AbwBmAGYAcwBlAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAKABjAGUAbABsAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGYAZgBzAGUAdABfAGkAcABkAGUAYwAsACAAaQBwAGQAZQBjACAAKwAgAGQAZQBjAGkAbQBhAGwAXwBvAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAbwBmAGYAcwBlAHQAXwBpAHAAZABlAGMAIAA8ACAAZgBpAHIAcwB0AF8AaQBwACkAIAArACAAKABvAGYAZgBzAGUAdABfAGkAcABkAGUAYwAgAD4AIABsAGEAcwB0AF8AaQBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAG8AZgBmAHMAZQB0AF8AaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAHcAaQB0AGgAIABlAGEAYwBoACAAbwBjAHQAZQB0ACAAbwBmAGYAcwBlAHQAIABiAHkAIAB2AGEAbAB1AGUAIABwAHIAbwB2AGkAZABlAGQALgBcAG4AIAAqACAASQB0ACAAZABvAGUAcwAgAG4AbwB0ACAAZQByAHIAbwByACAAaQBmACAAdABoAGUAIABvAGYAZgBzAGUAdAAgAEkAUAAgAGkAcwAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFUAcwBlAGYAdQBsACAAdABvACAAbQBhAHAAIAB0AHcAbwAgAG4AZQB0AHcAbwByAGsAcwAgAHQAbwBnAGUAdABoAGUAcgAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABvAGYAZgBzAGUAdABvAGMAdABlAHQAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiACwAMAAsAC0AMQAwACwAMQAwACwAMAApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADUAOAAuADEAMAAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG8AYwB0AGUAdABfAG8AZgBmAHMAZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAIABvAGYAZgBzAGUAdAAxACwAIABvAGYAZgBzAGUAdAAyACwAIABvAGYAZgBzAGUAdAAzACwAIABvAGYAZgBzAGUAdAA0ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlACAAdABoAGUAIAB0AG8AdABhAGwAIABvAGYAZgBzAGUAdAAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIABvAGYAZgBzAGUAdABkAGUAYwAsACAAKABvAGYAZgBzAGUAdAAxACAAKgAgADIANQA2ACAAXgAgADMAKQAgACsAIAAoAG8AZgBmAHMAZQB0ADIAIAAqACAAMgA1ADYAIABeACAAMgApACAAKwAgACgAbwBmAGYAcwBlAHQAMwAgACoAIAAyADUANgApACAAKwAgACgAbwBmAGYAcwBlAHQANAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAgACsAIABvAGYAZgBzAGUAdABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjAGkAbgB2ACwAIABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAgADMAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAaQBwAGQAZQBjACAAPAAgADAAKQAgACsAIAAoAGkAcABkAGUAYwAgAD4AIAAyACAAXgAgADMAMgAgAC0AIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABUAFIAVQBFACAAaQBmACAAdABoAGUAIABzAHUAYgBuAGUAdAAgAGkAcwAgAHAAYQByAHQAIABvAGYAIABhAG4AIABSAEYAQwAxADkAMQA4ACAAYgBsAG8AYwBrACwAIABGAEEATABTAEUAIABvAHQAaABlAHIAdwBpAHMAZQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBSAEYAQwAxADkAMQA4ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AaQBzAF8AcgBmAGMAMQA5ADEAOAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMQA2ADcANwA3ADIAMQA2ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEAOAA0ADUANAA5ADMANwA1AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADgAOAA2ADcAMgA5ADcAMgA4AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADgAOAA3ADcANwA4ADMAMAAzAFwAIgApACkAKQAgACsAIAAvAC8AIAAxADcAMgAuADEANgAuADAALgAwAC8AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAzADIAMgAzADUANQAyADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAzADIAMwAwADEAMAA1ADUAXAAiACkAKQApACAAIAAgAC8ALwAgADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADEANgBcAG4AIAAgACAAIAAgACAAIAAgACkAIAA+ACAAMABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAVABSAFUARQAgAGkAZgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAgAGkAcwAgAGQAZQBmAGkAbgBlAGQAIABhAHMAIABuAG8AdAAgAGcAbABvAGIAYQBsAGwAeQAgAHIAZQBhAGMAaABhAGIAbABlACAAYgB5ACAAaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AFwAbgAgACoAIABlAHgAYwBlAHAAdAAgAGYAbwByACAAMQAwADAALgA2ADQALgAwAC4AMAAvADEAMAAgAHcAaABpAGMAaAAgAGkAcwAgAEYAQQBMAFMARQAuAFwAbgAgACoAIABoAHQAdABwAHMAOgAvAC8AdwB3AHcALgBpAGEAbgBhAC4AbwByAGcALwBhAHMAcwBpAGcAbgBtAGUAbgB0AHMALwBpAGEAbgBhAC0AaQBwAHYANAAtAHMAcABlAGMAaQBhAGwALQByAGUAZwBpAHMAdAByAHkALwBpAGEAbgBhAC0AaQBwAHYANAAtAHMAcABlAGMAaQBhAGwALQByAGUAZwBpAHMAdAByAHkALgB4AGgAdABtAGwAXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHAAcgBpAHYAYQB0AGUAKABcACIAMQA5ADIALgAwAC4AMgAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFQAUgBVAEUAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBzAF8AcAByAGkAdgBhAHQAZQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADEAOQAxADUAOQAwADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADYAMQAxADAAMgAwADcAXAAiACkAKQApACwAIAAgACAAIAAgACAAIAAgAC8ALwAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAAgACAAIAAgACAAIABTAGgAYQByAGUAZAAgAEEAZABkAHIAZQBzAHMAIABTAHAAYQBjAGUALAAgAG4AZQBpAHQAaABlAHIAIABwAHIAaQB2AGEAdABlACAAbgBvAHIAIABnAGwAbwBiAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADUAXAAiACkAKQApACAAKwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMAAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAaQBzACAAbgBlAHQAdwBvAHIAawBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADYAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMQA4ADQANQA0ADkAMwA3ADUAXAAiACkAKQApACAAKwAgACAAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADEAMwAwADcAMAA2ADQAMwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADEANAA3ADQAOAAzADYANAA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQAyADcALgAwAC4AMAAuADAALwA4ACAAIAAgACAAIAAgACAAIAAgAEwAbwBvAHAAYgBhAGMAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA1ADEAOQA5ADUANgA0ADgAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA1ADIAMAA2ADEAMQA4ADMAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADYAOQAuADIANQA0AC4AMAAuADAALwAxADYAIAAgACAAIAAgACAATABpAG4AawAgAEwAbwBjAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA4ADYANwAyADkANwAyADgAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA4ADcANwA3ADgAMwAwADMAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADcAMgAuADEANgAuADAALgAwAC8AMQAyACAAIAAgACAAIAAgACAAUAByAGkAdgBhAHQAZQAtAFUAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA0ADcAMgBcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA3ADIANwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADAALgAwAC8AMgA0ACAAIAAgACAAIAAgACAAIABJAEUAVABGACAAUAByAG8AdABvAGMAbwBsACAAQQBzAHMAaQBnAG4AbQBlAG4AdABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA2ADQAMgBcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA2ADQAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADAALgAxADcAMAAvADMAMQAgACAAIAAgACAAIABOAEEAVAA2ADQALwBEAE4AUwA2ADQAIABEAGkAcwBjAG8AdgBlAHIAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUAOQA4ADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADYAMgAzADkAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADkAMgAuADAALgAyAC4AMAAvADIANAAgACAAIAAgACAAIAAgACAARABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAgACgAVABFAFMAVAAtAE4ARQBUAC0AMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADMAMgAyADMANQA1ADIAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADMAMgAzADAAMQAwADUANQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADEANgAgACAAIAAgACAAIABQAHIAaQB2AGEAdABlAC0AVQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgAzADAANgA4ADQAMQA2AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgAzADEAOQA5ADQAOAA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADgALgAxADgALgAwAC4AMAAvADEANQAgACAAIAAgACAAIAAgAEIAZQBuAGMAaABtAGEAcgBrAGkAbgBnAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAzADIANQAyADUANgA3ADAANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAzADIANQAyADUANgA5ADUAOQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQA4AC4ANQAxAC4AMQAwADAALgAwAC8AMgA0ACAAIAAgACAAIABEAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACAAKABUAEUAUwBUAC0ATgBFAFQALQAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADQAMAA1ADgAMAAzADcANwA2AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADQAMAA1ADgAMAA0ADAAMwAxAFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMgAwADMALgAwAC4AMQAxADMALgAwAC8AMgA0ACAAIAAgACAAIAAgAEQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4AIAAoAFQARQBTAFQALQBOAEUAVAAtADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADQAMAAyADYANQAzADEAOAA0ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAyADQAMAAuADAALgAwAC4AMAAvADQAIAAgACAAIAAgACAAIAAgACAAUgBlAHMAZQByAHYAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZgBpAHIAcwB0AGQAZQBjACAAPQAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA1AFwAIgApACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA1ADUALwAzADIAIAAgAEwAaQBtAGkAdABlAGQAIABCAHIAbwBhAGQAYwBhAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGUAIABhAGQAZAByAGUAcwBzACAAaQBzACAAbgBvAHQAIABkAGUAZgBpAG4AZQBkACAAYQBzACAAbgBvAHQAIABnAGwAbwBiAGEAbABsAHkAIAByAGUAYQBjAGgAYQBiAGwAZQAgAGIAeQAgAGkAYQBuAGEALQBpAHAAdgA0AC0AcwBwAGUAYwBpAGEAbAAtAHIAZQBnAGkAcwB0AHIAeQBcAG4AIAAqACAAZQB4AGMAZQBwAHQAIABmAG8AcgAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAB3AGgAaQBjAGgAIABpAHMAIABGAGEAbABzAGUALgBcAG4AIAAqACAAaAB0AHQAcABzADoALwAvAHcAdwB3AC4AaQBhAG4AYQAuAG8AcgBnAC8AYQBzAHMAaQBnAG4AbQBlAG4AdABzAC8AaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AC8AaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AC4AeABoAHQAbQBsAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBnAGwAbwBiAGEAbAAoAFwAIgAxADkAMgAuADAALgAyAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHMAXwBnAGwAbwBiAGEAbAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADEAOQAxADUAOQAwADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADYAMQAxADAAMgAwADcAXAAiACkAKQApACwAIAAgACAAIAAgACAAIAAgAC8ALwAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAAgACAAIAAgACAAIABTAGgAYQByAGUAZAAgAEEAZABkAHIAZQBzAHMAIABTAHAAYQBjAGUALAAgAG4AZQBpAHQAaABlAHIAIABwAHIAaQB2AGEAdABlACAAbgBvAHIAIABnAGwAbwBiAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADUAXAAiACkAKQApACAAKwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMAAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAaQBzACAAbgBlAHQAdwBvAHIAawBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADYAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMQA4ADQANQA0ADkAMwA3ADUAXAAiACkAKQApACAAKwAgACAAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAMQAzADAANwAwADYANAAzADIAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAMQA0ADcANAA4ADMANgA0ADcAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADIANwAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAATABvAG8AcABiAGEAYwBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMQA5ADkANQA2ADQAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMgAwADYAMQAxADgAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEANgA5AC4AMgA1ADQALgAwAC4AMAAvADEANgAgACAAIAAgACAAIABMAGkAbgBrACAATABvAGMAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADgANgA3ADIAOQA3ADIAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADgANwA3ADcAOAAzADAAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEANwAyAC4AMQA2AC4AMAAuADAALwAxADIAIAAgACAAIAAgACAAIABQAHIAaQB2AGEAdABlAC0AVQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADQANwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADcAMgA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAwAC4AMAAuADAALwAyADQAIAAgACAAIAAgACAAIAAgAEkARQBUAEYAIABQAHIAbwB0AG8AYwBvAGwAIABBAHMAcwBpAGcAbgBtAGUAbgB0AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADYANAAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADYANAAzAFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAwAC4AMAAuADEANwAwAC8AMwAxACAAIAAgACAAIAAgAE4AQQBUADYANAAvAEQATgBTADYANAAgAEQAaQBzAGMAbwB2AGUAcgB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA5ADgANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANgAyADMAOQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADIALgAwAC8AMgA0ACAAIAAgACAAIAAgACAAIABEAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACAAKABUAEUAUwBUAC0ATgBFAFQALQAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMwAyADIAMwA1ADUAMgAwAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMwAyADMAMAAxADAANQA1AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMQA2ACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMwAyADMAMAA2ADgANAAxADYAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMwAyADMAMQA5ADkANAA4ADcAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADkAOAAuADEAOAAuADAALgAwAC8AMQA1ACAAIAAgACAAIAAgACAAQgBlAG4AYwBoAG0AYQByAGsAaQBuAGcAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgA1ADIANQA2ADcAMAA0AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgA1ADIANQA2ADkANQA5AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADgALgA1ADEALgAxADAAMAAuADAALwAyADQAIAAgACAAIAAgAEQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4AIAAoAFQARQBTAFQALQBOAEUAVAAtADIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMANAAwADUAOAAwADMANwA3ADYAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMANAAwADUAOAAwADQAMAAzADEAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAyADAAMwAuADAALgAxADEAMwAuADAALwAyADQAIAAgACAAIAAgACAARABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAgACgAVABFAFMAVAAtAE4ARQBUAC0AMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADIANAAwAC4AMAAuADAALgAwAC8ANAAgACAAIAAgACAAIAAgACAAIABSAGUAcwBlAHIAdgBlAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABmAGkAcgBzAHQAZABlAGMAIAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADUANQAvADMAMgAgACAATABpAG0AaQB0AGUAZAAgAEIAcgBvAGEAZABjAGEAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAIAA9ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABUAFIAVQBFACAAaQBmACAAdABoAGkAcwAgAGkAcwAgAHQAaABlACAAdQBuAHMAcABlAGMAaQBmAGkAZQBkACAAYQBkAGQAcgBlAHMAcwAgAGEAcwAgAGQAZQBmAGkAbgBlAGQAIABpAG4AIABSAEYAQwAgADUANwAzADUAIAAzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAoAFwAIgAwAC4AMAAuADAALgAwAFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgADAAKQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAwAC4AMAAuADAALgAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAgAD4AIAAwAFwAbgBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAFQAUgBVAEUAIABpAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcgBlAHMAZQByAHYAZQBkACAASQBFAFQARgAgAEkAUAB2ADQAIABOAGUAdAB3AG8AcgBrACAAcgBhAG4AZwBlAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHIAZQBzAGUAcgB2AGUAZAAoAFwAIgAyADQAMAAuADAALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHMAXwByAGUAcwBlAHIAdgBlAGQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADQAMAAyADYANQAzADEAOAA0ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAyADQAMAAuADAALgAwAC4AMAAvADQAXABuACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFQAUgBVAEUAIABpAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIAByAGUAcwBlAHIAdgBlAGQAIABmAG8AcgAgAG0AdQBsAHQAaQBjAGEAcwB0ACAAdQBzAGUALgAgAFMAZQBlACAAUgBGAEMAIAAzADEANwAxAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACgAXAAiADIANAAwAC4AMQAuADEALgAwAC8AMgA0AFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwA3ADUAOAAwADkANgAzADgANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADMAOQBcACIAKQApACkAIAA+ACAAMAAgACAAIAAvAC8AIAAyADIANAAuADAALgAwAC4AMAAvADQAXABuAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGkAcwAgAGkAcwAgAGEAIABsAG8AbwBwAGIAYQBjAGsAIABhAGQAZAByAGUAcwBzAC4AIABTAGUAZQAgAFIARgBDACAAMwAzADMAMAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBsAG8AbwBwAGIAYQBjAGsAKABcACIAMQAyADcALgAwAC4AMAAuADEALwAzADIAXAAiACkAIAA9AD0APgAgAFQAUgBVAEUAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBzAF8AbABvAG8AcABiAGEAYwBrACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADEAMwAwADcAMAA2ADQAMwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADEANAA3ADQAOAAzADYANAA3AFwAIgApACkAKQAgACAAIAAvAC8AIAAxADIANwAuADAALgAwAC4AMAAvADgAXABuACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGUAIABhAGQAZAByAGUAcwBzACAAaQBzACAAcgBlAHMAZQByAHYAZQBkACAAZgBvAHIAIABsAGkAbgBrAC0AbABvAGMAYQBsACAAdQBzAGEAZwBlAC4AIABTAGUAZQAgAFIARgBDACAAMwA5ADIANwAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBsAGkAbgBrAF8AbABvAGMAYQBsACgAXAAiADEANgA5AC4AMgA1ADQALgAxADAALgAxAC8AMwAyAFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuACAAaQBzAF8AbABpAG4AawBfAGwAbwBjAGEAbAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMQA5ADkANQA2ADQAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMgAwADYAMQAxADgAMwBcACIAKQApACkAIAAgACAALwAvACAAMQA2ADkALgAyADUANAAuADAALgAwAC8AMQA2AFwAbgAgACAAIAAgACAAIAAgACAAKQAgAD4AIAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAdgBlAHIAcwBlACAARABOAFMAIABwAG8AaQBuAHQAZQByACAAbgBhAG0AZQAgAGYAbwByACAAdABoAGUAIABJAFAAdgA0ACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABUAGgAaQBzACAAaQBtAHAAbABlAG0AZQBuAHQAcwAgAHQAaABlACAAbQBlAHQAaABvAGQAIABkAGUAcwBjAHIAaQBiAGUAZAAgAGkAbgAgAFIARgBDADEAMAAzADUAIAAzAC4ANQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIAByAGUAdgBlAHIAcwBlAF8AcABvAGkAbgB0AGUAcgAoAFwAIgAxADYAOQAuADIANQA0AC4AMQAwAC4AMQAvADMAMgBcACIAKQAgAD0APQA+ACAAMQAuADEAMAAuADIANQA0AC4AMQA2ADkALgBpAG4ALQBhAGQAZAByAC4AYQByAHAAYQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgByAGUAdgBlAHIAcwBlAF8AcABvAGkAbgB0AGUAcgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMgAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAXAAiAC4AXAAiACwAIAAyACkALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAzACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAXAAiAC4AXAAiACwAIAAzACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAbwBjAHQAZQB0ADEAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADEAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAyACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAyACAAPgAgADIANQA1ACkAIAArACAAKABvAGMAdABlAHQAMwAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMwAgAD4AIAAyADUANQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABvAGMAdABlAHQANAAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQANAAgAD4AIAAyADUANQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQANAAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADMAIAAmACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAyACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMQAgACYAIABcACIALgBpAG4ALQBhAGQAZAByAC4AYQByAHAAYQBcACIAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABCAEkATgBBAFIAWQAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABQAGUAcgBmAG8AcgBtACAAYQAgAGIAaQB0AHcAaQBzAGUAIABOAE8AVAAgAG8AbgAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGQAZQBjADoAIABhACAAcQB1AGEAZAAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApAFwAbgAgACoAIABiAGkAdABzADoAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAYgBpAHQAcwAgAHQAbwAgAHAAZQByAGYAbwByAG0AIAB0AGgAZQAgAEIASQBUAFcASQBTAEUAIABvAG4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAZABlAGMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApACAAPQA9AD4AIAAzADIAMwAyADIAMwA1ADUAMgAxAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAEIASQBUAE4ATwBUACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGQAZQBjACwAIABiAGkAdABzACwAXABuACAAIAAgACAAQgBJAFQAWABPAFIAKABCAEkAVABMAFMASABJAEYAVAAoADEALAAgAGIAaQB0AHMAKQAgAC0AIAAxACwAIABpAHAAZABlAGMAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEkAUAAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB2AGUAcgB5ACAAZgBpAHIAcwB0ACAAYQBkAGQAcgBlAHMAcwAgAG8AZgAgAGEAIABzAHUAYgBuAGUAdAAuACAASQB0ACAAaQBzACAAdABoAGUAIABuAGUAdAB3AG8AcgBrAFwAbgAgACoAIABhAGQAZAByAGUAcwBzACAAYQBuAGQAIABhAGwAcwBvACAAdABoAGUAIABmAGkAcgBzAHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAcwAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAQgBJAFQAQQBOAEQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB2AGUAcgB5ACAAbABhAHMAdAAgAGEAZABkAHIAZQBzAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgAgAEkAdAAgAGkAcwAgAHQAaABlACAAYgByAG8AYQBkAGMAYQBzAHQAXABuACAAKgAgAGEAZABkAHIAZQBzAHMAIABhAG4AZAAgAGEAbABzAG8AIAB0AGgAZQAgAGwAYQBzAHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAcwAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgAEIASQBUAE8AUgAoAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsACAAQgBJAFQATgBPAFQAKABwAGYAeABkAGUAYwAsACAAMwAyACkAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAaQByAHMAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AIABJAHQAIABpAHMAIAB0AGgAZQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGEAZABkAHIAZQBzAHMAIAArACAAMQAgAGUAeABjAGUAcAB0ACAAZgBvAHIAIAAvADMAMQAgAGEAbgBkACAALwAzADIAIABuAGUAdAB3AG8AcgBrAHMAIABmAG8AcgAgAHcAaABpAGMAaAAgAGkAdAAgAGkAcwAgAHQAaABlAFwAbgAgACoAIABuAGUAdAB3AG8AcgBrACAAYQBkAGQAcgBlAHMAcwBcAG4AIAAqACAAXABuACAAKgAgAGkAcABkAGUAYwA6ACAAdABoAGUAIABoAG8AcwB0ACAAcABhAHIAdAAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAgAHAAZgB4AGQAZQBjADoAIAB0AGgAZQAgAG4AZQB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACoALwBcAG4AXwBmAGkAcgBzAHQAaABvAHMAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAFMAVwBJAFQAQwBIACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAIABeACAAMwAyACAALQAgADIALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFAAcgBlAGYAaQB4ACAALwAzADEAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIASQBUAEEATgBEACgAbgBlAHQAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMgAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQAQQBOAEQAKABuAGUAdABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAgACsAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbABhAHMAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AIABJAHQAIABpAHMAIAB0AGgAZQAgAGIAcgBvAGEAZABjAGEAcwB0AFwAbgAgACoAIABhAGQAZAByAGUAcwBzACAALQAgADEAIABlAHgAYwBlAHAAdAAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzACAAZgBvAHIAIAB3AGgAaQBjAGgAIABpAHQAIABpAHMAIAB0AGgAZQBcAG4AIAAqACAAYgByAG8AYQBkAGMAYQBzAHQAIABhAGQAZAByAGUAcwBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGwAYQBzAHQAaABvAHMAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHYAcABmAHgAZABlAGMALAAgAEIASQBUAE4ATwBUACgAcABmAHgAZABlAGMALAAgADMAMgApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMgAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMQAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQATwBSACgAbgBlAHQAZABlAGMALAAgAGkAbgB2AHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMgAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQATwBSACgAbgBlAHQAZABlAGMALAAgAGkAbgB2AHAAZgB4AGQAZQBjACkAIAAtACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHAAcgBlAHYAaQBvAHUAcwAgAHMAdQBiAG4AZQB0ACAAaQBuACAAZABlAGMAaQBtAGEAbAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAHAAcgBlAHYAaQBvAHUAcwBzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AGQAZQBjACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABuAGUAdABkAGUAYwAgAC0AIABCAEkAVABOAE8AVAAoAHAAZgB4AGQAZQBjACwAIAAzADIAKQAgAC0AIAAxAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAbgBlAHQAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAZABlAGMAOgAgAHQAaABlACAAaABvAHMAdAAgAHAAYQByAHQAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACoAIABwAGYAeABkAGUAYwA6ACAAdABoAGUAIABuAGUAdABtAGEAcwBrACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqAC8AXABuAF8AbgBlAHgAdABzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAgACsAIAAxAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAASQBQACAAQwBvAG4AdgBlAHIAcwBpAG8AbgAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAbwB0AHQAZQBkACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAHMAdAByAGkAbgBnACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGQAbwB0ADoAIABhACAAcQB1AGEAZAAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBkAG8AdAAyAGQAZQBjACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAKQAgAD0APQA+ACAAMwAyADMAMgAyADMANQA1ADIAMQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAbwB0ADIAZABlAGMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABvAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgAsACAAMgApACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMwAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAIAAoAG8AYwB0AGUAdAAxACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAxACAAPgAgADIANQA1ACkAIAArACAAKABvAGMAdABlAHQAMgAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMgAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADMAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADMAIAA+ACAAMgA1ADUAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwBjAHQAZQB0ADQAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADQAIAA+ACAAMgA1ADUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABvAGMAdABlAHQAMQAgACoAIAAyADUANgAgAF4AIAAzACkAIAArACAAKABvAGMAdABlAHQAMgAgACoAIAAyADUANgAgAF4AIAAyACkAIAArACAAKABvAGMAdABlAHQAMwAgACoAIAAyADUANgApACAAKwAgACgAbwBjAHQAZQB0ADQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgAGEAIABxAHUAYQBkACAAZABvAHQAdABlAGQAIABkAGUAYwBpAG0AYQBsACAAaQBwACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABpAHAAZABlAGMAOgAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAbgAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIAAzADIAMwAyADIAMwA1ADUAMgAxACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAZABlAGMAKAAzADIAMwAyADIAMwA1ADUAMgAxACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAF8AZABlAGMAMgBkAG8AdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAIAAoAGkAcABkAGUAYwAgADwAIAAwACkAIAArACAAKABpAHAAZABlAGMAIAA+ACAAKAAyACAAXgAgADMAMgAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABCAEkAVABSAFMASABJAEYAVAAoAGkAcABkAGUAYwAsACAAMgA0ACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBUAEEATgBEACgAQgBJAFQAUgBTAEgASQBGAFQAKABpAHAAZABlAGMALAAgADEANgApACwAIAAyADUANQApACAAJgAgAFwAIgAuAFwAIgAgACYAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQAQQBOAEQAKABCAEkAVABSAFMASABJAEYAVAAoAGkAcABkAGUAYwAsACAAOAApACwAIAAyADUANQApACAAJgAgAFwAIgAuAFwAIgAgACYAIABCAEkAVABBAE4ARAAoAGkAcABkAGUAYwAsACAAMgA1ADUAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABxAHUAYQBkACAAZABvAHQAdABlAGQAIABkAGUAYwBpAG0AYQBsACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAGkAbgB0AG8AIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAC4AXABuACAAKgAgAGkAcABkAG8AdAA6ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQBuACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgACgAaQAuAGUALgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAYgBpAG4AKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApACAAPQA9AD4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAbwB0ADIAYgBpAG4AIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABvAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgAsACAAMgApACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMwAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABvAGMAdABlAHQAMQAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMQAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPgAgADIANQA1ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAG8AYwB0AGUAdAA0ACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAA0ACAAPgAgADIANQA1ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIAQQBTAEUAKABvAGMAdABlAHQAMQAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQAMgAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQAMwAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQANAAsACAAMgAsACAAOAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAQwBvAG4AdgBlAHIAdAAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIABpAG4AdABvACAAYQAgAHEAdQBhAGQAIABkAG8AdAB0AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABpAHAAIABhAGQAZAByAGUAcwBzAC4AXABuACAAKgAgAGkAcABkAG8AdAA6ACAAYQAgADMAMgAgAGIAaQB0ACAAYgBpAG4AYQByAHkAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQBuACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgACgAaQAuAGUALgAgAFwAIgAxADEAMAAwADAAMAAwADAAMQAwADEAMAAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAXAAiACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGIAaQBuADIAZABvAHQAKABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGIAaQBuADIAZABvAHQAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABcAG4AIAAgACAAIABCAEkATgAyAEQARQBDACgATABFAEYAVAAoAGMAZQBsAGwAcwAsACAAOAApACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBOADIARABFAEMAKABNAEkARAAoAGMAZQBsAGwAcwAsACAAOQAsACAAOAApACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBOADIARABFAEMAKABNAEkARAAoAGMAZQBsAGwAcwAsACAAMQA3ACwAIAA4ACkAKQAgACYAIABcACIALgBcACIAIAAmAFwAbgAgACAAIAAgACAAIAAgACAAQgBJAE4AMgBEAEUAQwAoAE0ASQBEACgAYwBlAGwAbABzACwAIAAyADUALAAgADgAKQApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAQwBvAG4AdgBlAHIAdAAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAbgAgAEkAUAAgAGEAZABkAHIAZQBzAHMAIABpAG4AdABvACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAuAFwAbgAgACoAIABpAHAAYgBpAG4AOgAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIAAoAGkALgBlAC4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBiAGkAbgAyAGQAZQAoAFwAIgAxADEAMAAwADAAMAAwADAAMQAwADEAMAAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAXAAiACkAIAA9AD0APgAgADMAMgAzADIAMgAzADUANQAyADEAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AXwBiAGkAbgAyAGQAZQBjACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGIAaQBuACwAIABEAEUAQwBJAE0AQQBMACgAaQBwAGIAaQBuACwAIAAyACkAKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhAG4AIABJAFAAIABhAGQAZAByAGUAcwBzACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGIAaQBuADoAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAKABpAC4AZQAuACAAMwAyADMAMgAyADMANQA1ADIAMQApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBkAGUAYwAyAGIAaQBuACgAMwAyADMAMgAyADMANQA1ADIAMQApACAAPQA9AD4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAZQBjADIAYgBpAG4AIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABlAGMALABcAG4AIAAgACAAIABCAEEAUwBFACgAaQBwAGQAZQBjACwAIAAyACwAIAAzADIAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhACAASQBQACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgACgAMAAgAHQAbwAgADMAMgApACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAALgBcAG4AIAAqACAAaQBwAGIAaQBuADoAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAKABpAC4AZQAuACAAMwAyADMAMgAyADMANQA1ADIAMQApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQAoADgAKQAgAD0APQA+ACAAXAAiADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4ALwAvACAAXwBwAGYAeAAyAGIAaQBuACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4ALwAvACAAIAAgACAAIAAvAC8AIABDAGEAbABjAHUAbABhAHQAZQBkACAAdgBlAHIAcwBpAG8AbgBcAG4ALwAvACAAIAAgACAAIABJAEYAKAAoAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAcABmAHgAIAA8ACAAMAApACAAKwAgACgAcABmAHgAIAA+ACAAMwAyACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAFIARQBQAFQAKABcACIAMQBcACIALAAgAHAAZgB4ACkAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAMwAyACAALQAgAHAAZgB4ACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBwAGYAeAAyAGIAaQBuACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABcACIAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAXAAiADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFwAIgAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABcACIAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAXAAiADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFwAIgAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABcACIAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAXAAiADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADAALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAxACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEAMgAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADMALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQA0ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEANQAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADYALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQA3ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEAOAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADkALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAwACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIAMQAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADIALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAzACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIANAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADUALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgA2ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIANwAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADgALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgA5ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMAMAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAzADEALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAyACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhAG4AIABJAFAAIABtAGEAcwBrACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAIABJAFAAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAKAAwACAAdABvACAAMwAyACkALgBcAG4AIAAqACAAbQBhAHMAawBiAGkAbgA6ACAAYQAgADMAMgAgAGIAaQB0ACAAYgBpAG4AYQByAHkAIABzAHQAcgBpAG4AZwBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAF8AYgBpAG4AMgBwAGYAeAAoAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACkAIAA9AD0APgAgADgAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4ALwAvACAAXwBiAGkAbgAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAawBiAGkAbgAsAFwAbgAvAC8AIAAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlAGQAIAB2AGUAcgBzAGkAbwBuAFwAbgAvAC8AIAAgACAAIAAgAEkARgAoAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAKABGAEkATgBEACgAXAAiADAAXAAiACwAIABtAGEAcwBrAGIAaQBuACAAJgAgAFwAIgAwAFwAIgApACAALQAgADEAIAA9ACAATABFAE4AKABtAGEAcwBrAGIAaQBuACkAIAAtACAATABFAE4AKABTAFUAQgBTAFQASQBUAFUAVABFACgAbQBhAHMAawBiAGkAbgAsACAAXAAiADEAXAAiACwAIABcACIAXAAiACkAKQApACAAKgAgAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEYASQBOAEQAKABcACIAMABcACIALAAgAG0AYQBzAGsAYgBpAG4AIAAmACAAXAAiADAAXAAiACkAIAA+ACAAMQApACwAXABuAC8ALwAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXAAiADAAXAAiACwAIABtAGEAcwBrAGIAaQBuACAAJgAgAFwAIgAwAFwAIgApACAALQAgADEALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBiAGkAbgAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA0ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAyACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgA0ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwAFwAIgAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwAFwAIgAsACAAMgA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwAFwAIgAsACAAMgA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwAFwAIgAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwAFwAIgAsACAAMgA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwAFwAIgAsACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwAFwAIgAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxAFwAIgAsACAAMwAyACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAEkAUAAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAAoADAAIAB0AG8AIAAzADIAKQAgAGkAbgB0AG8AIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByAC4AXABuACAAKgAgAHAAZgB4ADoAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQBjACgAOAApACAAPQA9AD4AIAA0ADIANwA4ADEAOQAwADAAOAAwAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAC8ALwAgAF8AcABmAHgAMgBkAGUAYwAgAD0AIABMAEEATQBCAEQAQQAoAHAAZgB4ACwAXABuAC8ALwAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AXABuAC8ALwAgACAAIAAgACAATABFAFQAKABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AIAAzADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuAC8ALwAgACAAIAAgACAAIAAgACAAIABfAGIAaQBuADIAZABlAGMAKABfAHAAZgB4ADIAYgBpAG4AKABwAGYAeAApACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBwAGYAeAAyAGQAZQBjACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFYAQQBMAFUARQAoAFwAIgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABWAEEATABVAEUAKABcACIAMgAxADQANwA0ADgAMwA2ADQAOABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFYAQQBMAFUARQAoAFwAIgAzADcANQA4ADAAOQA2ADMAOAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAVgBBAEwAVQBFACgAXAAiADQAMQA2ADAANwA0ADkANQA2ADgAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAMgA3ADgANQA4ADQAMwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABWAEEATABVAEUAKABcACIANAAyADYAMQA0ADEAMgA4ADYANABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAVgBBAEwAVQBFACgAXAAiADQAMgA3ADgAMQA5ADAAMAA4ADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOAA2ADUANwA4ADYAOAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAwADcANwAyADkAOQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAyADgANwAwADEANAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAzADkAMQA4ADcAMgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADMALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADQANAAzADAAMAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADQALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADcAMAA1ADEANQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADUALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADgAMwA2ADIAMgA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkAMAAxADcANgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADcALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkAMwA0ADUAMgA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADgALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANQAwADkAMQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANQA5ADEAMAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgAzADIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA1ADIANAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA2ADIANwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADMALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA2ADcAOAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADQALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADAANAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADUALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADEANgA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAMwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADcALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIANgA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADgALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA1AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAG0AYQBzAGsAIABpAG4AdABvACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhACAASQBQACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgACgAMAAgAHQAbwAgADMAMgApAC4AXABuACAAKgAgAHAAZgB4ADoAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQBjACgAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiACkAIAA9AD0APgAgADIANABcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgAvAC8AIABfAGQAbwB0ADIAcABmAHgAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBrAGQAbwB0ACwAXABuAC8ALwAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AXABuAC8ALwAgACAAIAAgACAAXwBiAGkAbgAyAHAAZgB4ACgAXwBkAGUAYwAyAGIAaQBuACgAXwBkAG8AdAAyAGQAZQBjACgAbQBhAHMAawBkAG8AdAApACkAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBkAG8AdAAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwAC4AMAAuADAALgAwAFwAIgAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMgA4AC4AMAAuADAALgAwAFwAIgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAOQAyAC4AMAAuADAALgAwAFwAIgAsACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIAMgA0AC4AMAAuADAALgAwAFwAIgAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANAAwAC4AMAAuADAALgAwAFwAIgAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANAA4AC4AMAAuADAALgAwAFwAIgAsACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQAyAC4AMAAuADAALgAwAFwAIgAsACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA0AC4AMAAuADAALgAwAFwAIgAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMAAuADAALgAwAFwAIgAsACAAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMQAyADgALgAwAC4AMABcACIALAAgADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADEAOQAyAC4AMAAuADAAXAAiACwAIAAxADAALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIAMgA0AC4AMAAuADAAXAAiACwAIAAxADEALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANAAwAC4AMAAuADAAXAAiACwAIAAxADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANAA4AC4AMAAuADAAXAAiACwAIAAxADMALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQAyAC4AMAAuADAAXAAiACwAIAAxADQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA0AC4AMAAuADAAXAAiACwAIAAxADUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMAAuADAAXAAiACwAIAAxADYALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMQAyADgALgAwAFwAIgAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADEAOQAyAC4AMABcACIALAAgADEAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADIANAAuADAAXAAiACwAIAAxADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA0ADAALgAwAFwAIgAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANAA4AC4AMABcACIALAAgADIAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUAMgAuADAAXAAiACwAIAAyADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADQALgAwAFwAIgAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMABcACIALAAgADIANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADEAMgA4AFwAIgAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMQA5ADIAXAAiACwAIAAyADYALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADIANABcACIALAAgADIANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANAAwAFwAIgAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA0ADgAXAAiACwAIAAyADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADUAMgBcACIALAAgADMAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANQA0AFwAIgAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA1ADUAXAAiACwAIAAzADIALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAGUAdABtAGEAcwBrACAAaQBuAHQAbwAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAEkAUAAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAAoADAAIAB0AG8AIAAzADIAKQAuAFwAbgAgACoAIABwAGYAeABkAGUAYwA6ACAAYQAgADMAMgAgAGIAaQB0ACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIANgA0AFwAIgApACkAIAA9AD0APgAgADIANwBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AXwBkAGUAYwAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgAwAFwAIgApACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIAMgAxADQANwA0ADgAMwA2ADQAOABcACIAKQAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgAzADcANQA4ADAAOQA2ADMAOAA0AFwAIgApACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMQA2ADAANwA0ADkANQA2ADgAXAAiACkALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAMgA3ADgANQA4ADQAMwAyAFwAIgApACwAIAA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADYAMQA0ADEAMgA4ADYANABcACIAKQAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMgA3ADgAMQA5ADAAMAA4ADAAXAAiACkALAAgADgALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOAA2ADUANwA4ADYAOAA4AFwAIgApACwAIAA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMAA3ADcAMgA5ADkAMgBcACIAKQAsACAAMQAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMgA4ADcAMAAxADQANABcACIAKQAsACAAMQAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMwA5ADEAOAA3ADIAMABcACIAKQAsACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA0ADQAMwAwADAAOABcACIAKQAsACAAMQAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA3ADAANQAxADUAMgBcACIAKQAsACAAMQA0ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA4ADMANgAyADIANABcACIAKQAsACAAMQA1ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADAAMQA3ADYAMABcACIAKQAsACAAMQA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADMANAA1ADIAOABcACIAKQAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADUAMAA5ADEAMgBcACIAKQAsACAAMQA4ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADUAOQAxADAANABcACIAKQAsACAAMQA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYAMwAyADAAMABcACIAKQAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANQAyADQAOABcACIAKQAsACAAMgAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANgAyADcAMgBcACIAKQAsACAAMgAyACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANgA3ADgANABcACIAKQAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAwADQAMABcACIAKQAsACAAMgA0ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAxADYAOABcACIAKQAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADMAMgBcACIAKQAsACAAMgA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADYANABcACIAKQAsACAAMgA3ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADgAMABcACIAKQAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADgAOABcACIAKQAsACAAMgA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkAMgBcACIAKQAsACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANABcACIAKQAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANQBcACIAKQAsACAAMwAyACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBpAHAALgBmAHIAbwBtAF8AcAByAGUAZgBpAHgAbABlAG4AIgAsACIAaQBwAC4AZgByAG8AbQBfAG4AZQB0AG0AYQBzAGsAIgAsACIAaQBwAC4AZgByAG8AbQBfAGgAbwBzAHQAbQBhAHMAawAiACwAIgBpAHAALgBmAHIAbwBtAF8AYwBsAGEAcwBzAGYAdQBsACIALAAiAGkAcAAuAHcAaQB0AGgAXwBuAGUAdABtAGEAcwBrACIALAAiAGkAcAAuAHcAaQB0AGgAXwBoAG8AcwB0AG0AYQBzAGsAIgAsACIAaQBwAC4AcABhAGQAZABlAGQAIgAsACIAaQBwAC4AaABvAHMAdABfAG8AYwB0AGUAdABzACIALAAiAGkAcAAuAGkAcABfAGkAbgBfAGIAaQBuAGEAcgB5ACIALAAiAGkAcAAuAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAiACwAIgBpAHAALgBoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAiACwAIgBpAHAALgBpAHAAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACIALAAiAGkAcAAuAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACIALAAiAGkAcAAuAGgAbwBzAHQAbQBhAHMAawBfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIgAsACIAaQBwAC4AYwBoAGUAYwBrAGUAZAAiACwAIgBpAHAALgBpAHAAIgAsACIAaQBwAC4AcAByAGUAZgBpAHgAbABlAG4AIgAsACIAaQBwAC4AbgBlAHQAbQBhAHMAawAiACwAIgBpAHAALgBoAG8AcwB0AG0AYQBzAGsAIgAsACIAaQBwAC4AbgBlAHQAdwBvAHIAawBfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AYgByAG8AYQBkAGMAYQBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAG4AdQBtAF8AYQBkAGQAcgBlAHMAcwBlAHMAIgAsACIAaQBwAC4AZgBpAHIAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AbABhAHMAdABfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAHAAcgBlAHYAaQBvAHUAcwBfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAG4AZQB4AHQAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBpAG4AZABlAHgAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBwAHIAZQB2AGkAbwB1AHMAXwBzAHUAYgBuAGUAdAAiACwAIgBpAHAALgBuAGUAeAB0AF8AcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AaQBuAGQAZQB4AF8AcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AcwB1AGIAbgBlAHQAcwAiACwAIgBpAHAALgBoAG8AcwB0AHMAIgAsACIAaQBwAC4AcwB1AGIAbgBlAHQAXwBvAGYAIgAsACIAaQBwAC4AcwB1AHAAZQByAG4AZQB0AF8AbwBmACIALAAiAGkAcAAuAHMAdQBwAGUAcgBuAGUAdABfAGQAaQBmAGYAIgAsACIAaQBwAC4AcwB1AHAAZQByAG4AZQB0AF8AbgBlAHcAXwBwAHIAZQBmAGkAeAAiACwAIgBpAHAALgBzAG8AcgB0ACIALAAiAGkAcAAuAG8AZgBmAHMAZQB0ACIALAAiAGkAcAAuAG8AYwB0AGUAdABfAG8AZgBmAHMAZQB0ACIALAAiAGkAcAAuAGkAcwBfAHIAZgBjADEAOQAxADgAIgAsACIAaQBwAC4AaQBzAF8AcAByAGkAdgBhAHQAZQAiACwAIgBpAHAALgBpAHMAXwBnAGwAbwBiAGEAbAAiACwAIgBpAHAALgBpAHMAXwB1AG4AcwBwAGUAYwBpAGYAaQBlAGQAIgAsACIAaQBwAC4AaQBzAF8AcgBlAHMAZQByAHYAZQBkACIALAAiAGkAcAAuAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACIALAAiAGkAcAAuAGkAcwBfAGwAbwBvAHAAYgBhAGMAawAiACwAIgBpAHAALgBpAHMAXwBsAGkAbgBrAF8AbABvAGMAYQBsACIALAAiAGkAcAAuAHIAZQB2AGUAcgBzAGUAXwBwAG8AaQBuAHQAZQByACIALAAiAGkAcAAuAEIASQBUAE4ATwBUACIALAAiAGkAcAAuAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAF8AZgBpAHIAcwB0AGgAbwBzAHQAIgAsACIAaQBwAC4AXwBsAGEAcwB0AGgAbwBzAHQAIgAsACIAaQBwAC4AXwBwAHIAZQB2AGkAbwB1AHMAcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AXwBuAGUAeAB0AHMAdQBiAG4AZQB0ACIALAAiAGkAcAAuAF8AZABvAHQAMgBkAGUAYwAiACwAIgBpAHAALgBfAGQAZQBjADIAZABvAHQAIgAsACIAaQBwAC4AXwBkAG8AdAAyAGIAaQBuACIALAAiAGkAcAAuAF8AYgBpAG4AMgBkAG8AdAAiACwAIgBpAHAALgBfAGIAaQBuADIAZABlAGMAIgAsACIAaQBwAC4AXwBkAGUAYwAyAGIAaQBuACIALAAiAGkAcAAuAF8AcABmAHgAMgBiAGkAbgAiACwAIgBpAHAALgBfAGIAaQBuADIAcABmAHgAIgAsACIAaQBwAC4AXwBwAGYAeAAyAGQAZQBjACIALAAiAGkAcAAuAF8AZABvAHQAMgBwAGYAeAAiACwAIgBpAHAALgBfAGQAZQBjADIAcABmAHgAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBEAE0AWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAowAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQBnAGIAIgB9AH0A</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBpAHAAIgAsACIAdABlAHgAdAAiADoAIgAvACoAKgBcAG4AIAAqACAARQB4AGMAZQBsACAASQBQACAAQQBkAGQAcgBlAHMAcwAgAE0AYQBuAGkAcAB1AGwAYQB0AGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgBcAG4AIAAqACAAaAB0AHQAcABzADoALwAvAGcAaQBzAHQALgBnAGkAdABoAHUAYgAuAGMAbwBtAC8AbgBnAHIAaQBzAG8AbgAvADUANAA4ADMANgBhADIAZQAxADQAZgA3ADkAZABhADcANgAxADIAZgBlADcAYgA0AGMAYQA1AGUAZQA1ADMANgBcAG4AIAAqAFwAbgAgACoAIABBACAAYwBvAG0AcABsAGUAdABlACAAcwB1AGkAdABlACAAbwBmACAARQB4AGMAZQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAIAB0AG8AIABlAGEAcwBpAGwAeQAgAG0AYQBuAGkAcAB1AGwAYQB0AGUAIABJAFAAIABhAGQAZAByAGUAcwBzAGUAcwAuAFwAbgAgACoAIABBAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIABjAG8AbQBwAGEAdABpAGIAbABlACAAdwBpAHQAaAAgAEQAeQBuAGEAbQBpAGMAIABBAHIAcgBhAHkAcwAuAFwAbgAgACoAIABSAGUAYwBvAG0AbQBlAG4AZAAgAHQAbwAgAGkAbgBzAHQAYQBsAGwAIABpAG4AIABhACAAbgBlAHcAIABtAG8AZAB1AGwAZQAgAGMAYQBsAGwAZQBkACAAXAAiAGkAcABcACIAIABzAG8AIABhAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzAFwAbgAgACoAIABhAHIAZQAgAGEAdgBhAGkAbABhAGIAbABlACAAdQBuAGQAZQByACAAXAAiAGkAcAAuAFwAIgBcAG4AIAAqAFwAbgAgACoAIABDAG8AcAB5AHIAaQBnAGgAdAAgADIAMAAyADUAIABOAGkAYwBvAGwAYQBzACAARwByAGkAcwBvAG4AXABuACAAKgBcAG4AIAAqACAATABpAGMAZQBuAHMAZQBkACAAdQBuAGQAZQByACAAdABoAGUAIABBAHAAYQBjAGgAZQAgAEwAaQBjAGUAbgBzAGUALAAgAFYAZQByAHMAaQBvAG4AIAAyAC4AMAAgACgAdABoAGUAIABcACIATABpAGMAZQBuAHMAZQBcACIAKQA7AFwAbgAgACoAIAB5AG8AdQAgAG0AYQB5ACAAbgBvAHQAIAB1AHMAZQAgAHQAaABpAHMAIABmAGkAbABlACAAZQB4AGMAZQBwAHQAIABpAG4AIABjAG8AbQBwAGwAaQBhAG4AYwBlACAAdwBpAHQAaAAgAHQAaABlACAATABpAGMAZQBuAHMAZQAuAFwAbgAgACoAIABZAG8AdQAgAG0AYQB5ACAAbwBiAHQAYQBpAG4AIABhACAAYwBvAHAAeQAgAG8AZgAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGEAdABcAG4AIAAqAFwAbgAgACoAIAAgACAAIAAgAGgAdAB0AHAAOgAvAC8AdwB3AHcALgBhAHAAYQBjAGgAZQAuAG8AcgBnAC8AbABpAGMAZQBuAHMAZQBzAC8ATABJAEMARQBOAFMARQAtADIALgAwAFwAbgAgACoAXABuACAAKgAgAFUAbgBsAGUAcwBzACAAcgBlAHEAdQBpAHIAZQBkACAAYgB5ACAAYQBwAHAAbABpAGMAYQBiAGwAZQAgAGwAYQB3ACAAbwByACAAYQBnAHIAZQBlAGQAIAB0AG8AIABpAG4AIAB3AHIAaQB0AGkAbgBnACwAIABzAG8AZgB0AHcAYQByAGUAXABuACAAKgAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAgAHUAbgBkAGUAcgAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGkAcwAgAGQAaQBzAHQAcgBpAGIAdQB0AGUAZAAgAG8AbgAgAGEAbgAgAFwAIgBBAFMAIABJAFMAXAAiACAAQgBBAFMASQBTACwAXABuACAAKgAgAFcASQBUAEgATwBVAFQAIABXAEEAUgBSAEEATgBUAEkARQBTACAATwBSACAAQwBPAE4ARABJAFQASQBPAE4AUwAgAE8ARgAgAEEATgBZACAASwBJAE4ARAAsACAAZQBpAHQAaABlAHIAIABlAHgAcAByAGUAcwBzACAAbwByACAAaQBtAHAAbABpAGUAZAAuAFwAbgAgACoAIABTAGUAZQAgAHQAaABlACAATABpAGMAZQBuAHMAZQAgAGYAbwByACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGMAIABsAGEAbgBnAHUAYQBnAGUAIABnAG8AdgBlAHIAbgBpAG4AZwAgAHAAZQByAG0AaQBzAHMAaQBvAG4AcwAgAGEAbgBkAFwAbgAgACoAIABsAGkAbQBpAHQAYQB0AGkAbwBuAHMAIAB1AG4AZABlAHIAIAB0AGgAZQAgAEwAaQBjAGUAbgBzAGUALgBcAG4AIAAqAFwAbgAgACoALwBcAG4AXABuAFwAbgAvACoAKgBcAG4AIAAqACAATgBvAHQAZQBzAFwAbgAgACoAIABcAG4AIAAqACAARABpAHIAZQBjAHQAIABuAHUAbQBlAHIAaQBjACAAaQBuAHAAdQB0ADoAXABuACAAKgAgAFwAbgAgACoAIABFAHgAYwBlAGwAIABpAG0AbQBlAGQAaQBhAHQAZQBsAHkAIABjAG8AbgB2AGUAcgB0AHMAIABEAGkAcgBlAGMAdAAgAG4AdQBtAGUAcgBpAGMAIABpAG4AcAB1AHQAIAB0AG8AIABmAGwAbwBhAHQAaQBuAGcALQBwAG8AaQBuAHQAIABhAG4AZABcAG4AIAAqACAAbgB1AG0AYgBlAHIAcwAgAGIAZQB5AG8AbgBkACAAMgBeADMAMQAgACgAMgAxADQANwA0ADgAMwA2ADQAOAApACAAbQBhAHkAIABsAG8AcwBlACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAHMAbwAgAGkAcwAgAG4AbwB0ACAAcwB1AGkAdABhAGIAbABlACAAXABuACAAKgAgAHQAbwAgAG0AYQBuAGEAZwBlACAAMwAyACAAYgBpAHQAIABpAHAAIABhAGQAZAByAGUAcwBzAGUAcwAuAFwAbgAgACoAIABcAG4AIAAqACAAVwBoAGUAbgAgAHkAbwB1ACAAdQBzAGUAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAwADQAMABcACIAKQAsACAARQB4AGMAZQBsACAAcABhAHIAcwBlAHMAIAB0AGgAZQAgAHQAZQB4AHQAIAByAGUAcAByAGUAcwBlAG4AdABhAHQAaQBvAG4AIABvAGYAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgAGEAIABcAG4AIAAqACAAcAByAGUAYwBpAHMAZQAgAG4AdQBtAGUAcgBpAGMAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAXABuACAAKgAgAD0ANAAyADkANAA5ADYANwAwADQAMAAgACAALQAtAD4AIABJAG4AYwBvAHIAcgBlAGMAdAAgAHYAYQBsAHUAZQAgAGQAdQBlACAAdABvACAAZgBsAG8AYQB0AGkAbgBnAC0AcABvAGkAbgB0ACAAcgBvAHUAbgBkAGkAbgBnAFwAbgAgACoAIAA9AFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADAANAAwAFwAIgApACAAIAAtAC0APgAgAEMAbwByAHIAZQBjAHQAIAB2AGEAbAB1AGUAIABiAGUAYwBhAHUAcwBlACAAaQB0ACcAcwAgAHAAYQByAHMAZQBkACAAZgByAGUAcwBoAFwAbgAgACoAIABcAG4AIAAqACAAVwBlACAAdABoAGUAcgBlAGYAbwByAGUAIAB1AHMAZQAgAFYAQQBMAFUARQAoACkAIABlAHYAZQByAHkAdwBoAGUAcgBlACAAdwBoAGUAbgAgAGUAbgB0AGUAcgBpAG4AZwAgAEkAUAAgAGEAZABkAHIAZQBzAHMAZQBzACAAaQBuACAAZABlAGMAaQBtAGEAbAAgAGYAbwByAG0AIABmAG8AcgAgAHMAcABlAGUAZAAuAFwAbgAgACoAXABuACAAKgBcAG4AIAAqACAAQQByAHIAYQB5ACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFMAbwAgAHQAaABhAHQAIABhAGwAbAAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIABhAHIAcgBhAHkAIABjAG8AbQBwAGEAdABpAGIAbABlACAAdwBlACAAYQB2AG8AaQBkACAAdQBzAGkAbgBnACAAYgB1AGkAbAB0AC0AaQBuACAARQB4AGMAZQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAIAB0AGgAYQB0AFwAbgAgACoAIABhAHIAZQAgAG4AbwB0ACAAYwBvAG0AcABhAHQAaQBiAGwAZQA6ACAAQQBOAEQAKAApACwAIABPAFIAKAApACwAIABUAEUAWABUAFMAUABMAEkAVAAoACkALgBcAG4AIAAqACAAXABuACAAKgAgAEEATgBEACgAKQA6ACAASQBuAHMAdABlAGEAZAAsACAAdwBlACAAdQBzAGUAIAAoACgAdABlAHMAdAAxACkAIAAqACAAKAB0AGUAcwB0ACAAMgApACkAIAA+ACAAMABcAG4AIAAqACAATwBSACgAKQA6ACAAIABJAG4AcwB0AGUAYQBkACwAIAB3AGUAIAB1AHMAZQAgACgAKAB0AGUAcwB0ADEAKQAgACsAIAAoAHQAZQBzAHQAIAAyACkAKQAgAD4AIAAwAFwAbgAgACoAXABuACAAKgAgAFQARQBYAFQAUwBQAEwASQBUACgAKQA6ACAASQBuAHMAdABlAGEAZAAsACAAdwBlACAAdQBzAGUAIAB0AGgAZQAgAGMAbABhAHMAcwBpAGMAcwAgAEYASQBOAEQAKAApACwAUwBFAEEAUgBDAEgAKAApACwATABFAEYAVAAoACkALABNAEkARAAoACkALAAgAFIASQBHAEgAVAAoACkAXABuACAAKgBcAG4AIAAqAC8AXABuAFwAbgBcAG4AXABuAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwBcAG4ALwAvACAAIAAgACAAIABGAE8AUgBNAEEAVABJAE4ARwAgAEYAVQBOAEMAVABJAE8ATgBTAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAFwAbgAvACoAKgBcAG4AIAAqACAATQBvAHMAdAAgAGYAdQBuAGMAdABpAG8AbgBzACAAIABpAG4AcAB1AHQAIABtAHUAcwB0ACAAYgBlACAAaQBuACAAdABoAGUAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAASQBmACAAeQBvAHUAcgAgAGQAYQB0AGEAIABmAG8AcgBtAGEAdAAgAGkAcwAgAGQAaQBmAGYAZQByAGUAbgB0ACwAIAB1AHMAZQAgAHQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAdABvAFwAbgAgACoAIABjAG8AbgB2AGUAcgB0AC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAsACAAXAAiAGkAcAAvAG4AZQB0AG0AYQBzAGsAXAAiACAAbwByACAAXAAiAGkAcAAvAGgAbwBzAHQAbQBhAHMAawBcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABbAHMAZQBwAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAdABoAGUAIABzAGUAcABhAHIAYQB0AG8AcgAgAHUAcwBlAGQAIAB0AG8AIABzAGUAcABhAHIAYQB0AGUAIAB0AGgAZQAgAEkAUAAgAGYAcgBvAG0AIAB0AGgAZQAgAHAAcgBlAGYAaQB4AC8AbgBlAHQAbQBhAHMAawAvAGgAbwBzAHQAbQBhAHMAawAuAFwAbgAgACoAIABEAGUAZgBhAHUAbAB0ACAAdABvACAAXAAiAC8AXAAiAC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABmAHIAbwBtAF8AcAByAGUAZgBpAHgAbABlAG4AKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxACAAbQBhAHMAawAgADIANABcACIALAAgAFwAIgAgAG0AYQBzAGsAIABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAXABuACAAKgAgAGYAcgBvAG0AXwBuAGUAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiAFwAbgAgACoAIABhAGQAZAByAGUAcwBzACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAgADAALgAwAC4AMAAuADIANQA1AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgBcAG4AIAAqAC8AXABuAGYAcgBvAG0AXwBwAHIAZQBmAGkAeABsAGUAbgAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAcwBlAHAAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAGUAcAAsAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAZgBpAHgAbABlAG4ALAAgAFQARQBYAFQAQQBGAFQARQBSACgAYwBlAGwAbABzACwAIABzAGUAcAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AcwB0AHIAaQBuAGcAIAAmACAAXAAiAC8AXAAiACAAJgAgAHAAcgBlAGYAaQB4AGwAZQBuAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAGYAcgBvAG0AXwBuAGUAdABtAGEAcwBrACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHMAZQBwACwAaQBmACgASQBTAE8ATQBJAFQAVABFAEQAKABzAGUAcAApACwAIABcACIALwBcACIALAAgAHMAZQBwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABfAHMAdAByAGkAbgBnACwAIABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABtAGEAcwBrACwAIABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcABfAHMAdAByAGkAbgBnACAAJgAgAFwAIgAvAFwAIgAgACYAIABfAGQAbwB0ADIAcABmAHgAKABuAGUAdABtAGEAcwBrACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AZgByAG8AbQBfAGgAbwBzAHQAbQBhAHMAawAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAcwBlAHAAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAGUAcAAsAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHMAdABtAGEAcwBrACwAIABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsACAAcwBlAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAgACYAIABcACIALwBcACIAIAAmACAAXwBiAGkAbgAyAHAAZgB4ACgAXwBkAGUAYwAyAGIAaQBuACgAQgBJAFQATgBPAFQAKABfAGQAbwB0ADIAZABlAGMAKABoAG8AcwB0AG0AYQBzAGsAKQAsADMAMgApACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAGkAcAAgAGEAZABkAHIAZQBzAHMAZQBzACAAdwBpAHQAaAAgAG4AbwAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAB3AGkAdABoACAAdABoAGUAIABjAG8AcgByAGUAYwB0ACAAYwBsAGEAcwBzAGYAdQBsACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAuAFwAbgAgACoAIABJAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIABmAG8AbABsAG8AdwBlAGQAIABiAHkAIABhACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAsACAAdABoAGEAdAAgAGkAbgB0AGUAcgBmAGEAYwBlACAAaQBzACAAcgBlAHQAdQByAG4AZQBkACAAYwBoAGUAYwBrAGUAZAAgAGIAdQB0AFwAbgAgACoAIAB1AG4AYwBoAGEAbgBnAGUAZAAuAFwAbgAgACoAIABJAGYAIABuAG8AIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAaQBzACAAcAByAG8AdgBpAGQAZQBkACwAIAB0AGgAZQAgAGQAZQBmAGEAdQBsAHQAIABzAHUAYgBuAGUAdAAgAG0AYQBzAGsAIABmAG8AcgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAgAGMAbABhAHMAcwAgAGkAcwAgAGEAZABkAGUAZAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcABcACIAIABvAHIAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGYAcgBvAG0AXwBjAGwAYQBzAHMAZgB1AGwAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBmAHIAbwBtAF8AYwBsAGEAcwBzAGYAdQBsACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBmAHMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADIAMQA0ADcANAA4ADMANgA0ADgAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAwACAAYQBuAGQAIAAxADIANwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AOABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAxADIAOAAgAGEAbgBkACAAMQA5ADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAHAAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvADEANgBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA8ACAAVgBBAEwAVQBFACgAXAAiADMANwA1ADgAMAA5ADYAMwA4ADQAXAAiACkALAAgACAALwAvACAAbwBjAHQAZQB0ACAAMQAgAGIAZQB0AHcAZQBlAG4AIAAxADkAMgAgAGEAbgBkACAAMgAyADMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIABpAHAAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvADIANABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwA3ADUAOAAwADkANgAzADgANABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEYAbwByAG0AYQB0AHQAaQBuAGcAIABGAHUAbgBjAHQAaQBvAG4AcwAuACAATQBvAHMAdAAgAGYAdQBuAGMAdABpAG8AbgBzACAAcgBlAHQAdQByAG4AcwAgAGkAcAAgAGkAbgBmAG8AcgBtAGEAdABpAG8AbgAgAGkAbgAgAFwAbgAgACoAIABcACIAaQBwAC8AcAByAGUAZgBpAHgAbABlAG4AXAAiACAAZgBvAHIAbQBhAHQALgAgAEkAZgAgAHkAbwB1ACAAZABlAHMAaQByAGUAIABhAG4AbwB0AGgAZQByACAAbwB1AHQAcAB1AHQALAAgAHUAcwBlACAAdABoAGUAcwBlAFwAbgAgACoAIABmAHUAbgBzAHQAaQBvAG4AIAB0AG8AIABmAG8AcgBtAGEAdABcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHcAaQB0AGgAXwBuAGUAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiAFwAbgAgACoAIAB3AGkAdABoAF8AaABvAHMAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADAALgAwAC4AMAAuADIANQA1AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AdwBpAHQAaABfAG4AZQB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAAaQBwACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACAAJgAgAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACAAJgAgAG4AZQB0AG0AYQBzAGsAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACkAOwBcAG4AXABuAHcAaQB0AGgAXwBoAG8AcwB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBzAGUAcABdACwAXABuACAAIAAgACAAaQBwACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACAAJgAgAGkAZgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwBlAHAAKQAsACAAXAAiAC8AXAAiACwAIABzAGUAcAApACAAJgAgAGgAbwBzAHQAbQBhAHMAawAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAIABwAGEAZABkAGUAZAAgAHcAaQB0AGgAIAAwAHMAIABzAG8AIAB0AGgAYQB0ACAAdABoAGUAeQAgAGMAYQBuACAAYgBlACAAZQBhAHMAaQBsAHkAIABzAG8AcgB0AGUAZAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAZABvACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAdABoAGUAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoAFwAbgAgACoAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHAAbwBuAHMAZQAgAGkAZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABwAGEAZABkAGUAZAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwA4AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAAMAAwAC4AMAAwADEALwAwADgAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuACAAcABhAGQAZABlAGQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBjAGgAZQBjAGsAZQBkACwAXwBkAGUAYwAyAGQAbwB0ACgAaQBwAGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBjAGgAZQBjAGsAZQBkACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMgAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AYwBoAGUAYwBrAGUAZAAsACAAXAAiAC4AXAAiACwAIAAyACkALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAzACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBjAGgAZQBjAGsAZQBkACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AYwBoAGUAYwBrAGUAZAAsACAAXAAiAC4AXAAiACwAIAAzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAbwBjAHQAZQB0ADEALAAgAFwAIgAwADAAMABcACIAKQAgACYAIABcACIALgBcACIAIAAmAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAG8AYwB0AGUAdAAyACwAIABcACIAMAAwADAAXAAiACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAFwAbgAgACAAIAAgACAAIAAgACAAVABFAFgAVAAoAG8AYwB0AGUAdAAzACwAIABcACIAMAAwADAAXAAiACkAIAAmACAAXAAiAC4AXAAiACAAJgBcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKABvAGMAdABlAHQANAAsACAAXAAiADAAMAAwAFwAIgApACAAJgAgAEkARgAoAE4ATwBUACgAbwBtAGkAdABfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAKQAgACoAIABpAHMAXwBuAGUAdAAsACAAXAAiAC8AXAAiACAAJgAgAFQARQBYAFQAKABfAGQAZQBjADIAcABmAHgAKABwAGYAeABkAGUAYwApACwAXAAiADAAMABcACIAKQAsACAAXAAiAFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbwBjAHQAZQB0AHMAIABjAG8AcgByAGUAcwBwAG8AbgBkAGkAbgBnACAAdABvACAAdABoAGUAIABoAG8AcwB0ACAAcABhAHIAdAAgAG8AZgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABGAG8AcgAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABoAGkAZwBoAGUAcgAgAHQAaABhAG4AIAAyADQALAAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGwAYQBzAHQAIABvAGMAdABlAHQALgBcAG4AIAAqACAARgBvAHIAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAYgBlAHQAdwBlAGUAbgAgADEANgAgAGEAbgBkACAAMgAzACwAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAdAB3AG8AIABvAGMAdABlAHQAcwAuAFwAbgAgACoAIABGAG8AcgAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABiAGUAdAB3AGUAZQBuACAAOAAgAGEAbgBkACAAMQA1ACwAIAByAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAdABoAHIAZQBlACAAbwBjAHQAZQB0AHMALgBcAG4AIAAqACAARgBvAHIAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAYgBlAHQAdwBlAGUAbgAgADAAIABhAG4AZAAgADcALAAgAHIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAdQBsAGwAIABJAFAAIABhAGQAZAByAGUAcwBzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGgAbwBzAHQAXwBvAGMAdABlAHQAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGgAbwBzAHQAXwBvAGMAdABlAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMQAsACAAVgBBAEwAVQBFACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGEAZABkAHIAZQBzAHMALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADIAKQAsACAAXAAiAC4AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADMALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGEAZABkAHIAZQBzAHMALAAgAFwAIgAuAFwAIgAsACAAMwApACwAIABcACIALgBcACIALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQANAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABvAGMAdABlAHQAMQAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMQAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPgAgADIANQA1ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAG8AYwB0AGUAdAA0ACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAA0ACAAPgAgADIANQA1ACkAIAArACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AMwAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAUwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPgA9ACAAMgA0ACwAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAGYAeAAgAD4APQAgADEANgAsACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAzACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPgA9ACAAOAAsACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAyACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMwAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAGYAeAAgAD4APQAgADAALAAgAG8AYwB0AGUAdAAxACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMgAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADMAIAAmACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAA0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIABpAG4AIABiAGkAbgBhAHIAeQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHAAXwBpAG4AXwBiAGkAbgBhAHIAeQAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiACkAIAA9AD0APgAgAFwAIgAwAGIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHAAXwBpAG4AXwBiAGkAbgBhAHIAeQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwAGIAXAAiACAAJgAgAF8AZABvAHQAMgBiAGkAbgAoAGkAcABfAGEAZABkAHIAZQBzAHMAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGIAaQBuAGEAcgB5AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAwAGIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBuAGUAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcACIAMABiAFwAIgAgACYAIABfAHAAZgB4ADIAYgBpAG4AKABwAGYAeAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AcwB0AG0AYQBzAGsAIABpAG4AIABiAGkAbgBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAaABvAHMAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMABiADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAMQAxADEAMQAxADEAMQBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaABvAHMAdABtAGEAcwBrAF8AaQBuAF8AYgBpAG4AYQByAHkAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcACIAMABiAFwAIgAgACYAIABfAGQAZQBjADIAYgBpAG4AKABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAzADIAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABpAHAAIABhAGQAZAByAGUAcwBzACAAaQBuACAAZABlAGMAaQBtAGEAbAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHAAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANQA1AFwAIgApACAAPQA9AD4AIAA0ADIAOQA0ADkANgA3ADIAOQA1AFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcABfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBhAGQAZAByAGUAcwBzACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADEAMAAuADAALgAwAC4AMAAvADgAXAAiACkAIAA9AD0APgAgADQAMgA3ADgAMQA5ADAAMAA4ADAAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHQAbQBhAHMAawBfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABoAG8AcwB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACgAXAAiADEAMAAuADAALgAwAC4AMAAvADgAXAAiACkAIAA9AD0APgAgADEANgA3ADcANwAyADEANQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAQgBJAFQATgBPAFQAKABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAMwAyACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGMAaABlAGMAawBlAGQAIABpAHAAIABwAHIAbwBwAGUAcgBsAHkAIABmAG8AcgBtAGEAdAB0AGUAZAAgAG8AcgAgAE4AQQAgAGkAZgAgAHQAaABlACAAaQBwACAAaQBzACAAaQBuAHYAYQBsAGkAZAAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAAXAAiACAAbwByACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABjAGgAZQBjAGsAZQBkACgAXAAiADEAMAAuADAAMAAuADAALgAwADAALwA4AFwAIgApACAAPQA9AD4AIABcACIAMQAwAC4AMAAuADAALgAwAC8AOABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AYwBoAGUAYwBrAGUAZAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAEkARgAoAGkAcwBfAG4AZQB0ACwAIABcACIALwBcACIAIAAmAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkALAAgAFwAIgBcACIAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAC8ALwAgACAAIAAgACAAQgBBAFMARQAgAEYAVQBOAEMAVABJAE8ATgBTAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuACAAdABoAGUAIABJAFAAIABwAGEAcgB0ACAAbwBmACAAYQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAHAAYQBpAHIALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAFwAbgAgACoALwBcAG4AaQBwACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAXwBzAHQAcgBpAG4AZwAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AZABvAHQAMgBkAGUAYwAoAGkAcABfAHMAdAByAGkAbgBnACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABwAGEAcgB0ACAAbwBmACAAYQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AGwAZQBuAFwAIgAgAHAAYQBpAHIAIABhAHMAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHAAcgBlAGYAaQB4AGwAZQBuACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAMgA0AFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAHAAcgBlAGYAaQB4AGwAZQBuACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAHAAZgB4ACAAPAAgADAAKQAgACsAIAAoAHAAZgB4ACAAPgAgADMAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgAHAAYQByAHQAIABvAGYAIABhAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAcABhAGkAcgAgAGEAcwAgAGEAIABuAGUAdAAgAG0AYQBzAGsALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAG4AZQB0AG0AYQBzAGsAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHQAbQBhAHMAawAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkAKQApAFwAbgBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgAHAAYQByAHQAIABvAGYAIABhAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAcABhAGkAcgAgAGEAcwAgAGEAIABoAG8AcwB0ACAAbQBhAHMAawAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAaABvAHMAdABtAGEAcwBrACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADAALgAwAC4AMAAuADIANQA1AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AG0AYQBzAGsAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAzADIAKQApACkAXABuAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHQAdwBvAHIAawAgAGEAZABkAHIAZQBzAHMAIABvAGYAIAB0AGgAZQAgAGcAaQB2AGUAbgAgAGkAbgB0AGUAcgBmAGEAYwBlACAAaQBwAC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAGUAdAB3AG8AcgBrAF8AYQBkAGQAcgBlAHMAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG4AZQB0AHcAbwByAGsAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAKQAgACYAIABJAEYAKABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGIAcgBvAGEAZABjAGEAcwB0ACAAYQBkAGQAcgBlAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGIAcgBvAGEAZABjAGEAcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMgA1ADUAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGIAcgBvAGEAZABjAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAZQB4AGMAbAB1AGQAZQBfAHAAcgBlAGYAaQB4AF8AbABlAG4AZwB0AGgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGMAZQBsAGwAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGMAZQBsAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAKQAgACYAIABJAEYAKABlAHgAYwBsAHUAZABlAF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4ACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAYQBkAGQAcgBlAHMAcwBlAHMAIABpAG4AIAB0AGgAZQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgBcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAHUAbQBfAGEAZABkAHIAZQBzAHMAZQBzACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAMgA1ADYAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgB1AG0AXwBhAGQAZAByAGUAcwBzAGUAcwAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AIAAzADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIASQBUAE4ATwBUACgAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsADMAMgApACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgAvAC8AIABTAHUAYgBuAGUAdAAgAEgAbwBzAHQAIABOAGEAdgBpAGcAYQB0AGkAbwBuACAARgB1AG4AYwB0AGkAbwBuAHMAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZgBpAHIAcwB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQA6ACAATwBwAHQAaQBvAG4AYQBsACwAIABkAG8AIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAGkAbgAgAHQAaABlACAAcgBlAHMAcABvAG4AcwBlACAAaQBmACAAdABoAGUAIABpAG4AcAB1AHQAIABpAHMAIABhACAAbgBlAHQAdwBvAHIAawBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGYAaQByAHMAdABoAG8AcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AZgBpAHIAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABjAGUAbABsAHMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGMAZQBsAGwAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAYwBlAGwAbABzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABjAGUAbABsAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGYAaQByAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACkAIAAmACAASQBGACgAIABvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AIAArACAAbgBvAHQAKABpAHMAXwBuAGUAdAApACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABsAGEAcwB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQA6ACAATwBwAHQAaQBvAG4AYQBsACwAIABkAG8AIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAGkAbgAgAHQAaABlACAAcgBlAHMAcABvAG4AcwBlACAAaQBmACAAdABoAGUAIABpAG4AcAB1AHQAIABpAHMAIABhACAAbgBlAHQAdwBvAHIAawBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGwAYQBzAHQAaABvAHMAdAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADIANQA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBsAGEAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALAAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGMAZQBsAGwAcwApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABjAGUAbABsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGMAZQBsAGwAcwApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcABmAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABfAGwAYQBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbgBlAHgAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwAgAG8AZgAgAGEAIABzAHUAYgBuAGUAdAAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdADoAIABPAHAAdABpAG8AbgBhAGwALAAgAGQAbwAgAG4AbwB0ACAAaQBuAGMAbAB1AGQAZQAgAHQAaABlACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaABcAG4AIAAqACAAaQBuACAAdABoAGUAIAByAGUAcwBwAG8AbgBzAGUAIABpAGYAIAB0AGgAZQAgAGkAbgBwAHUAdAAgAGkAcwAgAGEAIABuAGUAdAB3AG8AcgBrAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgA0AC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAzAFwAIgBcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQAwAC4AMAAuADAALgAyAFwAIgApACAAPQA9AD4AIABcACIAMQAwAC4AMAAuADAALgAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBwAHIAZQB2AGkAbwB1AHMAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAgAD0AIABMAEEATQBCAEQAQQAoAGMAZQBsAGwAcwAsAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGMAZQBsAGwAcwApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABjAGUAbABsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGMAZQBsAGwAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHcAXwBpAHAALABpAHAAZABlAGMAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AGgAbwBzAHQALABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABpAGYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHcAXwBpAHAAIAA8ACAAZgBpAHIAcwB0AGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdwBfAGkAcAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB4AHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAGgAbwBzAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgA0AC8AMgA0AFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAzAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AbgBlAHgAdABfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAbABlAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAYwBlAGwAbABzACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABjAGUAbABsAHMALABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAGMAZQBsAGwAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAYwBlAGwAbABzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBfAGkAcAAsAGkAcABkAGUAYwAgACsAIAAxACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AGgAbwBzAHQALABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AGgAbwBzAHQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGkAZgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABuAGUAdwBfAGkAcAAgAD4AIABsAGEAcwB0AGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdwBfAGkAcAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACAAKwAgAG4AbwB0ACgAaQBzAF8AbgBlAHQAKQAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABuAGUAeAB0ACAAaABvAHMAdAAgAGEAZABkAHIAZQBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHAAcgBlAHYAaQBvAHUAcwBoAG8AcwB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4ANAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMwBcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBuAGQAZQB4AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABpAG4AZABlAHgALABbAG8AbQBpAHQAXwBwAHIAZQBmAGkAeABsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaABvAHMAdAAsAF8AbABhAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBoAG8AcwB0ACwAXwBmAGkAcgBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAPAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBoAG8AcwB0ACAAKwAgAGkAbgBkAGUAeAAgACsAIAAxACAAPAAgAGYAaQByAHMAdABfAGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAbABhAHMAdABfAGgAbwBzAHQAIAArACAAaQBuAGQAZQB4ACAAKwAgADEAIAApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGgAbwBzAHQAIAArACAAaQBuAGQAZQB4ACAALQAgADEAIAA+ACAAbABhAHMAdABfAGgAbwBzAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAGUAYwAyAGQAbwB0ACgAZgBpAHIAcwB0AF8AaABvAHMAdAAgACsAIABpAG4AZABlAHgAIAAtACAAMQApACAAJgAgAEkARgAoACAAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuACwAIABcACIAXAAiACwAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcABmAHgAZABlAGMAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAcAByAGUAdgBpAG8AdQBzACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAcAByAGUAdgBpAG8AdQBzAHMAdQBiAG4AZQB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADcALgAyADUANQAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAHAAcgBlAHYAaQBvAHUAcwBfAHMAdQBiAG4AZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABkAGUAYwAsACAAXwBwAHIAZQB2AGkAbwB1AHMAcwB1AGIAbgBlAHQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABuAGUAdABkAGUAYwAgADwAIAAwACkAIAArACAAKABuAGUAdABkAGUAYwAgAD4AIAAyACAAXgAgADMAMgAgAC0AIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABuAGUAdABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAG4AZQB4AHQAIABzAHUAYgBuAGUAdAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABuAGUAeAB0AHMAdQBiAG4AZQB0ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AbgBlAHgAdABfAHMAdQBiAG4AZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAF8AbgBlAHgAdABzAHUAYgBuAGUAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAXAAiAGkAbgBkAGUAeABcACIAdABoACAAcwB1AGIAbgBlAHQAIABpAG4AIABhACAAbABhAHIAZwBlAHIAIABzAHUAbQBtAGEAcgB5AC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBzAHUAbQBtAGEAcgB5ADoAIABhACAAQwBlAGwAbAAgAG8AcgAgAFMAdAByAGkAbgBnACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAbgAgAGkAcAAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAF8AcAByAGUAZgBpAHgAOgAgAGEAIABDAGUAbABsACAAbwByACAAUwB0AHIAaQBuAGcAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAYQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAXABuACAAKgAgAHQAbwAgAHMAdQBiAG4AZQB0ACAAdABoAGUAIABzAHUAbQBtAGEAcgB5ACAAaQBuAHQAbwAuAFwAbgAgACoAIABpAG4AZABlAHgAOgAgAGEAIABwAG8AcwBpAHQAaQB2AGUAIABvAHIAIABuAGUAZwBhAHQAaQB2AGUAIABpAG4AZABlAHgAIABuAHUAbQBiAGUAcgAuACAASQBmACAAcABvAHMAaQB0AGkAdgBlACwAIAB3AGkAbABsACAAXABuACAAKgAgAHIAZQB0AHUAcgBuACAAdABoAGUAIABzAHUAYgBuAGUAdAAgAGEAdAAgAHQAaABlACAAaQBuAGQAZQB4ACAAcABvAHMAaQB0AGkAbwBuACAAKABmAGkAcgBzAHQAIABzAHUAYgBuAGUAdAAgAGkAcwAgADAAKQAuAFwAbgAgACoAIABJAGYAIABuAGUAZwBhAHQAaQB2AGUALAAgAHcAaQBsAGwAIAByAGUAdAB1AHIAbgAgAHQAaABlACAAcwB1AGIAbgBlAHQAIABkAGUAYwByAGUAYQBzAGkAbgBnACAAZgByAG8AbQAgAHQAaABlACAAZQBuAGQAIABvAGYAXABuACAAKgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuACAAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAG4AZABlAHgAXwBzAHUAYgBuAGUAdAAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAxADYAXAAiACwAMgA0ACwALQAzACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMgA1ADMALgAwAC8AMgA0AFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAG4AZABlAHgAXwBzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAHMAdQBtAG0AYQByAHkALAAgAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeAAsACAAaQBuAGQAZQB4ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAaQBwAF8AcwB1AG0AbQBhAHIAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4ACwAIABwAHIAZQBmAGkAeABsAGUAbgAoAGkAcABfAHMAdQBtAG0AYQByAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAcwBtAGEAbABsAGUAcgBfAHAAcgBlAGYAaQB4ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAsACAAXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABzAHUAYgBfAHMAaQB6AGUALABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHMAbQBhAGwAbABlAHIAXwBwAHIAZQBmAGkAeAApACwAMwAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAB0AGEAcgBnAGUAdABfAG4AZQB0AF8AZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AZABlAHgAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcABfAGQAZQBjACAAKwAgAGkAbgBkAGUAeAAgACoAIAAoAHMAdQBiAF8AcwBpAHoAZQAgACsAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAHMAdABfAGkAcABfAGQAZQBjACAAKwAgADEAIAArACAAaQBuAGQAZQB4ACAAKgAgACgAcwB1AGIAXwBzAGkAegBlACAAKwAgADEAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKAB0AGEAcgBnAGUAdABfAG4AZQB0AF8AZABlAGMAKQAgACYAIABcACIALwBcACIAIAAmACAAXwBkAGUAYwAyAHAAZgB4ACgAcwBtAGEAbABsAGUAcgBfAHAAcgBlAGYAaQB4AGQAZQBjACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZAB5AG4AYQBtAGkAYwAgAGEAcgByAGEAeQAgAG8AZgAgAHQAaABlACAAcwB1AGIAbgBlAHQAcwAgAGkAbgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAHMAdQBwAGUAcgBuAGUAdAA6ACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAHAAZgB4ADoAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABvAGYAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AHQAaQBuAGcALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHMAdQBiAG4AZQB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgAsADIANQApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADUAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAyADgALwAyADUAXAAiAH0AXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AcwB1AGIAbgBlAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdQBwAGUAcgBuAGUAdAAsAHMAbQBhAGwAbABlAHIAcABmAHgALABbAHMAdABhAHIAdABdACwAWwBzAHQAbwBwAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AHAAZQByAG4AZQB0AGkAcAAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAHMAdQBwAGUAcgBuAGUAdAAsACAAXAAiAC8AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdQBwAGUAcgBuAGUAdABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABzAHUAcABlAHIAbgBlAHQALAAgAFwAIgAvAFwAIgApACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAF8AZABvAHQAMgBkAGUAYwAoAHMAdQBwAGUAcgBuAGUAdABpAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AHAAZQByAG4AZQB0AHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABzAHUAcABlAHIAbgBlAHQAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAHMAbQBhAGwAbABlAHIAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAHMAbQBhAGwAbABlAHIAcABmAHgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcABfAGQAZQBjACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAHMAdQBwAGUAcgBuAGUAdABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABzAHUAcABlAHIAbgBlAHQAYQBkAGQAcgAsAHMAdQBwAGUAcgBuAGUAdABwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAcwBpAHoAZQAsACAAQgBJAFQATgBPAFQAKABzAG0AYQBsAGwAZQByAHAAZgB4AGQAZQBjACwAMwAyACkAIAArACAAMQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAHQAYQByAGcAZQB0AF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABhAHIAdAAgAD4APQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIABzAHQAYQByAHQAIAAqACAAbgBlAHQAcwBpAHoAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIAAxACAAKwAgAHMAdABhAHIAdAAgACoAIABuAGUAdABzAGkAegBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AdABhAHIAZwBlAHQAXwBpAHAALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAFMATwBNAEkAVABUAEUARAAoAHMAdABvAHAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwB0AG8AcAAgAD4APQAgADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAAXwBkAGUAYwAgACsAIABzAHQAbwBwACAAKgAgAG4AZQB0AHMAaQB6AGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwAF8AZABlAGMAIAArACAAMQAgACsAIABzAHQAbwBwACAAKgAgAG4AZQB0AHMAaQB6AGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGIAbgBlAHQAXwBuAGIAcgAsACAAKABsAGEAcwB0AF8AdABhAHIAZwBlAHQAXwBpAHAAIAArACAAMQAgAC0AIABmAGkAcgBzAHQAXwB0AGEAcgBnAGUAdABfAGkAcAApACAALwAgAG4AZQB0AHMAaQB6AGUALABcAG4AXABuACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABmAGkAcgBzAHQAXwB0AGEAcgBnAGUAdABfAGkAcAAgACsAIABTAEUAUQBVAEUATgBDAEUAKABzAHUAYgBuAGUAdABfAG4AYgByACwALAAwACwAMQApACAAKgAgAG4AZQB0AHMAaQB6AGUAKQAgACYAIABcACIALwBcACIAIAAmACAAcwBtAGEAbABsAGUAcgBwAGYAeABcAG4AXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAYQAgAGQAeQBuAGEAbQBpAGMAIABhAHIAcgBhAHkAIABvAGYAIAB0AGgAZQAgAGgAbwBzAHQAcwAgAGkAbgAgAHQAaABlACAAbgBlAHQAdwBvAHIAawAuAFwAbgAgACoAXABuACAAKgAgAGkAcABfAG4AZQB0AHcAbwByAGsAOgAgAGEAIABDAGUAbABsACAAbwByACAAUwB0AHIAaQBuAGcAIABuAGUAdAB3AG8AcgBrACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABoAG8AcwB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMwAxAFwAIgApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBoAG8AcwB0AHMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAWwBzAHQAYQByAHQAXQAsAFsAcwB0AG8AcABdACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAG8AdAAsACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAXwBkAG8AdAAyAGQAZQBjACgAaQBwAGQAbwB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAYQBsAF8AcwB0AG8AcAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABzAHQAbwBwACkALAAtADEALABzAHQAbwBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAXwBpAHAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAIAA8AD0AIAAzADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4ACAAPAA9ACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkAIAAtACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBuAGQAZQB4AGUAZABfAGkAcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQAIAA+AD0AIAAwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBwACAAKwAgAHMAdABhAHIAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAIAArACAAcwB0AGEAcgB0ACAAKwAgADEAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBhAGwAXwBzAHQAbwBwACAAPgA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABfAGkAcAAgACsAIAByAGUAYQBsAF8AcwB0AG8AcAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGwAYQBzAHQAXwBpAHAAIAArACAAcgBlAGEAbABfAHMAdABvAHAAIAArACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG4AdQBtAGIAZQByAF8AbwBmAF8AaABvAHMAdABzACwAIABsAGEAcwB0AF8AaQBuAGQAZQB4AGUAZABfAGkAcAAgAC0AIABmAGkAcgBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACAAKwAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABmAGkAcgBzAHQAXwBpAG4AZABlAHgAZQBkAF8AaQBwACAAPAAgAGYAaQByAHMAdABfAGkAcAApACAAKwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbABhAHMAdABfAGkAbgBkAGUAeABlAGQAXwBpAHAAIAA+ACAAbABhAHMAdABfAGkAcAApACAAKwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AdQBtAGIAZQByAF8AbwBmAF8AaABvAHMAdABzACAAPAAgADEALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGYAaQByAHMAdABfAGkAbgBkAGUAeABlAGQAXwBpAHAAIAArACAAUwBFAFEAVQBFAE4AQwBFACgAbgB1AG0AYgBlAHIAXwBvAGYAXwBoAG8AcwB0AHMALAAsADAALAAxACkAKQAgACYAIABJAEYAKABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAAsACAAXAAiAFwAIgAsACAAXAAiAC8AXAAiACAAJgAgAF8AZABlAGMAMgBwAGYAeAAoAHAAZgB4AGQAZQBjACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZAB5AG4AYQBtAGkAYwAgAGEAcgByAGEAeQAgAG8AZgAgAHQAaABlACAAcwB1AGIAbgBlAHQAcwAgAGkAbgAgAHQAaABlACAAcwB1AG0AbQBhAHIAeQAuAFwAbgAgACoAXABuACAAKgAgAHMAdQBwAGUAcgBuAGUAdAA6ACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAG0AYQBsAGwAZQByAHAAZgB4ADoAIAB0AGgAZQAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIABvAGYAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AHQAaQBuAGcALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAHMAdQBiAG4AZQB0AHMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMgA0AFwAIgAsADIANQApACAAPQA9AD4AIAB7AFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADUAXAAiACwAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQAyADgALwAyADUAXAAiAH0AXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AcwB1AGIAbgBlAHQAXwBvAGYAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABvAHQAaABlAHIALABcAG4AIAAgACAAIAAvAC8AUgBlAHQAdQByAG4AIABUAHIAdQBlACAAaQBmACAAaQBwAF8AbgBlAHQAdwBvAHIAawAgAGkAcwAgAGEAIABzAHUAYgBuAGUAdAAgAG8AZgAgAG8AdABoAGUAcgAuAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABfAGQAZQBjACwAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AbgBlAHQAdwBvAHIAawAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABuAGUAdABfAGQAZQBjACwAIABuAGUAdABfAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AbABhAHMAdABfAGkAcAAsACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG4AZQB0AF8AZABlAGMALAAgAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABvAHQAaABlAHIALAAgAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAbwB0AGgAZQByACwAIABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABvAHQAaABlAHIAXwBuAGUAdABfAGQAZQBjACwAIABvAHQAaABlAHIAXwBuAGUAdABfAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AbABhAHMAdABfAGkAcAAsACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAKAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AZgBpAHIAcwB0AF8AaQBwACAAPAA9ACAAbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAAIAApACAAKgAgACgAbgBlAHQAXwBsAGEAcwB0AF8AaQBwACAAPAA9ACAAbwB0AGgAZQByAF8AbgBlAHQAXwBsAGEAcwB0AF8AaQBwACkAKQAgAD4AIAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAHMAdQBwAGUAcgBuAGUAdABfAG8AZgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAG8AdABoAGUAcgAsAFwAbgAgACAAIAAgAC8ALwBSAGUAdAB1AHIAbgAgAFQAcgB1AGUAIABpAGYAIABpAHAAXwBuAGUAdAB3AG8AcgBrACAAaQBzACAAYQAgAHMAdQBiAG4AZQB0ACAAbwBmACAAbwB0AGgAZQByAC4AXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AF8AZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBuAGUAdAB3AG8AcgBrACwAIABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdABfAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG4AZQB0AF8AZABlAGMALAAgAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAXwBsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAbgBlAHQAXwBkAGUAYwAsACAAbgBlAHQAXwBwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAG8AdABoAGUAcgAsACAAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABvAHQAaABlAHIALAAgAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAG8AdABoAGUAcgBfAG4AZQB0AF8AZABlAGMALAAgAG8AdABoAGUAcgBfAG4AZQB0AF8AcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB0AGgAZQByAF8AbgBlAHQAXwBsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAbwB0AGgAZQByAF8AbgBlAHQAXwBkAGUAYwAsACAAbwB0AGgAZQByAF8AbgBlAHQAXwBwAGYAeABkAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAKAAoACAAbwB0AGgAZQByAF8AbgBlAHQAXwBmAGkAcgBzAHQAXwBpAHAAIAA8AD0AIABuAGUAdABfAGYAaQByAHMAdABfAGkAcAAgACkAIAAqACAAKABuAGUAdABfAGwAYQBzAHQAXwBpAHAAIAA8AD0AIABvAHQAaABlAHIAXwBuAGUAdABfAGwAYQBzAHQAXwBpAHAAKQApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AcwB1AHAAZQByAG4AZQB0AF8AZABpAGYAZgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAG4AZQB0AHcAbwByAGsALAAgAHAAcgBlAGYAaQB4AGwAZQBuAF8AZABpAGYAZgAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAG4AZQB0AHcAbwByAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBuAGUAdAB3AG8AcgBrACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBfAHAAcgBlAGYAaQB4ACwAIABwAGYAeAAgAC0AIABwAHIAZQBmAGkAeABsAGUAbgBfAGQAaQBmAGYALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPAAgADAAKQAgACsAIAAoAG4AZQB3AF8AcAByAGUAZgBpAHgAIAA+ACAAMwAyACkAIAArACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPgA9ACAAcABmAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIAAoAHAAZgB4ACAALQAgAHAAcgBlAGYAaQB4AGwAZQBuAF8AZABpAGYAZgApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBzAHUAcABlAHIAbgBlAHQAXwBuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AbgBlAHQAdwBvAHIAawAsACAAbgBlAHcAXwBwAHIAZQBmAGkAeAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcAAoAGkAcABfAG4AZQB0AHcAbwByAGsAKQApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeAAsACAAcAByAGUAZgBpAHgAbABlAG4AKABpAHAAXwBuAGUAdAB3AG8AcgBrACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbgBlAHcAXwBwAHIAZQBmAGkAeAAgADwAIAAwACkAIAArACAAKABuAGUAdwBfAHAAcgBlAGYAaQB4ACAAPgAgADMAMgApACAAKwAgACgAbgBlAHcAXwBwAHIAZQBmAGkAeAAgAD4APQAgAHAAZgB4ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAZQBjADIAZABvAHQAKABpAHAAZABlAGMAKQAgACYAIABcACIALwBcACIAIAAmACAAbgBlAHcAXwBwAHIAZQBmAGkAeABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAcwBvAHIAdABlAGQAIABsAGkAcwB0ACAAbwBmACAAaQBwACAAYQBkAGQAcgBlAHMAcwBlAHMALwBpAG4AdABlAHIAZgBhAGMAZQBzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAAXAAiACAAbwByACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAFsAbwBtAGkAdABfAHAAcgBlAGYAaQB4AGwAZQBuAF0AOgAgAE8AcAB0AGkAbwBuAGEAbAAsACAAZABvACAAbgBvAHQAIABpAG4AYwBsAHUAZABlACAAdABoAGUAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoAFwAbgAgACoAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHAAbwBuAHMAZQAgAGkAZgAgAHQAaABlACAAaQBuAHAAdQB0ACAAaQBzACAAYQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABzAG8AcgB0ACgAewBcACIAMQA5ADIALgAxADYAOAAuADEALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgB9ACkAIAA9AD0APgAgAHsAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgAgAHMAbwByAHQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAWwBvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaABdACwAXABuACAAIAAgACAAaQBwAC4AYwBoAGUAYwBrAGUAZAAoAFMATwBSAFQAKABpAHAALgBwAGEAZABkAGUAZAAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABvAG0AaQB0AF8AcAByAGUAZgBpAHgAXwBsAGUAbgBnAHQAaAApACkAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABhACAAZgBpAGwAdABlAHIAZQBkACAAbABpAHMAdAAgAG8AZgAgAGkAcAAgAGEAZABkAHIAZQBzAHMAZQBzAC8AaQBuAHQAZQByAGYAYQBjAGUAcwAgAHQAaABhAHQAIABhAHIAZQAgAGkAbgBjAGwAdQBkAGUAZAAgAGkAbgBcAG4AIAAqACAAbwByACAAZQB4AGMAbAB1AGQAZQBkACAAbwBmACAAYQAgAHMAdQBwAGUAcgBuAGUAdAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAFwAIgAgAG8AcgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABzAHUAcABlAHIAbgBlAHQAOgAgAGEAbgAgAGkAcAAgAG4AZQB0AHcAbwByAGsAIABpAG4AIABcACIAaQBwAFwAIgAgAG8AcgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAZgBpAGwAdABlAHIAXwBpAG4AYwBsAHUAZABlACgAewBcACIAMQA5ADIALgAxADYAOAAuADEALgAwAC8AMgA2AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgB9ACkAIAA9AD0APgAgAHsAXAAiADEAOQAyAC4AMQA2ADgALgAxAC4AMAAvADIANABcACIAOwBcACIAMQA5ADIALgAxADYAOAAuADIALgAwAC8AMgA0AFwAIgA7AFwAIgAxADkAMgAuADEANgA4AC4AMQA1AC4AMAAvADIANABcACIAfQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBmAGkAbAB0AGUAcgBfAGkAbgBjAGwAdQBkAGUAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAIABzAHUAcABlAHIAbgBlAHQALABcAG4AIAAgACAAIABGAEkATABUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABpAHAALgBzAHUAYgBuAGUAdABfAG8AZgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABzAHUAcABlAHIAbgBlAHQAKQA9AFQAUgBVAEUAKQBcAG4AKQA7AFwAbgBcAG4AZgBpAGwAdABlAHIAXwBlAHgAYwBsAHUAZABlACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsACAAcwB1AHAAZQByAG4AZQB0ACwAXABuACAAIAAgACAARgBJAEwAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAaQBwAC4AcwB1AGIAbgBlAHQAXwBvAGYAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAcwB1AHAAZQByAG4AZQB0ACkAPQBGAEEATABTAEUAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIABvAGYAZgBzAGUAdAAgAGIAeQAgAHQAaABlACAAZABlAGMAaQBtAGEAbAAgAG8AZgBmAHMAZQB0ACAAcAByAG8AdgBpAGQAZQBkAC4AXABuACAAKgAgAFQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHQAdQByAG4AcwAgACMATgAvAEEAIABpAGYAIAB0AGgAZQAgAG8AZgBmAHMAZQB0ACAASQBQACAAaQBzACAAbwB1AHQAcwBpAGQAZQAgAHQAaABlACAAcwB1AGIAbgBlAHQALgBcAG4AIAAqACAAXABuACAAKgAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAOgAgAGEAIABDAGUAbABsACwAIABTAHQAcgBpAG4AZwAsACAAUgBhAG4AZwBlACAAbwByACAAQQByAHIAYQB5ACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGkAcAAgAGkAbgB0AGUAcgBmAGEAYwBlAHMAXABuACAAKgAgAGkAbgAgAFwAIgBpAHAALwBwAHIAZQBmAGkAeABcACIAIABmAG8AcgBtAGEAdAAuAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAbwBmAGYAcwBlAHQAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAC8AMgA0AFwAIgAsADEAMAApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADEALgAxADEALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG8AZgBmAHMAZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAIABkAGUAYwBpAG0AYQBsAF8AbwBmAGYAcwBlAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAKABjAGUAbABsAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGYAZgBzAGUAdABfAGkAcABkAGUAYwAsACAAaQBwAGQAZQBjACAAKwAgAGQAZQBjAGkAbQBhAGwAXwBvAGYAZgBzAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AF8AaQBwACwAIABfAGYAaQByAHMAdABoAG8AcwB0ACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIABsAGEAcwB0AF8AaQBwACwAIABfAGwAYQBzAHQAaABvAHMAdAAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAbwBmAGYAcwBlAHQAXwBpAHAAZABlAGMAIAA8ACAAZgBpAHIAcwB0AF8AaQBwACkAIAArACAAKABvAGYAZgBzAGUAdABfAGkAcABkAGUAYwAgAD4AIABsAGEAcwB0AF8AaQBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAG8AZgBmAHMAZQB0AF8AaQBwAGQAZQBjACkAIAAmACAAXAAiAC8AXAAiACAAJgAgAHAAZgB4AFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAHcAaQB0AGgAIABlAGEAYwBoACAAbwBjAHQAZQB0ACAAbwBmAGYAcwBlAHQAIABiAHkAIAB2AGEAbAB1AGUAIABwAHIAbwB2AGkAZABlAGQALgBcAG4AIAAqACAASQB0ACAAZABvAGUAcwAgAG4AbwB0ACAAZQByAHIAbwByACAAaQBmACAAdABoAGUAIABvAGYAZgBzAGUAdAAgAEkAUAAgAGkAcwAgAG8AdQB0AHMAaQBkAGUAIAB0AGgAZQAgAHMAdQBiAG4AZQB0AC4AXABuACAAKgAgAFUAcwBlAGYAdQBsACAAdABvACAAbQBhAHAAIAB0AHcAbwAgAG4AZQB0AHcAbwByAGsAcwAgAHQAbwBnAGUAdABoAGUAcgAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABvAGYAZgBzAGUAdABvAGMAdABlAHQAcwAoAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADAALwAyADQAXAAiACwAMAAsAC0AMQAwACwAMQAwACwAMAApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADUAOAAuADEAMAAuADAALwAyADQAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAG8AYwB0AGUAdABfAG8AZgBmAHMAZQB0ACAAPQAgAEwAQQBNAEIARABBACgAYwBlAGwAbABzACwAIABvAGYAZgBzAGUAdAAxACwAIABvAGYAZgBzAGUAdAAyACwAIABvAGYAZgBzAGUAdAAzACwAIABvAGYAZgBzAGUAdAA0ACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlACAAdABoAGUAIAB0AG8AdABhAGwAIABvAGYAZgBzAGUAdAAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIABvAGYAZgBzAGUAdABkAGUAYwAsACAAKABvAGYAZgBzAGUAdAAxACAAKgAgADIANQA2ACAAXgAgADMAKQAgACsAIAAoAG8AZgBmAHMAZQB0ADIAIAAqACAAMgA1ADYAIABeACAAMgApACAAKwAgACgAbwBmAGYAcwBlAHQAMwAgACoAIAAyADUANgApACAAKwAgACgAbwBmAGYAcwBlAHQANAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwACgAYwBlAGwAbABzACkAKQAgACsAIABvAGYAZgBzAGUAdABkAGUAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALAAgAHAAcgBlAGYAaQB4AGwAZQBuACgAYwBlAGwAbABzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABwAGYAeAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjAGkAbgB2ACwAIABCAEkAVABOAE8AVAAoAF8AcABmAHgAMgBkAGUAYwAoAHAAZgB4ACkALAAgADMAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAaQBwAGQAZQBjACAAPAAgADAAKQAgACsAIAAoAGkAcABkAGUAYwAgAD4AIAAyACAAXgAgADMAMgAgAC0AIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABlAGMAMgBkAG8AdAAoAGkAcABkAGUAYwApACAAJgAgAFwAIgAvAFwAIgAgACYAIABwAGYAeABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABUAFIAVQBFACAAaQBmACAAdABoAGUAIABzAHUAYgBuAGUAdAAgAGkAcwAgAHAAYQByAHQAIABvAGYAIABhAG4AIABSAEYAQwAxADkAMQA4ACAAYgBsAG8AYwBrACwAIABGAEEATABTAEUAIABvAHQAaABlAHIAdwBpAHMAZQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBSAEYAQwAxADkAMQA4ACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AaQBzAF8AcgBmAGMAMQA5ADEAOAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMQA2ADcANwA3ADIAMQA2ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEAOAA0ADUANAA5ADMANwA1AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADgAOAA2ADcAMgA5ADcAMgA4AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADgAOAA3ADcANwA4ADMAMAAzAFwAIgApACkAKQAgACsAIAAvAC8AIAAxADcAMgAuADEANgAuADAALgAwAC8AMQAyAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAzADIAMgAzADUANQAyADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAzADIAMwAwADEAMAA1ADUAXAAiACkAKQApACAAIAAgAC8ALwAgADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADEANgBcAG4AIAAgACAAIAAgACAAIAAgACkAIAA+ACAAMABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAVABSAFUARQAgAGkAZgAgAHQAaABlACAAYQBkAGQAcgBlAHMAcwAgAGkAcwAgAGQAZQBmAGkAbgBlAGQAIABhAHMAIABuAG8AdAAgAGcAbABvAGIAYQBsAGwAeQAgAHIAZQBhAGMAaABhAGIAbABlACAAYgB5ACAAaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AFwAbgAgACoAIABlAHgAYwBlAHAAdAAgAGYAbwByACAAMQAwADAALgA2ADQALgAwAC4AMAAvADEAMAAgAHcAaABpAGMAaAAgAGkAcwAgAEYAQQBMAFMARQAuAFwAbgAgACoAIABoAHQAdABwAHMAOgAvAC8AdwB3AHcALgBpAGEAbgBhAC4AbwByAGcALwBhAHMAcwBpAGcAbgBtAGUAbgB0AHMALwBpAGEAbgBhAC0AaQBwAHYANAAtAHMAcABlAGMAaQBhAGwALQByAGUAZwBpAHMAdAByAHkALwBpAGEAbgBhAC0AaQBwAHYANAAtAHMAcABlAGMAaQBhAGwALQByAGUAZwBpAHMAdAByAHkALgB4AGgAdABtAGwAXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHAAcgBpAHYAYQB0AGUAKABcACIAMQA5ADIALgAwAC4AMgAuADEALwAyADQAXAAiACkAIAA9AD0APgAgAFQAUgBVAEUAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBzAF8AcAByAGkAdgBhAHQAZQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADEAOQAxADUAOQAwADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADYAMQAxADAAMgAwADcAXAAiACkAKQApACwAIAAgACAAIAAgACAAIAAgAC8ALwAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAAgACAAIAAgACAAIABTAGgAYQByAGUAZAAgAEEAZABkAHIAZQBzAHMAIABTAHAAYQBjAGUALAAgAG4AZQBpAHQAaABlAHIAIABwAHIAaQB2AGEAdABlACAAbgBvAHIAIABnAGwAbwBiAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADUAXAAiACkAKQApACAAKwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMAAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAaQBzACAAbgBlAHQAdwBvAHIAawBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADYAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMQA4ADQANQA0ADkAMwA3ADUAXAAiACkAKQApACAAKwAgACAAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADEAMwAwADcAMAA2ADQAMwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADEANAA3ADQAOAAzADYANAA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQAyADcALgAwAC4AMAAuADAALwA4ACAAIAAgACAAIAAgACAAIAAgAEwAbwBvAHAAYgBhAGMAawBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA1ADEAOQA5ADUANgA0ADgAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA1ADIAMAA2ADEAMQA4ADMAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADYAOQAuADIANQA0AC4AMAAuADAALwAxADYAIAAgACAAIAAgACAATABpAG4AawAgAEwAbwBjAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA4ADYANwAyADkANwAyADgAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAOAA4ADcANwA3ADgAMwAwADMAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADcAMgAuADEANgAuADAALgAwAC8AMQAyACAAIAAgACAAIAAgACAAUAByAGkAdgBhAHQAZQAtAFUAcwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA0ADcAMgBcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA3ADIANwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADAALgAwAC8AMgA0ACAAIAAgACAAIAAgACAAIABJAEUAVABGACAAUAByAG8AdABvAGMAbwBsACAAQQBzAHMAaQBnAG4AbQBlAG4AdABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA2ADQAMgBcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA2ADQAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADAALgAxADcAMAAvADMAMQAgACAAIAAgACAAIABOAEEAVAA2ADQALwBEAE4AUwA2ADQAIABEAGkAcwBjAG8AdgBlAHIAeQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUAOQA4ADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADYAMgAzADkAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADkAMgAuADAALgAyAC4AMAAvADIANAAgACAAIAAgACAAIAAgACAARABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAgACgAVABFAFMAVAAtAE4ARQBUAC0AMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADMAMgAyADMANQA1ADIAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADMAMgAzADAAMQAwADUANQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMQA2ADgALgAwAC4AMAAvADEANgAgACAAIAAgACAAIABQAHIAaQB2AGEAdABlAC0AVQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgAzADAANgA4ADQAMQA2AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgAzADEAOQA5ADQAOAA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADgALgAxADgALgAwAC4AMAAvADEANQAgACAAIAAgACAAIAAgAEIAZQBuAGMAaABtAGEAcgBrAGkAbgBnAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAzADIANQAyADUANgA3ADAANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAzADIANQAyADUANgA5ADUAOQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQA4AC4ANQAxAC4AMQAwADAALgAwAC8AMgA0ACAAIAAgACAAIABEAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACAAKABUAEUAUwBUAC0ATgBFAFQALQAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADQAMAA1ADgAMAAzADcANwA2AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADQAMAA1ADgAMAA0ADAAMwAxAFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMgAwADMALgAwAC4AMQAxADMALgAwAC8AMgA0ACAAIAAgACAAIAAgAEQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4AIAAoAFQARQBTAFQALQBOAEUAVAAtADMAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADQAMAAyADYANQAzADEAOAA0ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAyADQAMAAuADAALgAwAC4AMAAvADQAIAAgACAAIAAgACAAIAAgACAAUgBlAHMAZQByAHYAZQBkAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAZgBpAHIAcwB0AGQAZQBjACAAPQAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA1AFwAIgApACkAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA1ADUALwAzADIAIAAgAEwAaQBtAGkAdABlAGQAIABCAHIAbwBhAGQAYwBhAHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGUAIABhAGQAZAByAGUAcwBzACAAaQBzACAAbgBvAHQAIABkAGUAZgBpAG4AZQBkACAAYQBzACAAbgBvAHQAIABnAGwAbwBiAGEAbABsAHkAIAByAGUAYQBjAGgAYQBiAGwAZQAgAGIAeQAgAGkAYQBuAGEALQBpAHAAdgA0AC0AcwBwAGUAYwBpAGEAbAAtAHIAZQBnAGkAcwB0AHIAeQBcAG4AIAAqACAAZQB4AGMAZQBwAHQAIABmAG8AcgAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAB3AGgAaQBjAGgAIABpAHMAIABGAGEAbABzAGUALgBcAG4AIAAqACAAaAB0AHQAcABzADoALwAvAHcAdwB3AC4AaQBhAG4AYQAuAG8AcgBnAC8AYQBzAHMAaQBnAG4AbQBlAG4AdABzAC8AaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AC8AaQBhAG4AYQAtAGkAcAB2ADQALQBzAHAAZQBjAGkAYQBsAC0AcgBlAGcAaQBzAHQAcgB5AC4AeABoAHQAbQBsAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBnAGwAbwBiAGEAbAAoAFwAIgAxADkAMgAuADAALgAyAC4AMQAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHMAXwBnAGwAbwBiAGEAbAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADEAOQAxADUAOQAwADQAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADEANgA4ADYAMQAxADAAMgAwADcAXAAiACkAKQApACwAIAAgACAAIAAgACAAIAAgAC8ALwAgADEAMAAwAC4ANgA0AC4AMAAuADAALwAxADAAIAAgACAAIAAgACAAIABTAGgAYQByAGUAZAAgAEEAZABkAHIAZQBzAHMAIABTAHAAYQBjAGUALAAgAG4AZQBpAHQAaABlAHIAIABwAHIAaQB2AGEAdABlACAAbgBvAHIAIABnAGwAbwBiAGEAbABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBBAEwAUwBFACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADUAXAAiACkAKQApACAAKwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAMAAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBUAGgAaQBzACAAbgBlAHQAdwBvAHIAawBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAxADYANwA3ADcAMgAxADYAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMQA4ADQANQA0ADkAMwA3ADUAXAAiACkAKQApACAAKwAgACAAIAAgACAALwAvACAAMQAwAC4AMAAuADAALgAwAC8AOAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADIAMQAzADAANwAwADYANAAzADIAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADIAMQA0ADcANAA4ADMANgA0ADcAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADIANwAuADAALgAwAC4AMAAvADgAIAAgACAAIAAgACAAIAAgACAATABvAG8AcABiAGEAYwBrAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMQA5ADkANQA2ADQAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMgAwADYAMQAxADgAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEANgA5AC4AMgA1ADQALgAwAC4AMAAvADEANgAgACAAIAAgACAAIABMAGkAbgBrACAATABvAGMAYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADgANgA3ADIAOQA3ADIAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADgANwA3ADcAOAAzADAAMwBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEANwAyAC4AMQA2AC4AMAAuADAALwAxADIAIAAgACAAIAAgACAAIABQAHIAaQB2AGEAdABlAC0AVQBzAGUAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADQANwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADcAMgA3AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAwAC4AMAAuADAALwAyADQAIAAgACAAIAAgACAAIAAgAEkARQBUAEYAIABQAHIAbwB0AG8AYwBvAGwAIABBAHMAcwBpAGcAbgBtAGUAbgB0AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADYANAAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMgAxADIAMgA1ADYANAAzAFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAwAC4AMAAuADEANwAwAC8AMwAxACAAIAAgACAAIAAgAE4AQQBUADYANAAvAEQATgBTADYANAAgAEQAaQBzAGMAbwB2AGUAcgB5AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANQA5ADgANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMwAyADIAMQAyADIANgAyADMAOQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADEAOQAyAC4AMAAuADIALgAwAC8AMgA0ACAAIAAgACAAIAAgACAAIABEAG8AYwB1AG0AZQBuAHQAYQB0AGkAbwBuACAAKABUAEUAUwBUAC0ATgBFAFQALQAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMwAyADIAMwA1ADUAMgAwAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADIAMwAyADMAMAAxADAANQA1AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADIALgAxADYAOAAuADAALgAwAC8AMQA2ACAAIAAgACAAIAAgAFAAcgBpAHYAYQB0AGUALQBVAHMAZQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMAMwAyADMAMAA2ADgANAAxADYAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMAMwAyADMAMQA5ADkANAA4ADcAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAxADkAOAAuADEAOAAuADAALgAwAC8AMQA1ACAAIAAgACAAIAAgACAAQgBlAG4AYwBoAG0AYQByAGsAaQBuAGcAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgA1ADIANQA2ADcAMAA0AFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAzADMAMgA1ADIANQA2ADkANQA5AFwAIgApACkAKQAgACsAIAAgACAALwAvACAAMQA5ADgALgA1ADEALgAxADAAMAAuADAALwAyADQAIAAgACAAIAAgAEQAbwBjAHUAbQBlAG4AdABhAHQAaQBvAG4AIAAoAFQARQBTAFQALQBOAEUAVAAtADIAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADMANAAwADUAOAAwADMANwA3ADYAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADMANAAwADUAOAAwADQAMAAzADEAXAAiACkAKQApACAAKwAgACAAIAAvAC8AIAAyADAAMwAuADAALgAxADEAMwAuADAALwAyADQAIAAgACAAIAAgACAARABvAGMAdQBtAGUAbgB0AGEAdABpAG8AbgAgACgAVABFAFMAVAAtAE4ARQBUAC0AMwApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANQBcACIAKQApACkAIAArACAAIAAgAC8ALwAgADIANAAwAC4AMAAuADAALgAwAC8ANAAgACAAIAAgACAAIAAgACAAIABSAGUAcwBlAHIAdgBlAGQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABmAGkAcgBzAHQAZABlAGMAIAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADUANQAvADMAMgAgACAATABpAG0AaQB0AGUAZAAgAEIAcgBvAGEAZABjAGEAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAIAA9ACAAMABcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIABUAFIAVQBFACAAaQBmACAAdABoAGkAcwAgAGkAcwAgAHQAaABlACAAdQBuAHMAcABlAGMAaQBmAGkAZQBkACAAYQBkAGQAcgBlAHMAcwAgAGEAcwAgAGQAZQBmAGkAbgBlAGQAIABpAG4AIABSAEYAQwAgADUANwAzADUAIAAzAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAoAFwAIgAwAC4AMAAuADAALgAwAFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIAAwACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgADAAKQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAwAC4AMAAuADAALgAwAFwAbgAgACAAIAAgACAAIAAgACAAKQAgAD4AIAAwAFwAbgBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAFQAUgBVAEUAIABpAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIAB3AGkAdABoAGkAbgAgAHQAaABlACAAcgBlAHMAZQByAHYAZQBkACAASQBFAFQARgAgAEkAUAB2ADQAIABOAGUAdAB3AG8AcgBrACAAcgBhAG4AZwBlAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAHIAZQBzAGUAcgB2AGUAZAAoAFwAIgAyADQAMAAuADAALgAwAC4AMAAvADIANABcACIAKQAgAD0APQA+ACAAVABSAFUARQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBpAHMAXwByAGUAcwBlAHIAdgBlAGQAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIALwBcACIALABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcACIALwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAIABfAHAAZgB4ADIAZABlAGMAKABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcACIALwBcACIAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHIAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoACgAZgBpAHIAcwB0AGQAZQBjACAAPgA9ACAAVgBBAEwAVQBFACgAXAAiADQAMAAyADYANQAzADEAOAA0ADAAXAAiACkAKQAgACoAIAAoAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACAAPAA9ACAAVgBBAEwAVQBFACgAXAAiADQAMgA5ADQAOQA2ADcAMgA5ADUAXAAiACkAKQApACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAyADQAMAAuADAALgAwAC4AMAAvADQAXABuACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFQAUgBVAEUAIABpAGYAIAB0AGgAZQAgAGEAZABkAHIAZQBzAHMAIABpAHMAIAByAGUAcwBlAHIAdgBlAGQAIABmAG8AcgAgAG0AdQBsAHQAaQBjAGEAcwB0ACAAdQBzAGUALgAgAFMAZQBlACAAUgBGAEMAIAAzADEANwAxAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzADoAIABhACAAQwBlAGwAbAAsACAAUwB0AHIAaQBuAGcALAAgAFIAYQBuAGcAZQAgAG8AcgAgAEEAcgByAGEAeQAgAGMAbwBuAHQAYQBpAG4AaQBuAGcAIABpAHAAIABpAG4AdABlAHIAZgBhAGMAZQBzAFwAbgAgACoAIABpAG4AIABcACIAaQBwAC8AcAByAGUAZgBpAHgAXAAiACAAZgBvAHIAbQBhAHQALgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACgAXAAiADIANAAwAC4AMQAuADEALgAwAC8AMgA0AFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAGkAcwBfAG0AdQBsAHQAaQBjAGEAcwB0ACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMwA3ADUAOAAwADkANgAzADgANABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADMAOQBcACIAKQApACkAIAA+ACAAMAAgACAAIAAvAC8AIAAyADIANAAuADAALgAwAC4AMAAvADQAXABuAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGkAcwAgAGkAcwAgAGEAIABsAG8AbwBwAGIAYQBjAGsAIABhAGQAZAByAGUAcwBzAC4AIABTAGUAZQAgAFIARgBDACAAMwAzADMAMAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBsAG8AbwBwAGIAYQBjAGsAKABcACIAMQAyADcALgAwAC4AMAAuADEALwAzADIAXAAiACkAIAA9AD0APgAgAFQAUgBVAEUAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AaQBzAF8AbABvAG8AcABiAGEAYwBrACAAPQAgAEwAQQBNAEIARABBACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZABvAHQAMgBkAGUAYwAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABwAGYAeABkAGUAYwAsACAAXwBwAGYAeAAyAGQAZQBjACgAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABpAHAAXwBpAG4AdABlAHIAZgBhAGMAZQBzACwAXAAiAC8AXAAiACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQByAHMAdABkAGUAYwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcwBfAG4AZQB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACgAaQBwAGQAZQBjACwAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAAoAGYAaQByAHMAdABkAGUAYwAgAD4APQAgAFYAQQBMAFUARQAoAFwAIgAyADEAMwAwADcAMAA2ADQAMwAyAFwAIgApACkAIAAqACAAKABiAHIAbwBhAGQAYwBhAHMAdABkAGUAYwAgADwAPQAgAFYAQQBMAFUARQAoAFwAIgAyADEANAA3ADQAOAAzADYANAA3AFwAIgApACkAKQAgACAAIAAvAC8AIAAxADIANwAuADAALgAwAC4AMAAvADgAXABuACAAIAAgACAAIAAgACAAIAApACAAPgAgADAAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABUAHIAdQBlACAAaQBmACAAdABoAGUAIABhAGQAZAByAGUAcwBzACAAaQBzACAAcgBlAHMAZQByAHYAZQBkACAAZgBvAHIAIABsAGkAbgBrAC0AbABvAGMAYQBsACAAdQBzAGEAZwBlAC4AIABTAGUAZQAgAFIARgBDACAAMwA5ADIANwAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABpAHMAXwBsAGkAbgBrAF8AbABvAGMAYQBsACgAXAAiADEANgA5AC4AMgA1ADQALgAxADAALgAxAC8AMwAyAFwAIgApACAAPQA9AD4AIABUAFIAVQBFAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuACAAaQBzAF8AbABpAG4AawBfAGwAbwBjAGEAbAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAFwAIgAvAFwAIgAsAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABpAHAAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGQAbwB0ADIAZABlAGMAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBkAG8AdAAyAGQAZQBjACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALAAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwAsAFwAIgAvAFwAIgApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABmAGkAcgBzAHQAZABlAGMALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHMAXwBuAGUAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALABwAGYAeABkAGUAYwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABkAGUAYwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGIAcgBvAGEAZABjAGEAcwB0AGQAZQBjACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAF8AbgBlAHQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBwAGQAZQBjAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAKABmAGkAcgBzAHQAZABlAGMAIAA+AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMQA5ADkANQA2ADQAOABcACIAKQApACAAKgAgACgAYgByAG8AYQBkAGMAYQBzAHQAZABlAGMAIAA8AD0AIABWAEEATABVAEUAKABcACIAMgA4ADUAMgAwADYAMQAxADgAMwBcACIAKQApACkAIAAgACAALwAvACAAMQA2ADkALgAyADUANAAuADAALgAwAC8AMQA2AFwAbgAgACAAIAAgACAAIAAgACAAKQAgAD4AIAAwAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAByAGUAdgBlAHIAcwBlACAARABOAFMAIABwAG8AaQBuAHQAZQByACAAbgBhAG0AZQAgAGYAbwByACAAdABoAGUAIABJAFAAdgA0ACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABUAGgAaQBzACAAaQBtAHAAbABlAG0AZQBuAHQAcwAgAHQAaABlACAAbQBlAHQAaABvAGQAIABkAGUAcwBjAHIAaQBiAGUAZAAgAGkAbgAgAFIARgBDADEAMAAzADUAIAAzAC4ANQAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwA6ACAAYQAgAEMAZQBsAGwALAAgAFMAdAByAGkAbgBnACwAIABSAGEAbgBnAGUAIABvAHIAIABBAHIAcgBhAHkAIABjAG8AbgB0AGEAaQBuAGkAbgBnACAAaQBwACAAaQBuAHQAZQByAGYAYQBjAGUAcwBcAG4AIAAqACAAaQBuACAAXAAiAGkAcAAvAHAAcgBlAGYAaQB4AFwAIgAgAGYAbwByAG0AYQB0AC4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIAByAGUAdgBlAHIAcwBlAF8AcABvAGkAbgB0AGUAcgAoAFwAIgAxADYAOQAuADIANQA0AC4AMQAwAC4AMQAvADMAMgBcACIAKQAgAD0APQA+ACAAMQAuADEAMAAuADIANQA0AC4AMQA2ADkALgBpAG4ALQBhAGQAZAByAC4AYQByAHAAYQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgByAGUAdgBlAHIAcwBlAF8AcABvAGkAbgB0AGUAcgAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkAUwBOAFUATQBCAEUAUgAoAFMARQBBAFIAQwBIACgAXAAiAC8AXAAiACwAaQBwAF8AaQBuAHQAZQByAGYAYQBjAGUAcwApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABFAFgAVABCAEUARgBPAFIARQAoAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMALAAgAFwAIgAvAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAcABfAGkAbgB0AGUAcgBmAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMgAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAXAAiAC4AXAAiACwAIAAyACkALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAzACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAXwBhAGQAZAByAGUAcwBzACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAF8AYQBkAGQAcgBlAHMAcwAsACAAXAAiAC4AXAAiACwAIAAzACkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALAAgACgAbwBjAHQAZQB0ADEAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADEAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAyACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAyACAAPgAgADIANQA1ACkAIAArACAAKABvAGMAdABlAHQAMwAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMwAgAD4AIAAyADUANQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABvAGMAdABlAHQANAAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQANAAgAD4AIAAyADUANQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQANAAgACYAIABcACIALgBcACIAIAAmACAAbwBjAHQAZQB0ADMAIAAmACAAXAAiAC4AXAAiACAAJgAgAG8AYwB0AGUAdAAyACAAJgAgAFwAIgAuAFwAIgAgACYAIABvAGMAdABlAHQAMQAgACYAIABcACIALgBpAG4ALQBhAGQAZAByAC4AYQByAHAAYQBcACIAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABCAEkATgBBAFIAWQAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABQAGUAcgBmAG8AcgBtACAAYQAgAGIAaQB0AHcAaQBzAGUAIABOAE8AVAAgAG8AbgAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGQAZQBjADoAIABhACAAcQB1AGEAZAAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApAFwAbgAgACoAIABiAGkAdABzADoAIAB0AGgAZQAgAG4AdQBtAGIAZQByACAAbwBmACAAYgBpAHQAcwAgAHQAbwAgAHAAZQByAGYAbwByAG0AIAB0AGgAZQAgAEIASQBUAFcASQBTAEUAIABvAG4AXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAZABlAGMAKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApACAAPQA9AD4AIAAzADIAMwAyADIAMwA1ADUAMgAxAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAEIASQBUAE4ATwBUACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGQAZQBjACwAIABiAGkAdABzACwAXABuACAAIAAgACAAQgBJAFQAWABPAFIAKABCAEkAVABMAFMASABJAEYAVAAoADEALAAgAGIAaQB0AHMAKQAgAC0AIAAxACwAIABpAHAAZABlAGMAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEkAUAAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB2AGUAcgB5ACAAZgBpAHIAcwB0ACAAYQBkAGQAcgBlAHMAcwAgAG8AZgAgAGEAIABzAHUAYgBuAGUAdAAuACAASQB0ACAAaQBzACAAdABoAGUAIABuAGUAdAB3AG8AcgBrAFwAbgAgACoAIABhAGQAZAByAGUAcwBzACAAYQBuAGQAIABhAGwAcwBvACAAdABoAGUAIABmAGkAcgBzAHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAcwAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAQgBJAFQAQQBOAEQAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIAB2AGUAcgB5ACAAbABhAHMAdAAgAGEAZABkAHIAZQBzAHMAIABvAGYAIABhACAAcwB1AGIAbgBlAHQALgAgAEkAdAAgAGkAcwAgAHQAaABlACAAYgByAG8AYQBkAGMAYQBzAHQAXABuACAAKgAgAGEAZABkAHIAZQBzAHMAIABhAG4AZAAgAGEAbABzAG8AIAB0AGgAZQAgAGwAYQBzAHQAIABoAG8AcwB0ACAAYQBkAGQAcgBlAHMAcwAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGwAYQBzAHQAXwBhAGQAZAByAGUAcwBzACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGQAZQBjACwAIABwAGYAeABkAGUAYwAsAFwAbgAgACAAIAAgAEIASQBUAE8AUgAoAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsACAAQgBJAFQATgBPAFQAKABwAGYAeABkAGUAYwAsACAAMwAyACkAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAGYAaQByAHMAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AIABJAHQAIABpAHMAIAB0AGgAZQAgAG4AZQB0AHcAbwByAGsAXABuACAAKgAgAGEAZABkAHIAZQBzAHMAIAArACAAMQAgAGUAeABjAGUAcAB0ACAAZgBvAHIAIAAvADMAMQAgAGEAbgBkACAALwAzADIAIABuAGUAdAB3AG8AcgBrAHMAIABmAG8AcgAgAHcAaABpAGMAaAAgAGkAdAAgAGkAcwAgAHQAaABlAFwAbgAgACoAIABuAGUAdAB3AG8AcgBrACAAYQBkAGQAcgBlAHMAcwBcAG4AIAAqACAAXABuACAAKgAgAGkAcABkAGUAYwA6ACAAdABoAGUAIABoAG8AcwB0ACAAcABhAHIAdAAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAgAHAAZgB4AGQAZQBjADoAIAB0AGgAZQAgAG4AZQB0AG0AYQBzAGsAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACoALwBcAG4AXwBmAGkAcgBzAHQAaABvAHMAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAFMAVwBJAFQAQwBIACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIAIABeACAAMwAyACAALQAgADIALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFAAcgBlAGYAaQB4ACAALwAzADEAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIASQBUAEEATgBEACgAbgBlAHQAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMgAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQAQQBOAEQAKABuAGUAdABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAgACsAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAbABhAHMAdAAgAGgAbwBzAHQAIABhAGQAZAByAGUAcwBzACAAbwBmACAAYQAgAHMAdQBiAG4AZQB0AC4AIABJAHQAIABpAHMAIAB0AGgAZQAgAGIAcgBvAGEAZABjAGEAcwB0AFwAbgAgACoAIABhAGQAZAByAGUAcwBzACAALQAgADEAIABlAHgAYwBlAHAAdAAgAGYAbwByACAALwAzADEAIABhAG4AZAAgAC8AMwAyACAAbgBlAHQAdwBvAHIAawBzACAAZgBvAHIAIAB3AGgAaQBjAGgAIABpAHQAIABpAHMAIAB0AGgAZQBcAG4AIAAqACAAYgByAG8AYQBkAGMAYQBzAHQAIABhAGQAZAByAGUAcwBzAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAGwAYQBzAHQAaABvAHMAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALAAgAF8AZgBpAHIAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHYAcABmAHgAZABlAGMALAAgAEIASQBUAE4ATwBUACgAcABmAHgAZABlAGMALAAgADMAMgApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMgAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMQAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQATwBSACgAbgBlAHQAZABlAGMALAAgAGkAbgB2AHAAZgB4AGQAZQBjACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMgAgAF4AIAAzADIAIAAtACAAMQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAZgBpAHgAIAAvADMAMgAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHQAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQATwBSACgAbgBlAHQAZABlAGMALAAgAGkAbgB2AHAAZgB4AGQAZQBjACkAIAAtACAAMQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHAAcgBlAHYAaQBvAHUAcwAgAHMAdQBiAG4AZQB0ACAAaQBuACAAZABlAGMAaQBtAGEAbAAuAFwAbgAgACoAIABcAG4AIAAqACAAaQBwAGQAZQBjADoAIAB0AGgAZQAgAGgAbwBzAHQAIABwAGEAcgB0ACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAcABmAHgAZABlAGMAOgAgAHQAaABlACAAbgBlAHQAbQBhAHMAawAgAGkAbgAgAGQAZQBjAGkAbQBhAGwAXABuACAAKgAvAFwAbgBfAHAAcgBlAHYAaQBvAHUAcwBzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB0AGQAZQBjACwAIABfAGYAaQByAHMAdABfAGEAZABkAHIAZQBzAHMAKABpAHAAZABlAGMALAAgAHAAZgB4AGQAZQBjACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABuAGUAdABkAGUAYwAgAC0AIABCAEkAVABOAE8AVAAoAHAAZgB4AGQAZQBjACwAIAAzADIAKQAgAC0AIAAxAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABSAGUAdAB1AHIAbgBzACAAdABoAGUAIABuAGUAeAB0ACAAcwB1AGIAbgBlAHQAIABpAG4AIABkAGUAYwBpAG0AYQBsAC4AXABuACAAKgAgAFwAbgAgACoAIABpAHAAZABlAGMAOgAgAHQAaABlACAAaABvAHMAdAAgAHAAYQByAHQAIABpAG4AIABkAGUAYwBpAG0AYQBsAFwAbgAgACoAIABwAGYAeABkAGUAYwA6ACAAdABoAGUAIABuAGUAdABtAGEAcwBrACAAaQBuACAAZABlAGMAaQBtAGEAbABcAG4AIAAqAC8AXABuAF8AbgBlAHgAdABzAHUAYgBuAGUAdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAHAAZgB4AGQAZQBjACwAXABuACAAIAAgACAAXwBsAGEAcwB0AF8AYQBkAGQAcgBlAHMAcwAoAGkAcABkAGUAYwAsACAAcABmAHgAZABlAGMAKQAgACsAIAAxAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAASQBQACAAQwBvAG4AdgBlAHIAcwBpAG8AbgAgAFQAZQBjAGgAbgBpAGMAYQBsACAAZgB1AG4AYwB0AGkAbwBuAHMAXABuACAAKgAgAFQAaABlAHMAZQAgAGYAdQBuAGMAdABpAG8AbgBzACAAYQByAGUAIAB1AHMAZQBkACAAdABvACAAcABlAHIAZgBvAHIAbQAgAGkAbgB0AGUAcgBuAGEAbAAgAGMAYQBsAGMAdQBsAGEAdABpAG8AbgBzAFwAbgAgACoALwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAbwB0AHQAZQBkACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAHMAdAByAGkAbgBnACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGQAbwB0ADoAIABhACAAcQB1AGEAZAAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBkAG8AdAAyAGQAZQBjACgAXAAiADEAOQAyAC4AMQA2ADgALgAwAC4AMQBcACIAKQAgAD0APQA+ACAAMwAyADMAMgAyADMANQA1ADIAMQBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAbwB0ADIAZABlAGMAIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABvAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgAsACAAMgApACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMwAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAIAAoAG8AYwB0AGUAdAAxACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAxACAAPgAgADIANQA1ACkAIAArACAAKABvAGMAdABlAHQAMgAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMgAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADMAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADMAIAA+ACAAMgA1ADUAKQAgACsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAbwBjAHQAZQB0ADQAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADQAIAA+ACAAMgA1ADUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABvAGMAdABlAHQAMQAgACoAIAAyADUANgAgAF4AIAAzACkAIAArACAAKABvAGMAdABlAHQAMgAgACoAIAAyADUANgAgAF4AIAAyACkAIAArACAAKABvAGMAdABlAHQAMwAgACoAIAAyADUANgApACAAKwAgACgAbwBjAHQAZQB0ADQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgAGEAIABxAHUAYQBkACAAZABvAHQAdABlAGQAIABkAGUAYwBpAG0AYQBsACAAaQBwACAAYQBkAGQAcgBlAHMAcwAuAFwAbgAgACoAIABpAHAAZABlAGMAOgAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAbgAgAGkAcAAgAGEAZABkAHIAZQBzAHMAIAAoAGkALgBlAC4AIAAzADIAMwAyADIAMwA1ADUAMgAxACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAZABlAGMAKAAzADIAMwAyADIAMwA1ADUAMgAxACkAIAA9AD0APgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAF8AZABlAGMAMgBkAG8AdAAgAD0AIABMAEEATQBCAEQAQQAoAGkAcABkAGUAYwAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABvAGYAYgBvAHUAbgBkACwAIAAoAGkAcABkAGUAYwAgADwAIAAwACkAIAArACAAKABpAHAAZABlAGMAIAA+ACAAKAAyACAAXgAgADMAMgAgAC0AIAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABCAEkAVABSAFMASABJAEYAVAAoAGkAcABkAGUAYwAsACAAMgA0ACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBUAEEATgBEACgAQgBJAFQAUgBTAEgASQBGAFQAKABpAHAAZABlAGMALAAgADEANgApACwAIAAyADUANQApACAAJgAgAFwAIgAuAFwAIgAgACYAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAQgBJAFQAQQBOAEQAKABCAEkAVABSAFMASABJAEYAVAAoAGkAcABkAGUAYwAsACAAOAApACwAIAAyADUANQApACAAJgAgAFwAIgAuAFwAIgAgACYAIABCAEkAVABBAE4ARAAoAGkAcABkAGUAYwAsACAAMgA1ADUAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABxAHUAYQBkACAAZABvAHQAdABlAGQAIABkAGUAYwBpAG0AYQBsACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgAGkAbgB0AG8AIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAC4AXABuACAAKgAgAGkAcABkAG8AdAA6ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQBuACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgACgAaQAuAGUALgAgAFwAIgAxADkAMgAuADEANgA4AC4AMAAuADEAXAAiACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGQAbwB0ADIAYgBpAG4AKABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgApACAAPQA9AD4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAbwB0ADIAYgBpAG4AIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABvAHQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADEALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AYwB0AGUAdAAyACwAIABWAEEATABVAEUAKABUAEUAWABUAEEARgBUAEUAUgAoAFQARQBYAFQAQgBFAEYATwBSAEUAKABpAHAAZABvAHQALAAgAFwAIgAuAFwAIgAsACAAMgApACwAIABcACIALgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABvAGMAdABlAHQAMwAsACAAVgBBAEwAVQBFACgAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQAsACAAXAAiAC4AXAAiACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwBjAHQAZQB0ADQALAAgAFYAQQBMAFUARQAoAFQARQBYAFQAQQBGAFQARQBSACgAaQBwAGQAbwB0ACwAIABcACIALgBcACIALAAgADMAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsACAAKABvAGMAdABlAHQAMQAgADwAIAAwACkAIAArACAAKABvAGMAdABlAHQAMQAgAD4AIAAyADUANQApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA8ACAAMAApACAAKwAgACgAbwBjAHQAZQB0ADIAIAA+ACAAMgA1ADUAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAAzACAAPgAgADIANQA1ACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAG8AYwB0AGUAdAA0ACAAPAAgADAAKQAgACsAIAAoAG8AYwB0AGUAdAA0ACAAPgAgADIANQA1ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAbwBmAGIAbwB1AG4AZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEIAQQBTAEUAKABvAGMAdABlAHQAMQAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQAMgAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQAMwAsACAAMgAsACAAOAApACAAJgAgAEIAQQBTAEUAKABvAGMAdABlAHQANAAsACAAMgAsACAAOAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAQwBvAG4AdgBlAHIAdAAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIABpAG4AdABvACAAYQAgAHEAdQBhAGQAIABkAG8AdAB0AGUAZAAgAGQAZQBjAGkAbQBhAGwAIABpAHAAIABhAGQAZAByAGUAcwBzAC4AXABuACAAKgAgAGkAcABkAG8AdAA6ACAAYQAgADMAMgAgAGIAaQB0ACAAYgBpAG4AYQByAHkAIABzAHQAcgBpAG4AZwAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQBuACAAaQBwACAAYQBkAGQAcgBlAHMAcwAgACgAaQAuAGUALgAgAFwAIgAxADEAMAAwADAAMAAwADAAMQAwADEAMAAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAXAAiACkAXABuACAAKgAgAGAAYABgAFwAbgAgACoAIABfAGIAaQBuADIAZABvAHQAKABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgApACAAPQA9AD4AIABcACIAMQA5ADIALgAxADYAOAAuADAALgAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGIAaQBuADIAZABvAHQAIAA9ACAATABBAE0AQgBEAEEAKABjAGUAbABsAHMALABcAG4AIAAgACAAIABCAEkATgAyAEQARQBDACgATABFAEYAVAAoAGMAZQBsAGwAcwAsACAAOAApACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBOADIARABFAEMAKABNAEkARAAoAGMAZQBsAGwAcwAsACAAOQAsACAAOAApACkAIAAmACAAXAAiAC4AXAAiACAAJgAgAEIASQBOADIARABFAEMAKABNAEkARAAoAGMAZQBsAGwAcwAsACAAMQA3ACwAIAA4ACkAKQAgACYAIABcACIALgBcACIAIAAmAFwAbgAgACAAIAAgACAAIAAgACAAQgBJAE4AMgBEAEUAQwAoAE0ASQBEACgAYwBlAGwAbABzACwAIAAyADUALAAgADgAKQApAFwAbgApADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAAQwBvAG4AdgBlAHIAdAAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAbgAgAEkAUAAgAGEAZABkAHIAZQBzAHMAIABpAG4AdABvACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAuAFwAbgAgACoAIABpAHAAYgBpAG4AOgAgAGEAIAAzADIAIABiAGkAdAAgAGIAaQBuAGEAcgB5ACAAcwB0AHIAaQBuAGcAIAAoAGkALgBlAC4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBiAGkAbgAyAGQAZQAoAFwAIgAxADEAMAAwADAAMAAwADAAMQAwADEAMAAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADEAXAAiACkAIAA9AD0APgAgADMAMgAzADIAMgAzADUANQAyADEAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4AXwBiAGkAbgAyAGQAZQBjACAAPQAgAEwAQQBNAEIARABBACgAaQBwAGIAaQBuACwAIABEAEUAQwBJAE0AQQBMACgAaQBwAGIAaQBuACwAIAAyACkAKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhAG4AIABJAFAAIABhAGQAZAByAGUAcwBzACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIALgBcAG4AIAAqACAAaQBwAGIAaQBuADoAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAKABpAC4AZQAuACAAMwAyADMAMgAyADMANQA1ADIAMQApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBkAGUAYwAyAGIAaQBuACgAMwAyADMAMgAyADMANQA1ADIAMQApACAAPQA9AD4AIABcACIAMQAxADAAMAAwADAAMAAwADEAMAAxADAAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAxAFwAIgBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBfAGQAZQBjADIAYgBpAG4AIAA9ACAATABBAE0AQgBEAEEAKABpAHAAZABlAGMALABcAG4AIAAgACAAIABCAEEAUwBFACgAaQBwAGQAZQBjACwAIAAyACwAIAAzADIAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhACAASQBQACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgACgAMAAgAHQAbwAgADMAMgApACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAALgBcAG4AIAAqACAAaQBwAGIAaQBuADoAIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAKABpAC4AZQAuACAAMwAyADMAMgAyADMANQA1ADIAMQApAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQAoADgAKQAgAD0APQA+ACAAXAAiADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4ALwAvACAAXwBwAGYAeAAyAGIAaQBuACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4ALwAvACAAIAAgACAAIAAvAC8AIABDAGEAbABjAHUAbABhAHQAZQBkACAAdgBlAHIAcwBpAG8AbgBcAG4ALwAvACAAIAAgACAAIABJAEYAKAAoAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAcABmAHgAIAA8ACAAMAApACAAKwAgACgAcABmAHgAIAA+ACAAMwAyACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAFIARQBQAFQAKABcACIAMQBcACIALAAgAHAAZgB4ACkAIAAmACAAUgBFAFAAVAAoAFwAIgAwAFwAIgAsACAAMwAyACAALQAgAHAAZgB4ACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBwAGYAeAAyAGIAaQBuACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABcACIAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAXAAiADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFwAIgAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABcACIAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAXAAiADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFwAIgAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABcACIAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAXAAiADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADAALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQAxACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEAMgAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADMALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQA0ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEANQAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADYALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMQA3ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADEAOAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAxADkALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAwACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIAMQAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADIALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAzACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIANAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADUALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgA2ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADIANwAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAyADgALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMgA5ACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMABcACIALABcAG4AIAAgACAAIAAgACAAIAAgADMAMAAsAFwAIgAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAzADEALABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAMwAyACwAXAAiADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwBuAHYAZQByAHQAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhAG4AIABJAFAAIABtAGEAcwBrACAAaQBuAHQAbwAgAGEAIABkAGUAYwBpAG0AYQBsACAAbgB1AG0AYgBlAHIAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAGEAIABJAFAAIABwAHIAZQBmAGkAeAAgAGwAZQBuAGcAdABoACAAKAAwACAAdABvACAAMwAyACkALgBcAG4AIAAqACAAbQBhAHMAawBiAGkAbgA6ACAAYQAgADMAMgAgAGIAaQB0ACAAYgBpAG4AYQByAHkAIABzAHQAcgBpAG4AZwBcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAF8AYgBpAG4AMgBwAGYAeAAoAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACkAIAA9AD0APgAgADgAXABuACAAKgAgAGAAYABgAFwAbgAgACoALwBcAG4ALwAvACAAXwBiAGkAbgAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAbQBhAHMAawBiAGkAbgAsAFwAbgAvAC8AIAAgACAAIAAgAC8ALwAgAEMAYQBsAGMAdQBsAGEAdABlAGQAIAB2AGUAcgBzAGkAbwBuAFwAbgAvAC8AIAAgACAAIAAgAEkARgAoAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAKABGAEkATgBEACgAXAAiADAAXAAiACwAIABtAGEAcwBrAGIAaQBuACAAJgAgAFwAIgAwAFwAIgApACAALQAgADEAIAA9ACAATABFAE4AKABtAGEAcwBrAGIAaQBuACkAIAAtACAATABFAE4AKABTAFUAQgBTAFQASQBUAFUAVABFACgAbQBhAHMAawBiAGkAbgAsACAAXAAiADEAXAAiACwAIABcACIAXAAiACkAKQApACAAKgAgAFwAbgAvAC8AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAEYASQBOAEQAKABcACIAMABcACIALAAgAG0AYQBzAGsAYgBpAG4AIAAmACAAXAAiADAAXAAiACkAIAA+ACAAMQApACwAXABuAC8ALwAgACAAIAAgACAAIAAgACAAIABGAEkATgBEACgAXAAiADAAXAAiACwAIABtAGEAcwBrAGIAaQBuACAAJgAgAFwAIgAwAFwAIgApACAALQAgADEALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBiAGkAbgAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMABcACIALAAgADgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAXAAiACwAIAA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA0ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMQA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAyACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwADAAMAAwAFwAIgAsACAAMgA0ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwADAAMAAwAFwAIgAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwADAAMAAwAFwAIgAsACAAMgA2ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwADAAMAAwAFwAIgAsACAAMgA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwADAAMAAwAFwAIgAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADAAMAAwAFwAIgAsACAAMgA5ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMAAwAFwAIgAsACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAwAFwAIgAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxADEAMQAxAFwAIgAsACAAMwAyACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAEkAUAAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAAoADAAIAB0AG8AIAAzADIAKQAgAGkAbgB0AG8AIABhACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByAC4AXABuACAAKgAgAHAAZgB4ADoAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQBjACgAOAApACAAPQA9AD4AIAA0ADIANwA4ADEAOQAwADAAOAAwAFwAbgAgACoAIABgAGAAYABcAG4AIAAqAC8AXABuAC8ALwAgAF8AcABmAHgAMgBkAGUAYwAgAD0AIABMAEEATQBCAEQAQQAoAHAAZgB4ACwAXABuAC8ALwAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AXABuAC8ALwAgACAAIAAgACAATABFAFQAKABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AG8AZgBiAG8AdQBuAGQALABcAG4ALwAvACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKABwAGYAeAAgADwAIAAwACkAIAArACAAKABwAGYAeAAgAD4AIAAzADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuAC8ALwAgACAAIAAgACAAIAAgACAAIABfAGIAaQBuADIAZABlAGMAKABfAHAAZgB4ADIAYgBpAG4AKABwAGYAeAApACkAXABuAC8ALwAgACAAIAAgACAAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBwAGYAeAAyAGQAZQBjACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgADAALAAgAFYAQQBMAFUARQAoAFwAIgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxACwAIABWAEEATABVAEUAKABcACIAMgAxADQANwA0ADgAMwA2ADQAOABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAMgAsACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADMALAAgAFYAQQBMAFUARQAoAFwAIgAzADcANQA4ADAAOQA2ADMAOAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAA0ACwAIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAANQAsACAAVgBBAEwAVQBFACgAXAAiADQAMQA2ADAANwA0ADkANQA2ADgAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAMgA3ADgANQA4ADQAMwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAA3ACwAIABWAEEATABVAEUAKABcACIANAAyADYAMQA0ADEAMgA4ADYANABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAOAAsACAAVgBBAEwAVQBFACgAXAAiADQAMgA3ADgAMQA5ADAAMAA4ADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOAA2ADUANwA4ADYAOAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAwADcANwAyADkAOQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAyADgANwAwADEANAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQAzADkAMQA4ADcAMgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADMALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADQANAAzADAAMAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADQALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADcAMAA1ADEANQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADUALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADgAMwA2ADIAMgA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkAMAAxADcANgAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADcALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkAMwA0ADUAMgA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADgALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANQAwADkAMQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAxADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANQA5ADEAMAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgAzADIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA1ADIANAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA2ADIANwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADMALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA2ADcAOAA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADQALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADAANAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADUALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADEANgA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADYALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAMwAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADcALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIANgA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADgALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAyADkALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOAA4AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADAALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQAyAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADEALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA0AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAzADIALAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIAOQA1AFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAbwB0AHQAZQBkACAAZABlAGMAaQBtAGEAbAAgAG0AYQBzAGsAIABpAG4AdABvACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIABhACAASQBQACAAcAByAGUAZgBpAHgAIABsAGUAbgBnAHQAaAAgACgAMAAgAHQAbwAgADMAMgApAC4AXABuACAAKgAgAHAAZgB4ADoAIABhACAAMwAyACAAYgBpAHQAIABiAGkAbgBhAHIAeQAgAHMAdAByAGkAbgBnAFwAbgAgACoAIABgAGAAYABcAG4AIAAqACAAXwBwAGYAeAAyAGQAZQBjACgAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADAAXAAiACkAIAA9AD0APgAgADIANABcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgAvAC8AIABfAGQAbwB0ADIAcABmAHgAIAA9ACAATABBAE0AQgBEAEEAKABtAGEAcwBrAGQAbwB0ACwAXABuAC8ALwAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAZAAgAHYAZQByAHMAaQBvAG4AXABuAC8ALwAgACAAIAAgACAAXwBiAGkAbgAyAHAAZgB4ACgAXwBkAGUAYwAyAGIAaQBuACgAXwBkAG8AdAAyAGQAZQBjACgAbQBhAHMAawBkAG8AdAApACkAKQBcAG4ALwAvACAAKQA7AFwAbgBcAG4AXwBkAG8AdAAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAwAC4AMAAuADAALgAwAFwAIgAsACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAMgA4AC4AMAAuADAALgAwAFwAIgAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADEAOQAyAC4AMAAuADAALgAwAFwAIgAsACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIAMgA0AC4AMAAuADAALgAwAFwAIgAsACAAMwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANAAwAC4AMAAuADAALgAwAFwAIgAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANAA4AC4AMAAuADAALgAwAFwAIgAsACAANQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQAyAC4AMAAuADAALgAwAFwAIgAsACAANgAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA0AC4AMAAuADAALgAwAFwAIgAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMAAuADAALgAwAFwAIgAsACAAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMQAyADgALgAwAC4AMABcACIALAAgADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADEAOQAyAC4AMAAuADAAXAAiACwAIAAxADAALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIAMgA0AC4AMAAuADAAXAAiACwAIAAxADEALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANAAwAC4AMAAuADAAXAAiACwAIAAxADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANAA4AC4AMAAuADAAXAAiACwAIAAxADMALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQAyAC4AMAAuADAAXAAiACwAIAAxADQALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA0AC4AMAAuADAAXAAiACwAIAAxADUALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMAAuADAAXAAiACwAIAAxADYALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMQAyADgALgAwAFwAIgAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADEAOQAyAC4AMABcACIALAAgADEAOAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADIANAAuADAAXAAiACwAIAAxADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA0ADAALgAwAFwAIgAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANAA4AC4AMABcACIALAAgADIAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUAMgAuADAAXAAiACwAIAAyADIALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADQALgAwAFwAIgAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMABcACIALAAgADIANAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADEAMgA4AFwAIgAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMQA5ADIAXAAiACwAIAAyADYALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADIANABcACIALAAgADIANwAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANAAwAFwAIgAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA0ADgAXAAiACwAIAAyADkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAIgAyADUANQAuADIANQA1AC4AMgA1ADUALgAyADUAMgBcACIALAAgADMAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAXAAiADIANQA1AC4AMgA1ADUALgAyADUANQAuADIANQA0AFwAIgAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABcACIAMgA1ADUALgAyADUANQAuADIANQA1AC4AMgA1ADUAXAAiACwAIAAzADIALABcAG4AIAAgACAAIAAgACAAIAAgAE4AQQAoACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AbgB2AGUAcgB0ACAAYQAgAGQAZQBjAGkAbQBhAGwAIABuAGUAdABtAGEAcwBrACAAaQBuAHQAbwAgAGQAZQBjAGkAbQBhAGwAIABuAHUAbQBiAGUAcgAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAYQAgAEkAUAAgAHAAcgBlAGYAaQB4ACAAbABlAG4AZwB0AGgAIAAoADAAIAB0AG8AIAAzADIAKQAuAFwAbgAgACoAIABwAGYAeABkAGUAYwA6ACAAYQAgADMAMgAgAGIAaQB0ACAAZABlAGMAaQBtAGEAbABcAG4AIAAqACAAYABgAGAAXABuACAAKgAgAF8AcABmAHgAMgBkAGUAYwAoAFYAQQBMAFUARQAoAFwAIgA0ADIAOQA0ADkANgA3ADIANgA0AFwAIgApACkAIAA9AD0APgAgADIANwBcAG4AIAAqACAAYABgAGAAXABuACAAKgAvAFwAbgBcAG4AXwBkAGUAYwAyAHAAZgB4ACAAPQAgAEwAQQBNAEIARABBACgAcABmAHgAZABlAGMALABcAG4AIAAgACAAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAcABmAHgAZABlAGMALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgAwAFwAIgApACwAIAAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIAMgAxADQANwA0ADgAMwA2ADQAOABcACIAKQAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADMAMgAyADEAMgAyADUANAA3ADIAXAAiACkALAAgADIALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgAzADcANQA4ADAAOQA2ADMAOAA0AFwAIgApACwAIAAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAwADIANgA1ADMAMQA4ADQAMABcACIAKQAsACAANAAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMQA2ADAANwA0ADkANQA2ADgAXAAiACkALAAgADUALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAMgA3ADgANQA4ADQAMwAyAFwAIgApACwAIAA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADYAMQA0ADEAMgA4ADYANABcACIAKQAsACAANwAsAFwAbgAgACAAIAAgACAAIAAgACAAVgBBAEwAVQBFACgAXAAiADQAMgA3ADgAMQA5ADAAMAA4ADAAXAAiACkALAAgADgALABcAG4AIAAgACAAIAAgACAAIAAgAFYAQQBMAFUARQAoAFwAIgA0ADIAOAA2ADUANwA4ADYAOAA4AFwAIgApACwAIAA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMAA3ADcAMgA5ADkAMgBcACIAKQAsACAAMQAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMgA4ADcAMAAxADQANABcACIAKQAsACAAMQAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkAMwA5ADEAOAA3ADIAMABcACIAKQAsACAAMQAyACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA0ADQAMwAwADAAOABcACIAKQAsACAAMQAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA3ADAANQAxADUAMgBcACIAKQAsACAAMQA0ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA4ADMANgAyADIANABcACIAKQAsACAAMQA1ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADAAMQA3ADYAMABcACIAKQAsACAAMQA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADMANAA1ADIAOABcACIAKQAsACAAMQA3ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADUAMAA5ADEAMgBcACIAKQAsACAAMQA4ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADUAOQAxADAANABcACIAKQAsACAAMQA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYAMwAyADAAMABcACIAKQAsACAAMgAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANQAyADQAOABcACIAKQAsACAAMgAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANgAyADcAMgBcACIAKQAsACAAMgAyACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANgA3ADgANABcACIAKQAsACAAMgAzACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAwADQAMABcACIAKQAsACAAMgA0ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAxADYAOABcACIAKQAsACAAMgA1ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADMAMgBcACIAKQAsACAAMgA2ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADYANABcACIAKQAsACAAMgA3ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADgAMABcACIAKQAsACAAMgA4ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADgAOABcACIAKQAsACAAMgA5ACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkAMgBcACIAKQAsACAAMwAwACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANABcACIAKQAsACAAMwAxACwAXABuACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABcACIANAAyADkANAA5ADYANwAyADkANQBcACIAKQAsACAAMwAyACwAXABuACAAIAAgACAAIAAgACAAIABOAEEAKAApAFwAbgAgACAAIAAgACkAXABuACkAOwAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBpAHAALgBmAHIAbwBtAF8AcAByAGUAZgBpAHgAbABlAG4AIgAsACIAaQBwAC4AZgByAG8AbQBfAG4AZQB0AG0AYQBzAGsAIgAsACIAaQBwAC4AZgByAG8AbQBfAGgAbwBzAHQAbQBhAHMAawAiACwAIgBpAHAALgBmAHIAbwBtAF8AYwBsAGEAcwBzAGYAdQBsACIALAAiAGkAcAAuAHcAaQB0AGgAXwBuAGUAdABtAGEAcwBrACIALAAiAGkAcAAuAHcAaQB0AGgAXwBoAG8AcwB0AG0AYQBzAGsAIgAsACIAaQBwAC4AcABhAGQAZABlAGQAIgAsACIAaQBwAC4AaABvAHMAdABfAG8AYwB0AGUAdABzACIALAAiAGkAcAAuAGkAcABfAGkAbgBfAGIAaQBuAGEAcgB5ACIALAAiAGkAcAAuAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAiACwAIgBpAHAALgBoAG8AcwB0AG0AYQBzAGsAXwBpAG4AXwBiAGkAbgBhAHIAeQAiACwAIgBpAHAALgBpAHAAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACIALAAiAGkAcAAuAG4AZQB0AG0AYQBzAGsAXwBpAG4AXwBkAGUAYwBpAG0AYQBsACIALAAiAGkAcAAuAGgAbwBzAHQAbQBhAHMAawBfAGkAbgBfAGQAZQBjAGkAbQBhAGwAIgAsACIAaQBwAC4AYwBoAGUAYwBrAGUAZAAiACwAIgBpAHAALgBpAHAAIgAsACIAaQBwAC4AcAByAGUAZgBpAHgAbABlAG4AIgAsACIAaQBwAC4AbgBlAHQAbQBhAHMAawAiACwAIgBpAHAALgBoAG8AcwB0AG0AYQBzAGsAIgAsACIAaQBwAC4AbgBlAHQAdwBvAHIAawBfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AYgByAG8AYQBkAGMAYQBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAG4AdQBtAF8AYQBkAGQAcgBlAHMAcwBlAHMAIgAsACIAaQBwAC4AZgBpAHIAcwB0AF8AaABvAHMAdABfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AbABhAHMAdABfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAHAAcgBlAHYAaQBvAHUAcwBfAGgAbwBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAG4AZQB4AHQAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBpAG4AZABlAHgAXwBoAG8AcwB0AF8AYQBkAGQAcgBlAHMAcwAiACwAIgBpAHAALgBwAHIAZQB2AGkAbwB1AHMAXwBzAHUAYgBuAGUAdAAiACwAIgBpAHAALgBuAGUAeAB0AF8AcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AaQBuAGQAZQB4AF8AcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AcwB1AGIAbgBlAHQAcwAiACwAIgBpAHAALgBoAG8AcwB0AHMAIgAsACIAaQBwAC4AcwB1AGIAbgBlAHQAXwBvAGYAIgAsACIAaQBwAC4AcwB1AHAAZQByAG4AZQB0AF8AbwBmACIALAAiAGkAcAAuAHMAdQBwAGUAcgBuAGUAdABfAGQAaQBmAGYAIgAsACIAaQBwAC4AcwB1AHAAZQByAG4AZQB0AF8AbgBlAHcAXwBwAHIAZQBmAGkAeAAiACwAIgBpAHAALgBzAG8AcgB0ACIALAAiAGkAcAAuAGYAaQBsAHQAZQByAF8AaQBuAGMAbAB1AGQAZQAiACwAIgBpAHAALgBmAGkAbAB0AGUAcgBfAGUAeABjAGwAdQBkAGUAIgAsACIAaQBwAC4AbwBmAGYAcwBlAHQAIgAsACIAaQBwAC4AbwBjAHQAZQB0AF8AbwBmAGYAcwBlAHQAIgAsACIAaQBwAC4AaQBzAF8AcgBmAGMAMQA5ADEAOAAiACwAIgBpAHAALgBpAHMAXwBwAHIAaQB2AGEAdABlACIALAAiAGkAcAAuAGkAcwBfAGcAbABvAGIAYQBsACIALAAiAGkAcAAuAGkAcwBfAHUAbgBzAHAAZQBjAGkAZgBpAGUAZAAiACwAIgBpAHAALgBpAHMAXwByAGUAcwBlAHIAdgBlAGQAIgAsACIAaQBwAC4AaQBzAF8AbQB1AGwAdABpAGMAYQBzAHQAIgAsACIAaQBwAC4AaQBzAF8AbABvAG8AcABiAGEAYwBrACIALAAiAGkAcAAuAGkAcwBfAGwAaQBuAGsAXwBsAG8AYwBhAGwAIgAsACIAaQBwAC4AcgBlAHYAZQByAHMAZQBfAHAAbwBpAG4AdABlAHIAIgAsACIAaQBwAC4AQgBJAFQATgBPAFQAIgAsACIAaQBwAC4AXwBmAGkAcgBzAHQAXwBhAGQAZAByAGUAcwBzACIALAAiAGkAcAAuAF8AbABhAHMAdABfAGEAZABkAHIAZQBzAHMAIgAsACIAaQBwAC4AXwBmAGkAcgBzAHQAaABvAHMAdAAiACwAIgBpAHAALgBfAGwAYQBzAHQAaABvAHMAdAAiACwAIgBpAHAALgBfAHAAcgBlAHYAaQBvAHUAcwBzAHUAYgBuAGUAdAAiACwAIgBpAHAALgBfAG4AZQB4AHQAcwB1AGIAbgBlAHQAIgAsACIAaQBwAC4AXwBkAG8AdAAyAGQAZQBjACIALAAiAGkAcAAuAF8AZABlAGMAMgBkAG8AdAAiACwAIgBpAHAALgBfAGQAbwB0ADIAYgBpAG4AIgAsACIAaQBwAC4AXwBiAGkAbgAyAGQAbwB0ACIALAAiAGkAcAAuAF8AYgBpAG4AMgBkAGUAYwAiACwAIgBpAHAALgBfAGQAZQBjADIAYgBpAG4AIgAsACIAaQBwAC4AXwBwAGYAeAAyAGIAaQBuACIALAAiAGkAcAAuAF8AYgBpAG4AMgBwAGYAeAAiACwAIgBpAHAALgBfAHAAZgB4ADIAZABlAGMAIgAsACIAaQBwAC4AXwBkAG8AdAAyAHAAZgB4ACIALAAiAGkAcAAuAF8AZABlAGMAMgBwAGYAeAAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgCjACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAGcAYgAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
